--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -451,17 +451,13 @@
         <v>214.9333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>216</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>214.9333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>215</v>
-      </c>
-      <c r="K3" t="n">
-        <v>216</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>214.9833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>215</v>
-      </c>
-      <c r="K4" t="n">
-        <v>216</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>215</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>216</v>
-      </c>
-      <c r="K5" t="n">
-        <v>216</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>215.0166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>216</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>215.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>216</v>
-      </c>
-      <c r="K7" t="n">
-        <v>216</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>215.0666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>217</v>
-      </c>
-      <c r="K8" t="n">
-        <v>216</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>215.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>217</v>
-      </c>
-      <c r="K9" t="n">
-        <v>216</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>215.15</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>218</v>
-      </c>
-      <c r="K10" t="n">
-        <v>216</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -840,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>216</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -881,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>216</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -922,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>216</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>216</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>216</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>216</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1086,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>216</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1124,19 +1014,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>216</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>1.004259259259259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1165,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1375,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3472,13 +3356,17 @@
         <v>218.35</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>216</v>
+      </c>
+      <c r="K85" t="n">
+        <v>216</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3513,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>216</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3436,22 @@
         <v>218.1166666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>213</v>
+      </c>
+      <c r="K87" t="n">
+        <v>216</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3577,14 +3479,22 @@
         <v>218.0166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>215</v>
+      </c>
+      <c r="K88" t="n">
+        <v>216</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3618,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>216</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3653,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>216</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3682,18 +3604,20 @@
         <v>217.6833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>215</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>215</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>216</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3721,20 +3645,18 @@
         <v>217.6</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>215</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3773,11 +3695,11 @@
         <v>215</v>
       </c>
       <c r="K93" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3816,7 +3738,7 @@
         <v>215</v>
       </c>
       <c r="K94" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3850,16 +3772,14 @@
         <v>217.2333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>213</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3893,16 +3813,14 @@
         <v>217.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>214</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3943,7 +3861,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3977,16 +3895,14 @@
         <v>216.9666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>213</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4020,16 +3936,14 @@
         <v>216.8833333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>215</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4063,16 +3977,14 @@
         <v>216.8</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>213</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4106,16 +4018,14 @@
         <v>216.7166666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>215</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4149,16 +4059,14 @@
         <v>216.6166666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>213</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4192,16 +4100,14 @@
         <v>216.5166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>214</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4235,16 +4141,14 @@
         <v>216.4166666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>214</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4278,16 +4182,14 @@
         <v>216.3166666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>214</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>1133.1369</v>
+        <v>4.6512</v>
       </c>
       <c r="G2" t="n">
-        <v>214.9333333333333</v>
+        <v>214.9166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>4632.7745</v>
+        <v>1133.1369</v>
       </c>
       <c r="G3" t="n">
         <v>214.9333333333333</v>
@@ -506,19 +506,19 @@
         <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E4" t="n">
         <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>198.1319</v>
+        <v>4632.7745</v>
       </c>
       <c r="G4" t="n">
-        <v>214.9833333333333</v>
+        <v>214.9333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E5" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>555.1423</v>
+        <v>198.1319</v>
       </c>
       <c r="G5" t="n">
-        <v>215</v>
+        <v>214.9833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>216</v>
       </c>
       <c r="F6" t="n">
-        <v>4444.8576</v>
+        <v>555.1423</v>
       </c>
       <c r="G6" t="n">
-        <v>215.0166666666667</v>
+        <v>215</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>216</v>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" t="n">
         <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>248</v>
+        <v>4444.8576</v>
       </c>
       <c r="G7" t="n">
-        <v>215.05</v>
+        <v>215.0166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
         <v>217</v>
@@ -655,10 +655,10 @@
         <v>216</v>
       </c>
       <c r="F8" t="n">
-        <v>658.6660000000001</v>
+        <v>248</v>
       </c>
       <c r="G8" t="n">
-        <v>215.0666666666667</v>
+        <v>215.05</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>217</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
         <v>217</v>
@@ -690,10 +690,10 @@
         <v>216</v>
       </c>
       <c r="F9" t="n">
-        <v>4831.7063</v>
+        <v>658.6660000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>215.1</v>
+        <v>215.0666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F10" t="n">
-        <v>7016.3996</v>
+        <v>4831.7063</v>
       </c>
       <c r="G10" t="n">
-        <v>215.15</v>
+        <v>215.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E11" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>7016.3996</v>
       </c>
       <c r="G11" t="n">
-        <v>215.1833333333333</v>
+        <v>215.15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F12" t="n">
-        <v>1975.1883</v>
+        <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>215.2333333333333</v>
+        <v>215.1833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>218</v>
       </c>
       <c r="F13" t="n">
-        <v>635.3389</v>
+        <v>1975.1883</v>
       </c>
       <c r="G13" t="n">
-        <v>215.2833333333333</v>
+        <v>215.2333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" t="n">
-        <v>14409.2054</v>
+        <v>635.3389</v>
       </c>
       <c r="G14" t="n">
-        <v>215.35</v>
+        <v>215.2833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>219</v>
       </c>
       <c r="F15" t="n">
-        <v>3561.4421</v>
+        <v>14409.2054</v>
       </c>
       <c r="G15" t="n">
-        <v>215.4</v>
+        <v>215.35</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>219</v>
       </c>
       <c r="F16" t="n">
-        <v>241.642</v>
+        <v>3561.4421</v>
       </c>
       <c r="G16" t="n">
-        <v>215.4666666666667</v>
+        <v>215.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001</v>
+        <v>241.642</v>
       </c>
       <c r="G17" t="n">
-        <v>215.5333333333333</v>
+        <v>215.4666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>219</v>
       </c>
       <c r="C18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D18" t="n">
         <v>219</v>
       </c>
       <c r="E18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" t="n">
-        <v>2450.3053</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>215.5833333333333</v>
+        <v>215.5333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1031,25 +1031,25 @@
         <v>219</v>
       </c>
       <c r="C19" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" t="n">
         <v>219</v>
       </c>
       <c r="E19" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" t="n">
-        <v>1466.1647</v>
+        <v>2450.3053</v>
       </c>
       <c r="G19" t="n">
-        <v>215.65</v>
+        <v>215.5833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" t="n">
-        <v>57340.259</v>
+        <v>1466.1647</v>
       </c>
       <c r="G20" t="n">
-        <v>215.7333333333333</v>
+        <v>215.65</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>220</v>
       </c>
       <c r="C21" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" t="n">
         <v>220</v>
       </c>
       <c r="F21" t="n">
-        <v>15892.2827</v>
+        <v>57340.259</v>
       </c>
       <c r="G21" t="n">
-        <v>215.8333333333333</v>
+        <v>215.7333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" t="n">
         <v>220</v>
       </c>
       <c r="F22" t="n">
-        <v>5668.193</v>
+        <v>15892.2827</v>
       </c>
       <c r="G22" t="n">
-        <v>215.95</v>
+        <v>215.8333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>221</v>
+      </c>
+      <c r="C23" t="n">
         <v>222</v>
       </c>
-      <c r="C23" t="n">
-        <v>220</v>
-      </c>
       <c r="D23" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" t="n">
         <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>17633.3516</v>
+        <v>5668.193</v>
       </c>
       <c r="G23" t="n">
-        <v>216.0333333333333</v>
+        <v>215.95</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="n">
         <v>220</v>
       </c>
       <c r="D24" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E24" t="n">
         <v>220</v>
       </c>
       <c r="F24" t="n">
-        <v>2584</v>
+        <v>17633.3516</v>
       </c>
       <c r="G24" t="n">
-        <v>216.1166666666667</v>
+        <v>216.0333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F25" t="n">
-        <v>583.0173</v>
+        <v>2584</v>
       </c>
       <c r="G25" t="n">
-        <v>216.2333333333333</v>
+        <v>216.1166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>222</v>
       </c>
       <c r="C26" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D26" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F26" t="n">
-        <v>17201.5648</v>
+        <v>583.0173</v>
       </c>
       <c r="G26" t="n">
-        <v>216.3333333333333</v>
+        <v>216.2333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" t="n">
         <v>221</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>5862.6392</v>
+        <v>17201.5648</v>
       </c>
       <c r="G27" t="n">
-        <v>216.4666666666667</v>
+        <v>216.3333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>221</v>
       </c>
       <c r="D28" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E28" t="n">
         <v>221</v>
       </c>
       <c r="F28" t="n">
-        <v>3394.7526</v>
+        <v>5862.6392</v>
       </c>
       <c r="G28" t="n">
-        <v>216.6</v>
+        <v>216.4666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>221</v>
       </c>
       <c r="F29" t="n">
-        <v>2528.7953</v>
+        <v>3394.7526</v>
       </c>
       <c r="G29" t="n">
-        <v>216.6833333333333</v>
+        <v>216.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>221</v>
       </c>
       <c r="F30" t="n">
-        <v>1892.0197</v>
+        <v>2528.7953</v>
       </c>
       <c r="G30" t="n">
-        <v>216.8</v>
+        <v>216.6833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>221</v>
       </c>
       <c r="C31" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D31" t="n">
         <v>221</v>
       </c>
       <c r="E31" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" t="n">
-        <v>855.2524</v>
+        <v>1892.0197</v>
       </c>
       <c r="G31" t="n">
-        <v>216.95</v>
+        <v>216.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" t="n">
         <v>220</v>
       </c>
       <c r="D32" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" t="n">
         <v>220</v>
       </c>
       <c r="F32" t="n">
-        <v>5776.028</v>
+        <v>855.2524</v>
       </c>
       <c r="G32" t="n">
-        <v>217.0833333333333</v>
+        <v>216.95</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E33" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F33" t="n">
-        <v>412.2878</v>
+        <v>5776.028</v>
       </c>
       <c r="G33" t="n">
-        <v>217.2166666666667</v>
+        <v>217.0833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>221</v>
       </c>
       <c r="F34" t="n">
-        <v>1388.5001</v>
+        <v>412.2878</v>
       </c>
       <c r="G34" t="n">
-        <v>217.3166666666667</v>
+        <v>217.2166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" t="n">
         <v>221</v>
       </c>
       <c r="D35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F35" t="n">
-        <v>6075.1114</v>
+        <v>1388.5001</v>
       </c>
       <c r="G35" t="n">
-        <v>217.4166666666667</v>
+        <v>217.3166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C36" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" t="n">
         <v>220</v>
       </c>
       <c r="F36" t="n">
-        <v>192.9268</v>
+        <v>6075.1114</v>
       </c>
       <c r="G36" t="n">
-        <v>217.55</v>
+        <v>217.4166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C37" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" t="n">
-        <v>22.608</v>
+        <v>192.9268</v>
       </c>
       <c r="G37" t="n">
-        <v>217.7</v>
+        <v>217.55</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D38" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E38" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F38" t="n">
-        <v>3037.7372</v>
+        <v>22.608</v>
       </c>
       <c r="G38" t="n">
-        <v>217.8166666666667</v>
+        <v>217.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>220</v>
       </c>
       <c r="F39" t="n">
-        <v>245.496</v>
+        <v>3037.7372</v>
       </c>
       <c r="G39" t="n">
-        <v>217.9333333333333</v>
+        <v>217.8166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>220</v>
       </c>
       <c r="F40" t="n">
-        <v>1093.4126</v>
+        <v>245.496</v>
       </c>
       <c r="G40" t="n">
-        <v>218.0333333333333</v>
+        <v>217.9333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" t="n">
         <v>220</v>
       </c>
       <c r="D41" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E41" t="n">
         <v>220</v>
       </c>
       <c r="F41" t="n">
-        <v>7782.7483</v>
+        <v>1093.4126</v>
       </c>
       <c r="G41" t="n">
-        <v>218.1166666666667</v>
+        <v>218.0333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C42" t="n">
         <v>220</v>
@@ -1845,10 +1845,10 @@
         <v>220</v>
       </c>
       <c r="F42" t="n">
-        <v>18744.2414</v>
+        <v>7782.7483</v>
       </c>
       <c r="G42" t="n">
-        <v>218.1833333333333</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>220</v>
       </c>
       <c r="D43" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E43" t="n">
         <v>220</v>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>18744.2414</v>
       </c>
       <c r="G43" t="n">
-        <v>218.2333333333333</v>
+        <v>218.1833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>220</v>
       </c>
       <c r="F44" t="n">
-        <v>1552.3225</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="n">
-        <v>218.2833333333333</v>
+        <v>218.2333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>220</v>
       </c>
       <c r="F45" t="n">
-        <v>30895.9102</v>
+        <v>1552.3225</v>
       </c>
       <c r="G45" t="n">
-        <v>218.3333333333333</v>
+        <v>218.2833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" t="n">
         <v>220</v>
       </c>
       <c r="D46" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46" t="n">
         <v>220</v>
       </c>
       <c r="F46" t="n">
-        <v>83.039</v>
+        <v>30895.9102</v>
       </c>
       <c r="G46" t="n">
-        <v>218.4166666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C47" t="n">
         <v>220</v>
       </c>
       <c r="D47" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E47" t="n">
         <v>220</v>
       </c>
       <c r="F47" t="n">
-        <v>14393.0187</v>
+        <v>83.039</v>
       </c>
       <c r="G47" t="n">
-        <v>218.4833333333333</v>
+        <v>218.4166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>220</v>
       </c>
       <c r="F48" t="n">
-        <v>7313.5358</v>
+        <v>14393.0187</v>
       </c>
       <c r="G48" t="n">
-        <v>218.55</v>
+        <v>218.4833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>220</v>
       </c>
       <c r="C49" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D49" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E49" t="n">
         <v>220</v>
       </c>
       <c r="F49" t="n">
-        <v>12535.8228</v>
+        <v>7313.5358</v>
       </c>
       <c r="G49" t="n">
-        <v>218.6333333333333</v>
+        <v>218.55</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" t="n">
         <v>221</v>
@@ -2122,13 +2122,13 @@
         <v>221</v>
       </c>
       <c r="E50" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" t="n">
-        <v>17014.0777</v>
+        <v>12535.8228</v>
       </c>
       <c r="G50" t="n">
-        <v>218.7166666666667</v>
+        <v>218.6333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>221</v>
       </c>
       <c r="C51" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D51" t="n">
         <v>221</v>
       </c>
       <c r="E51" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F51" t="n">
-        <v>241.8422</v>
+        <v>17014.0777</v>
       </c>
       <c r="G51" t="n">
-        <v>218.7833333333333</v>
+        <v>218.7166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C52" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E52" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F52" t="n">
-        <v>7314.1893</v>
+        <v>241.8422</v>
       </c>
       <c r="G52" t="n">
-        <v>218.8333333333333</v>
+        <v>218.7833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>219</v>
       </c>
       <c r="F53" t="n">
-        <v>133.4352</v>
+        <v>7314.1893</v>
       </c>
       <c r="G53" t="n">
-        <v>218.8833333333333</v>
+        <v>218.8333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>219</v>
       </c>
       <c r="F54" t="n">
-        <v>930.4012</v>
+        <v>133.4352</v>
       </c>
       <c r="G54" t="n">
-        <v>218.9333333333333</v>
+        <v>218.8833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>219</v>
       </c>
       <c r="F55" t="n">
-        <v>254.8968</v>
+        <v>930.4012</v>
       </c>
       <c r="G55" t="n">
-        <v>219</v>
+        <v>218.9333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C56" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F56" t="n">
-        <v>114</v>
+        <v>254.8968</v>
       </c>
       <c r="G56" t="n">
-        <v>219.0666666666667</v>
+        <v>219</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
+        <v>220</v>
+      </c>
+      <c r="D57" t="n">
+        <v>220</v>
+      </c>
+      <c r="E57" t="n">
         <v>218</v>
       </c>
-      <c r="D57" t="n">
-        <v>221</v>
-      </c>
-      <c r="E57" t="n">
-        <v>217</v>
-      </c>
       <c r="F57" t="n">
-        <v>15558.5321</v>
+        <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>219.1166666666667</v>
+        <v>219.0666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>218</v>
       </c>
       <c r="D58" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E58" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" t="n">
-        <v>171.1914</v>
+        <v>15558.5321</v>
       </c>
       <c r="G58" t="n">
-        <v>219.15</v>
+        <v>219.1166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,19 +2428,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E59" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>3803.0842</v>
+        <v>171.1914</v>
       </c>
       <c r="G59" t="n">
         <v>219.15</v>
@@ -2475,10 +2475,10 @@
         <v>217</v>
       </c>
       <c r="F60" t="n">
-        <v>5045.1683</v>
+        <v>3803.0842</v>
       </c>
       <c r="G60" t="n">
-        <v>219.2</v>
+        <v>219.15</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D61" t="n">
         <v>217</v>
       </c>
       <c r="E61" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F61" t="n">
-        <v>135</v>
+        <v>5045.1683</v>
       </c>
       <c r="G61" t="n">
-        <v>219.2166666666667</v>
+        <v>219.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62" t="n">
         <v>216</v>
       </c>
       <c r="D62" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" t="n">
         <v>216</v>
       </c>
       <c r="F62" t="n">
-        <v>565.8653</v>
+        <v>135</v>
       </c>
       <c r="G62" t="n">
         <v>219.2166666666667</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E63" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F63" t="n">
-        <v>683.2972</v>
+        <v>565.8653</v>
       </c>
       <c r="G63" t="n">
-        <v>219.25</v>
+        <v>219.2166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D64" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E64" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F64" t="n">
-        <v>520</v>
+        <v>683.2972</v>
       </c>
       <c r="G64" t="n">
-        <v>219.2166666666667</v>
+        <v>219.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>216</v>
       </c>
       <c r="F65" t="n">
-        <v>2150.4909</v>
+        <v>520</v>
       </c>
       <c r="G65" t="n">
         <v>219.2166666666667</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C66" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D66" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E66" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F66" t="n">
-        <v>8269.4786</v>
+        <v>2150.4909</v>
       </c>
       <c r="G66" t="n">
-        <v>219.2</v>
+        <v>219.2166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E67" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F67" t="n">
-        <v>332</v>
+        <v>8269.4786</v>
       </c>
       <c r="G67" t="n">
-        <v>219.2166666666667</v>
+        <v>219.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C68" t="n">
         <v>218</v>
@@ -2752,22 +2752,26 @@
         <v>218</v>
       </c>
       <c r="E68" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" t="n">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="G68" t="n">
-        <v>219.25</v>
+        <v>219.2166666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>215</v>
+      </c>
+      <c r="K68" t="n">
+        <v>215</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
@@ -2778,7 +2782,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" t="n">
         <v>218</v>
@@ -2787,13 +2791,13 @@
         <v>218</v>
       </c>
       <c r="E69" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F69" t="n">
-        <v>4115.7471</v>
+        <v>182</v>
       </c>
       <c r="G69" t="n">
-        <v>219.2666666666667</v>
+        <v>219.25</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2806,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>215</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2823,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" t="n">
         <v>216</v>
       </c>
       <c r="F70" t="n">
-        <v>14226.7234</v>
+        <v>4115.7471</v>
       </c>
       <c r="G70" t="n">
-        <v>219.2833333333333</v>
+        <v>219.2666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2847,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>215</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2867,19 @@
         <v>217</v>
       </c>
       <c r="C71" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" t="n">
         <v>219</v>
       </c>
       <c r="E71" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F71" t="n">
-        <v>8064.2345</v>
+        <v>14226.7234</v>
       </c>
       <c r="G71" t="n">
-        <v>219.3</v>
+        <v>219.2833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2902,19 @@
         <v>217</v>
       </c>
       <c r="C72" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E72" t="n">
         <v>217</v>
       </c>
       <c r="F72" t="n">
-        <v>327</v>
+        <v>8064.2345</v>
       </c>
       <c r="G72" t="n">
-        <v>219.2833333333333</v>
+        <v>219.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2924,16 +2940,16 @@
         <v>217</v>
       </c>
       <c r="D73" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E73" t="n">
         <v>217</v>
       </c>
       <c r="F73" t="n">
-        <v>12.4016</v>
+        <v>327</v>
       </c>
       <c r="G73" t="n">
-        <v>219.2666666666667</v>
+        <v>219.2833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,31 +2969,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E74" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F74" t="n">
-        <v>41.4183</v>
+        <v>12.4016</v>
       </c>
       <c r="G74" t="n">
-        <v>219.2166666666667</v>
+        <v>219.2666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>217</v>
+      </c>
+      <c r="K74" t="n">
+        <v>217</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3000,20 +3020,28 @@
         <v>216</v>
       </c>
       <c r="F75" t="n">
-        <v>607.4973</v>
+        <v>41.4183</v>
       </c>
       <c r="G75" t="n">
-        <v>219.1666666666667</v>
+        <v>219.2166666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>217</v>
+      </c>
+      <c r="K75" t="n">
+        <v>217</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,32 +3051,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E76" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F76" t="n">
-        <v>109.5994</v>
+        <v>607.4973</v>
       </c>
       <c r="G76" t="n">
-        <v>219.1</v>
+        <v>219.1666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>216</v>
+      </c>
+      <c r="K76" t="n">
+        <v>217</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,31 +3094,35 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F77" t="n">
-        <v>6728</v>
+        <v>109.5994</v>
       </c>
       <c r="G77" t="n">
-        <v>219.0166666666667</v>
+        <v>219.1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>216</v>
+      </c>
+      <c r="K77" t="n">
+        <v>216</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3096,29 +3136,37 @@
         <v>214</v>
       </c>
       <c r="C78" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" t="n">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E78" t="n">
         <v>214</v>
       </c>
       <c r="F78" t="n">
-        <v>32814.6345</v>
+        <v>6728</v>
       </c>
       <c r="G78" t="n">
-        <v>218.9666666666667</v>
+        <v>219.0166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>215</v>
+      </c>
+      <c r="K78" t="n">
+        <v>216</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,32 +3176,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79" t="n">
         <v>215</v>
       </c>
       <c r="D79" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E79" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F79" t="n">
-        <v>3000</v>
+        <v>32814.6345</v>
       </c>
       <c r="G79" t="n">
-        <v>218.9</v>
+        <v>218.9666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>214</v>
+      </c>
+      <c r="K79" t="n">
+        <v>216</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3219,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80" t="n">
         <v>215</v>
       </c>
       <c r="D80" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E80" t="n">
         <v>215</v>
       </c>
       <c r="F80" t="n">
-        <v>3899.209093087557</v>
+        <v>3000</v>
       </c>
       <c r="G80" t="n">
-        <v>218.8166666666667</v>
+        <v>218.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3243,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>216</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3260,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C81" t="n">
         <v>215</v>
       </c>
       <c r="D81" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E81" t="n">
         <v>215</v>
       </c>
       <c r="F81" t="n">
-        <v>460.8294</v>
+        <v>3899.209093087557</v>
       </c>
       <c r="G81" t="n">
-        <v>218.7166666666667</v>
+        <v>218.8166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>216</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3301,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" t="n">
         <v>215</v>
       </c>
       <c r="D82" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E82" t="n">
         <v>215</v>
       </c>
       <c r="F82" t="n">
-        <v>5518</v>
+        <v>460.8294</v>
       </c>
       <c r="G82" t="n">
-        <v>218.6</v>
+        <v>218.7166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>216</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3345,19 @@
         <v>216</v>
       </c>
       <c r="C83" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" t="n">
         <v>216</v>
       </c>
       <c r="E83" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83" t="n">
-        <v>508.3992</v>
+        <v>5518</v>
       </c>
       <c r="G83" t="n">
-        <v>218.5333333333333</v>
+        <v>218.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3366,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>216</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3395,10 @@
         <v>216</v>
       </c>
       <c r="F84" t="n">
-        <v>225.7836</v>
+        <v>508.3992</v>
       </c>
       <c r="G84" t="n">
-        <v>218.4666666666667</v>
+        <v>218.5333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3407,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>216</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,36 +3424,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D85" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E85" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F85" t="n">
-        <v>2150.3053</v>
+        <v>225.7836</v>
       </c>
       <c r="G85" t="n">
-        <v>218.35</v>
+        <v>218.4666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>216</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>216</v>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3380,19 +3468,19 @@
         <v>215</v>
       </c>
       <c r="C86" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D86" t="n">
         <v>215</v>
       </c>
       <c r="E86" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F86" t="n">
-        <v>69746.4771</v>
+        <v>2150.3053</v>
       </c>
       <c r="G86" t="n">
-        <v>218.2166666666667</v>
+        <v>218.35</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3406,7 +3494,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3421,29 +3509,27 @@
         <v>215</v>
       </c>
       <c r="C87" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E87" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F87" t="n">
-        <v>4147.3938</v>
+        <v>69746.4771</v>
       </c>
       <c r="G87" t="n">
-        <v>218.1166666666667</v>
+        <v>218.2166666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>213</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>216</v>
       </c>
@@ -3467,26 +3553,24 @@
         <v>215</v>
       </c>
       <c r="D88" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E88" t="n">
         <v>215</v>
       </c>
       <c r="F88" t="n">
-        <v>245.0417</v>
+        <v>4147.3938</v>
       </c>
       <c r="G88" t="n">
-        <v>218.0166666666667</v>
+        <v>218.1166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>215</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>216</v>
       </c>
@@ -3504,22 +3588,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C89" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D89" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E89" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F89" t="n">
-        <v>8922.8428</v>
+        <v>245.0417</v>
       </c>
       <c r="G89" t="n">
-        <v>217.8666666666667</v>
+        <v>218.0166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3545,22 +3629,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D90" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E90" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F90" t="n">
-        <v>367.3008</v>
+        <v>8922.8428</v>
       </c>
       <c r="G90" t="n">
-        <v>217.7666666666667</v>
+        <v>217.8666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3586,7 +3670,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" t="n">
         <v>215</v>
@@ -3595,13 +3679,13 @@
         <v>215</v>
       </c>
       <c r="E91" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F91" t="n">
-        <v>187.0591</v>
+        <v>367.3008</v>
       </c>
       <c r="G91" t="n">
-        <v>217.6833333333333</v>
+        <v>217.7666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3639,10 +3723,10 @@
         <v>215</v>
       </c>
       <c r="F92" t="n">
-        <v>472.3015</v>
+        <v>187.0591</v>
       </c>
       <c r="G92" t="n">
-        <v>217.6</v>
+        <v>217.6833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3674,26 +3758,24 @@
         <v>215</v>
       </c>
       <c r="D93" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E93" t="n">
         <v>215</v>
       </c>
       <c r="F93" t="n">
-        <v>992.996</v>
+        <v>472.3015</v>
       </c>
       <c r="G93" t="n">
-        <v>217.5</v>
+        <v>217.6</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>215</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>216</v>
       </c>
@@ -3717,26 +3799,24 @@
         <v>215</v>
       </c>
       <c r="D94" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E94" t="n">
         <v>215</v>
       </c>
       <c r="F94" t="n">
-        <v>25</v>
+        <v>992.996</v>
       </c>
       <c r="G94" t="n">
-        <v>217.4</v>
+        <v>217.5</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>215</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>216</v>
       </c>
@@ -3754,22 +3834,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C95" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D95" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E95" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F95" t="n">
-        <v>69746.4771</v>
+        <v>25</v>
       </c>
       <c r="G95" t="n">
-        <v>217.2333333333333</v>
+        <v>217.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3795,22 +3875,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C96" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D96" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F96" t="n">
-        <v>1471.2568</v>
+        <v>69746.4771</v>
       </c>
       <c r="G96" t="n">
-        <v>217.15</v>
+        <v>217.2333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3839,19 +3919,19 @@
         <v>214</v>
       </c>
       <c r="C97" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D97" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E97" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F97" t="n">
-        <v>311.4296</v>
+        <v>1471.2568</v>
       </c>
       <c r="G97" t="n">
-        <v>217.0333333333333</v>
+        <v>217.15</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3877,22 +3957,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C98" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D98" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E98" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F98" t="n">
-        <v>5241.2944</v>
+        <v>311.4296</v>
       </c>
       <c r="G98" t="n">
-        <v>216.9666666666667</v>
+        <v>217.0333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3918,22 +3998,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C99" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D99" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E99" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F99" t="n">
-        <v>10300</v>
+        <v>5241.2944</v>
       </c>
       <c r="G99" t="n">
-        <v>216.8833333333333</v>
+        <v>216.9666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3959,22 +4039,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C100" t="n">
         <v>215</v>
       </c>
       <c r="D100" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F100" t="n">
-        <v>7192.4676</v>
+        <v>10300</v>
       </c>
       <c r="G100" t="n">
-        <v>216.8</v>
+        <v>216.8833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4000,22 +4080,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" t="n">
         <v>215</v>
       </c>
       <c r="D101" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E101" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>7192.4676</v>
       </c>
       <c r="G101" t="n">
-        <v>216.7166666666667</v>
+        <v>216.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4041,22 +4121,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C102" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D102" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E102" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F102" t="n">
-        <v>29636.457</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>216.6166666666667</v>
+        <v>216.7166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4082,7 +4162,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103" t="n">
         <v>214</v>
@@ -4091,13 +4171,13 @@
         <v>214</v>
       </c>
       <c r="E103" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F103" t="n">
-        <v>46.0129</v>
+        <v>29636.457</v>
       </c>
       <c r="G103" t="n">
-        <v>216.5166666666667</v>
+        <v>216.6166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4135,10 +4215,10 @@
         <v>214</v>
       </c>
       <c r="F104" t="n">
-        <v>176.6989</v>
+        <v>46.0129</v>
       </c>
       <c r="G104" t="n">
-        <v>216.4166666666667</v>
+        <v>216.5166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4176,10 +4256,10 @@
         <v>214</v>
       </c>
       <c r="F105" t="n">
-        <v>7975.4882</v>
+        <v>176.6989</v>
       </c>
       <c r="G105" t="n">
-        <v>216.3166666666667</v>
+        <v>216.4166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4197,6 +4277,47 @@
         </is>
       </c>
       <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>214</v>
+      </c>
+      <c r="D106" t="n">
+        <v>214</v>
+      </c>
+      <c r="E106" t="n">
+        <v>214</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7975.4882</v>
+      </c>
+      <c r="G106" t="n">
+        <v>216.3166666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>216</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4.6512</v>
       </c>
       <c r="G2" t="n">
+        <v>215.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>214.9166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1133.1369</v>
       </c>
       <c r="G3" t="n">
+        <v>215.7333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>214.9333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>215</v>
+      </c>
+      <c r="L3" t="n">
+        <v>215</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>4632.7745</v>
       </c>
       <c r="G4" t="n">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>214.9333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216</v>
+      </c>
+      <c r="L4" t="n">
+        <v>215</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>198.1319</v>
       </c>
       <c r="G5" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>214.9833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>215</v>
+      </c>
+      <c r="L5" t="n">
+        <v>215</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,27 @@
         <v>555.1423</v>
       </c>
       <c r="G6" t="n">
-        <v>215</v>
+        <v>215.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>215</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +669,27 @@
         <v>4444.8576</v>
       </c>
       <c r="G7" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>215.0166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>215</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>248</v>
       </c>
       <c r="G8" t="n">
+        <v>215.8666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>215.05</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>215</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,27 @@
         <v>658.6660000000001</v>
       </c>
       <c r="G9" t="n">
+        <v>215.8666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>215.0666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>215</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,27 @@
         <v>4831.7063</v>
       </c>
       <c r="G10" t="n">
+        <v>215.9333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>215.1</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>215</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,27 @@
         <v>7016.3996</v>
       </c>
       <c r="G11" t="n">
+        <v>216.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>215.15</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>215</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,27 @@
         <v>500</v>
       </c>
       <c r="G12" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>215.1833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>215</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +933,27 @@
         <v>1975.1883</v>
       </c>
       <c r="G13" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>215.2333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>215</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +977,27 @@
         <v>635.3389</v>
       </c>
       <c r="G14" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>215.2833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>215</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1021,27 @@
         <v>14409.2054</v>
       </c>
       <c r="G15" t="n">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>215.35</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>215</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1065,27 @@
         <v>3561.4421</v>
       </c>
       <c r="G16" t="n">
+        <v>217</v>
+      </c>
+      <c r="H16" t="n">
         <v>215.4</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>215</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1109,27 @@
         <v>241.642</v>
       </c>
       <c r="G17" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>215.4666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>215</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1153,27 @@
         <v>0.0001</v>
       </c>
       <c r="G18" t="n">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>215.5333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>215</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1197,27 @@
         <v>2450.3053</v>
       </c>
       <c r="G19" t="n">
+        <v>217.6666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>215.5833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>215</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1241,27 @@
         <v>1466.1647</v>
       </c>
       <c r="G20" t="n">
+        <v>217.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>215.65</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>215</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1285,27 @@
         <v>57340.259</v>
       </c>
       <c r="G21" t="n">
+        <v>218</v>
+      </c>
+      <c r="H21" t="n">
         <v>215.7333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>215</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1329,27 @@
         <v>15892.2827</v>
       </c>
       <c r="G22" t="n">
+        <v>218.3333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>215.8333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>215</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1373,27 @@
         <v>5668.193</v>
       </c>
       <c r="G23" t="n">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>215.95</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>215</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1417,27 @@
         <v>17633.3516</v>
       </c>
       <c r="G24" t="n">
+        <v>218.9333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>216.0333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>215</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1461,27 @@
         <v>2584</v>
       </c>
       <c r="G25" t="n">
+        <v>219.1333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>216.1166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>215</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1505,27 @@
         <v>583.0173</v>
       </c>
       <c r="G26" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="H26" t="n">
         <v>216.2333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>215</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1549,27 @@
         <v>17201.5648</v>
       </c>
       <c r="G27" t="n">
+        <v>219.6666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>216.3333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>215</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1593,27 @@
         <v>5862.6392</v>
       </c>
       <c r="G28" t="n">
+        <v>219.8666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>216.4666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>215</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1637,27 @@
         <v>3394.7526</v>
       </c>
       <c r="G29" t="n">
+        <v>220.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>216.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>215</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1681,27 @@
         <v>2528.7953</v>
       </c>
       <c r="G30" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>216.6833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>215</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1725,27 @@
         <v>1892.0197</v>
       </c>
       <c r="G31" t="n">
+        <v>220.3333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>216.8</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>215</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1769,27 @@
         <v>855.2524</v>
       </c>
       <c r="G32" t="n">
+        <v>220.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>216.95</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>215</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,19 +1813,28 @@
         <v>5776.028</v>
       </c>
       <c r="G33" t="n">
+        <v>220.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>217.0833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
+      <c r="L33" t="n">
+        <v>215</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1.018255813953489</v>
       </c>
     </row>
     <row r="34">
@@ -1568,18 +1857,21 @@
         <v>412.2878</v>
       </c>
       <c r="G34" t="n">
+        <v>220.6666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>217.2166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1895,21 @@
         <v>1388.5001</v>
       </c>
       <c r="G35" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>217.3166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1933,21 @@
         <v>6075.1114</v>
       </c>
       <c r="G36" t="n">
+        <v>220.8666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>217.4166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1971,21 @@
         <v>192.9268</v>
       </c>
       <c r="G37" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>217.55</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2009,21 @@
         <v>22.608</v>
       </c>
       <c r="G38" t="n">
+        <v>220.7333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>217.7</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2047,21 @@
         <v>3037.7372</v>
       </c>
       <c r="G39" t="n">
+        <v>220.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>217.8166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2085,21 @@
         <v>245.496</v>
       </c>
       <c r="G40" t="n">
+        <v>220.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>217.9333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2123,21 @@
         <v>1093.4126</v>
       </c>
       <c r="G41" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>218.0333333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2161,21 @@
         <v>7782.7483</v>
       </c>
       <c r="G42" t="n">
+        <v>220.5333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>218.1166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2199,21 @@
         <v>18744.2414</v>
       </c>
       <c r="G43" t="n">
+        <v>220.4666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>218.1833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2237,21 @@
         <v>1000</v>
       </c>
       <c r="G44" t="n">
+        <v>220.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>218.2333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2275,21 @@
         <v>1552.3225</v>
       </c>
       <c r="G45" t="n">
+        <v>220.3333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>218.2833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2313,21 @@
         <v>30895.9102</v>
       </c>
       <c r="G46" t="n">
+        <v>220.2666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>218.3333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2351,21 @@
         <v>83.039</v>
       </c>
       <c r="G47" t="n">
+        <v>220.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>218.4166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2389,21 @@
         <v>14393.0187</v>
       </c>
       <c r="G48" t="n">
+        <v>220.2666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>218.4833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2427,21 @@
         <v>7313.5358</v>
       </c>
       <c r="G49" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>218.55</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2465,21 @@
         <v>12535.8228</v>
       </c>
       <c r="G50" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H50" t="n">
         <v>218.6333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2503,21 @@
         <v>17014.0777</v>
       </c>
       <c r="G51" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H51" t="n">
         <v>218.7166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2541,21 @@
         <v>241.8422</v>
       </c>
       <c r="G52" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>218.7833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2579,21 @@
         <v>7314.1893</v>
       </c>
       <c r="G53" t="n">
+        <v>220.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>218.8333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2617,21 @@
         <v>133.4352</v>
       </c>
       <c r="G54" t="n">
+        <v>220</v>
+      </c>
+      <c r="H54" t="n">
         <v>218.8833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2655,21 @@
         <v>930.4012</v>
       </c>
       <c r="G55" t="n">
+        <v>219.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>218.9333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2693,21 @@
         <v>254.8968</v>
       </c>
       <c r="G56" t="n">
+        <v>219.8666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>219</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2731,21 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
+        <v>219.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>219.0666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2769,21 @@
         <v>15558.5321</v>
       </c>
       <c r="G58" t="n">
+        <v>219.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>219.1166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2807,21 @@
         <v>171.1914</v>
       </c>
       <c r="G59" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>219.15</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2845,21 @@
         <v>3803.0842</v>
       </c>
       <c r="G60" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>219.15</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,15 +2886,18 @@
         <v>219.2</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>219.2</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2921,21 @@
         <v>135</v>
       </c>
       <c r="G62" t="n">
+        <v>218.9333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2959,21 @@
         <v>565.8653</v>
       </c>
       <c r="G63" t="n">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2997,21 @@
         <v>683.2972</v>
       </c>
       <c r="G64" t="n">
+        <v>218.4666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>219.25</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3035,21 @@
         <v>520</v>
       </c>
       <c r="G65" t="n">
+        <v>218.1333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3073,21 @@
         <v>2150.4909</v>
       </c>
       <c r="G66" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="H66" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3111,21 @@
         <v>8269.4786</v>
       </c>
       <c r="G67" t="n">
+        <v>217.4666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>219.2</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,22 +3149,21 @@
         <v>332</v>
       </c>
       <c r="G68" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>215</v>
-      </c>
-      <c r="K68" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2797,24 +3187,21 @@
         <v>182</v>
       </c>
       <c r="G69" t="n">
+        <v>217.3333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>219.25</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>215</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,24 +3225,21 @@
         <v>4115.7471</v>
       </c>
       <c r="G70" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>219.2666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>215</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3263,21 @@
         <v>14226.7234</v>
       </c>
       <c r="G71" t="n">
+        <v>217.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>219.2833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3301,21 @@
         <v>8064.2345</v>
       </c>
       <c r="G72" t="n">
+        <v>217.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>219.3</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3339,21 @@
         <v>327</v>
       </c>
       <c r="G73" t="n">
+        <v>217.0666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>219.2833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,22 +3377,21 @@
         <v>12.4016</v>
       </c>
       <c r="G74" t="n">
+        <v>217</v>
+      </c>
+      <c r="H74" t="n">
         <v>219.2666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>217</v>
-      </c>
-      <c r="K74" t="n">
-        <v>217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,26 +3415,21 @@
         <v>41.4183</v>
       </c>
       <c r="G75" t="n">
+        <v>216.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>219.2166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>217</v>
-      </c>
-      <c r="K75" t="n">
-        <v>217</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,26 +3453,21 @@
         <v>607.4973</v>
       </c>
       <c r="G76" t="n">
+        <v>216.8666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>219.1666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>216</v>
-      </c>
-      <c r="K76" t="n">
-        <v>217</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,22 +3491,21 @@
         <v>109.5994</v>
       </c>
       <c r="G77" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>219.1</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>216</v>
-      </c>
-      <c r="K77" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,26 +3529,21 @@
         <v>6728</v>
       </c>
       <c r="G78" t="n">
+        <v>216.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>219.0166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>215</v>
-      </c>
-      <c r="K78" t="n">
-        <v>216</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3191,26 +3567,21 @@
         <v>32814.6345</v>
       </c>
       <c r="G79" t="n">
+        <v>216.5333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>218.9666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>214</v>
-      </c>
-      <c r="K79" t="n">
-        <v>216</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,24 +3605,21 @@
         <v>3000</v>
       </c>
       <c r="G80" t="n">
+        <v>216.4666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>218.9</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>216</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,24 +3643,21 @@
         <v>3899.209093087557</v>
       </c>
       <c r="G81" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="H81" t="n">
         <v>218.8166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>216</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3316,24 +3681,21 @@
         <v>460.8294</v>
       </c>
       <c r="G82" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>218.7166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>216</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,24 +3719,21 @@
         <v>5518</v>
       </c>
       <c r="G83" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="H83" t="n">
         <v>218.6</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>216</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,24 +3757,21 @@
         <v>508.3992</v>
       </c>
       <c r="G84" t="n">
+        <v>216.0666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>218.5333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>216</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,24 +3795,21 @@
         <v>225.7836</v>
       </c>
       <c r="G85" t="n">
+        <v>215.9333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>218.4666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>216</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,24 +3833,21 @@
         <v>2150.3053</v>
       </c>
       <c r="G86" t="n">
+        <v>215.6666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>218.35</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>216</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,24 +3871,21 @@
         <v>69746.4771</v>
       </c>
       <c r="G87" t="n">
+        <v>215.3333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>218.2166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>216</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,24 +3909,21 @@
         <v>4147.3938</v>
       </c>
       <c r="G88" t="n">
+        <v>215.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>218.1166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>216</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3603,24 +3947,21 @@
         <v>245.0417</v>
       </c>
       <c r="G89" t="n">
+        <v>215.0666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>218.0166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>216</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,24 +3985,21 @@
         <v>8922.8428</v>
       </c>
       <c r="G90" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>217.8666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>216</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,24 +4023,21 @@
         <v>367.3008</v>
       </c>
       <c r="G91" t="n">
+        <v>214.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>217.7666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>216</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3726,24 +4061,21 @@
         <v>187.0591</v>
       </c>
       <c r="G92" t="n">
+        <v>214.7333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>217.6833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>216</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3767,24 +4099,21 @@
         <v>472.3015</v>
       </c>
       <c r="G93" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="H93" t="n">
         <v>217.6</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>216</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,24 +4137,21 @@
         <v>992.996</v>
       </c>
       <c r="G94" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>217.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>216</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3849,24 +4175,21 @@
         <v>25</v>
       </c>
       <c r="G95" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="H95" t="n">
         <v>217.4</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>216</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,24 +4213,21 @@
         <v>69746.4771</v>
       </c>
       <c r="G96" t="n">
+        <v>214.5333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>217.2333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>216</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,24 +4251,21 @@
         <v>1471.2568</v>
       </c>
       <c r="G97" t="n">
+        <v>214.5333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>217.15</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>216</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,24 +4289,21 @@
         <v>311.4296</v>
       </c>
       <c r="G98" t="n">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>217.0333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>216</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4013,24 +4327,21 @@
         <v>5241.2944</v>
       </c>
       <c r="G99" t="n">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>216.9666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>216</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,24 +4365,21 @@
         <v>10300</v>
       </c>
       <c r="G100" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>216.8833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>216</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,24 +4403,21 @@
         <v>7192.4676</v>
       </c>
       <c r="G101" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>216.8</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>216</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,24 +4441,21 @@
         <v>5</v>
       </c>
       <c r="G102" t="n">
+        <v>214.5333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>216.7166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>216</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,24 +4479,21 @@
         <v>29636.457</v>
       </c>
       <c r="G103" t="n">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>216.6166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>216</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,24 +4517,21 @@
         <v>46.0129</v>
       </c>
       <c r="G104" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="H104" t="n">
         <v>216.5166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>216</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,24 +4555,21 @@
         <v>176.6989</v>
       </c>
       <c r="G105" t="n">
+        <v>214.5333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>216.4166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>216</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4300,24 +4593,401 @@
         <v>7975.4882</v>
       </c>
       <c r="G106" t="n">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>216.3166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>216</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>214</v>
+      </c>
+      <c r="C107" t="n">
+        <v>214</v>
+      </c>
+      <c r="D107" t="n">
+        <v>214</v>
+      </c>
+      <c r="E107" t="n">
+        <v>214</v>
+      </c>
+      <c r="F107" t="n">
+        <v>391.3436</v>
+      </c>
+      <c r="G107" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="H107" t="n">
+        <v>216.2166666666667</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>216</v>
+      </c>
+      <c r="C108" t="n">
+        <v>216</v>
+      </c>
+      <c r="D108" t="n">
+        <v>216</v>
+      </c>
+      <c r="E108" t="n">
+        <v>216</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1621.2886</v>
+      </c>
+      <c r="G108" t="n">
+        <v>214.4666666666667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>216.15</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>213</v>
+      </c>
+      <c r="C109" t="n">
+        <v>217</v>
+      </c>
+      <c r="D109" t="n">
+        <v>217</v>
+      </c>
+      <c r="E109" t="n">
+        <v>213</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1848.8804</v>
+      </c>
+      <c r="G109" t="n">
+        <v>214.6</v>
+      </c>
+      <c r="H109" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>216</v>
+      </c>
+      <c r="C110" t="n">
+        <v>216</v>
+      </c>
+      <c r="D110" t="n">
+        <v>216</v>
+      </c>
+      <c r="E110" t="n">
+        <v>216</v>
+      </c>
+      <c r="F110" t="n">
+        <v>231.0613</v>
+      </c>
+      <c r="G110" t="n">
+        <v>214.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>216.0166666666667</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>215</v>
+      </c>
+      <c r="C111" t="n">
+        <v>214</v>
+      </c>
+      <c r="D111" t="n">
+        <v>215</v>
+      </c>
+      <c r="E111" t="n">
+        <v>214</v>
+      </c>
+      <c r="F111" t="n">
+        <v>517.3445</v>
+      </c>
+      <c r="G111" t="n">
+        <v>214.8666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>214</v>
+      </c>
+      <c r="C112" t="n">
+        <v>215</v>
+      </c>
+      <c r="D112" t="n">
+        <v>215</v>
+      </c>
+      <c r="E112" t="n">
+        <v>214</v>
+      </c>
+      <c r="F112" t="n">
+        <v>268.5159</v>
+      </c>
+      <c r="G112" t="n">
+        <v>214.8666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>215.8166666666667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>215</v>
+      </c>
+      <c r="C113" t="n">
+        <v>215</v>
+      </c>
+      <c r="D113" t="n">
+        <v>215</v>
+      </c>
+      <c r="E113" t="n">
+        <v>215</v>
+      </c>
+      <c r="F113" t="n">
+        <v>787.8169</v>
+      </c>
+      <c r="G113" t="n">
+        <v>214.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>215</v>
+      </c>
+      <c r="C114" t="n">
+        <v>215</v>
+      </c>
+      <c r="D114" t="n">
+        <v>215</v>
+      </c>
+      <c r="E114" t="n">
+        <v>215</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>214.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>215.6833333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>215</v>
+      </c>
+      <c r="C115" t="n">
+        <v>215</v>
+      </c>
+      <c r="D115" t="n">
+        <v>215</v>
+      </c>
+      <c r="E115" t="n">
+        <v>215</v>
+      </c>
+      <c r="F115" t="n">
+        <v>251.4037</v>
+      </c>
+      <c r="G115" t="n">
+        <v>214.8666666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>215.6166666666667</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>215</v>
+      </c>
+      <c r="C116" t="n">
+        <v>215</v>
+      </c>
+      <c r="D116" t="n">
+        <v>215</v>
+      </c>
+      <c r="E116" t="n">
+        <v>215</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>214.8666666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>215.55</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D2" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F2" t="n">
-        <v>4.6512</v>
+        <v>15.5</v>
       </c>
       <c r="G2" t="n">
-        <v>215.7333333333333</v>
+        <v>-50239.71079999999</v>
       </c>
       <c r="H2" t="n">
-        <v>214.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.1369</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>215.7333333333333</v>
+        <v>-50229.71079999999</v>
       </c>
       <c r="H3" t="n">
-        <v>214.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>215</v>
-      </c>
-      <c r="L3" t="n">
-        <v>215</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,32 +515,21 @@
         <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>4632.7745</v>
+        <v>3.4993</v>
       </c>
       <c r="G4" t="n">
-        <v>215.6666666666667</v>
+        <v>-50226.21149999999</v>
       </c>
       <c r="H4" t="n">
-        <v>214.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>216</v>
-      </c>
-      <c r="L4" t="n">
-        <v>215</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -567,41 +541,30 @@
         <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
         <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>198.1319</v>
+        <v>10.1714</v>
       </c>
       <c r="G5" t="n">
-        <v>215.8</v>
+        <v>-50226.21149999999</v>
       </c>
       <c r="H5" t="n">
-        <v>214.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>215</v>
-      </c>
-      <c r="L5" t="n">
-        <v>215</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C6" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D6" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F6" t="n">
-        <v>555.1423</v>
+        <v>10.1714</v>
       </c>
       <c r="G6" t="n">
-        <v>215.8</v>
+        <v>-50236.38289999999</v>
       </c>
       <c r="H6" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>215</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D7" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E7" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F7" t="n">
-        <v>4444.8576</v>
+        <v>124.8126</v>
       </c>
       <c r="G7" t="n">
-        <v>215.8</v>
+        <v>-50236.38289999999</v>
       </c>
       <c r="H7" t="n">
-        <v>215.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>215</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E8" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F8" t="n">
-        <v>248</v>
+        <v>199.6775</v>
       </c>
       <c r="G8" t="n">
-        <v>215.8666666666667</v>
+        <v>-50036.70539999999</v>
       </c>
       <c r="H8" t="n">
-        <v>215.05</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>215</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E9" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F9" t="n">
-        <v>658.6660000000001</v>
+        <v>17.5344</v>
       </c>
       <c r="G9" t="n">
-        <v>215.8666666666667</v>
+        <v>-50036.70539999999</v>
       </c>
       <c r="H9" t="n">
-        <v>215.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>215</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C10" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D10" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E10" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" t="n">
-        <v>4831.7063</v>
+        <v>6451.9291</v>
       </c>
       <c r="G10" t="n">
-        <v>215.9333333333333</v>
+        <v>-43584.77629999999</v>
       </c>
       <c r="H10" t="n">
-        <v>215.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>215</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -830,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F11" t="n">
-        <v>7016.3996</v>
+        <v>23.0722</v>
       </c>
       <c r="G11" t="n">
-        <v>216.1333333333333</v>
+        <v>-43561.70409999999</v>
       </c>
       <c r="H11" t="n">
-        <v>215.15</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>215</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>141</v>
       </c>
       <c r="G12" t="n">
-        <v>216.2</v>
+        <v>-43420.70409999999</v>
       </c>
       <c r="H12" t="n">
-        <v>215.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>215</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>1975.1883</v>
+        <v>2333.9226</v>
       </c>
       <c r="G13" t="n">
-        <v>216.4</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H13" t="n">
-        <v>215.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>215</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>635.3389</v>
+        <v>4236.4653</v>
       </c>
       <c r="G14" t="n">
-        <v>216.5333333333333</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H14" t="n">
-        <v>215.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>215</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F15" t="n">
-        <v>14409.2054</v>
+        <v>4891.0364</v>
       </c>
       <c r="G15" t="n">
-        <v>216.6666666666667</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H15" t="n">
-        <v>215.35</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>215</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C16" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D16" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F16" t="n">
-        <v>3561.4421</v>
+        <v>3350</v>
       </c>
       <c r="G16" t="n">
-        <v>217</v>
+        <v>-44436.78149999999</v>
       </c>
       <c r="H16" t="n">
-        <v>215.4</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>215</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,42 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C17" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E17" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>241.642</v>
+        <v>499.2122</v>
       </c>
       <c r="G17" t="n">
-        <v>217.2666666666667</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>215</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D18" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E18" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001</v>
+        <v>3068.0506</v>
       </c>
       <c r="G18" t="n">
-        <v>217.4666666666667</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H18" t="n">
-        <v>215.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>215</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E19" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F19" t="n">
-        <v>2450.3053</v>
+        <v>11028.97</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6666666666667</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H19" t="n">
-        <v>215.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>215</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E20" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>1466.1647</v>
+        <v>9486.7942</v>
       </c>
       <c r="G20" t="n">
-        <v>217.7333333333333</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H20" t="n">
-        <v>215.65</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>215</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1270,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C21" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E21" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F21" t="n">
-        <v>57340.259</v>
+        <v>1412</v>
       </c>
       <c r="G21" t="n">
-        <v>218</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H21" t="n">
-        <v>215.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>215</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C22" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D22" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F22" t="n">
-        <v>15892.2827</v>
+        <v>1208.9998</v>
       </c>
       <c r="G22" t="n">
-        <v>218.3333333333333</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H22" t="n">
-        <v>215.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>215</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,42 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C23" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D23" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E23" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>5668.193</v>
+        <v>537.2809999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>218.6666666666667</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H23" t="n">
-        <v>215.95</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>215</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1402,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C24" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D24" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E24" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F24" t="n">
-        <v>17633.3516</v>
+        <v>694</v>
       </c>
       <c r="G24" t="n">
-        <v>218.9333333333333</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H24" t="n">
-        <v>216.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>215</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C25" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E25" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F25" t="n">
-        <v>2584</v>
+        <v>140.4207</v>
       </c>
       <c r="G25" t="n">
-        <v>219.1333333333333</v>
+        <v>-44077.98999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>216.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>215</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C26" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D26" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E26" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F26" t="n">
-        <v>583.0173</v>
+        <v>908.1361000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>219.4</v>
+        <v>-43169.85389999999</v>
       </c>
       <c r="H26" t="n">
-        <v>216.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>215</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C27" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D27" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E27" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F27" t="n">
-        <v>17201.5648</v>
+        <v>733.2195</v>
       </c>
       <c r="G27" t="n">
-        <v>219.6666666666667</v>
+        <v>-43903.07339999999</v>
       </c>
       <c r="H27" t="n">
-        <v>216.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>215</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C28" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D28" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E28" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F28" t="n">
-        <v>5862.6392</v>
+        <v>403.0117</v>
       </c>
       <c r="G28" t="n">
-        <v>219.8666666666667</v>
+        <v>-43500.06169999998</v>
       </c>
       <c r="H28" t="n">
-        <v>216.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>215</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C29" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D29" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E29" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F29" t="n">
-        <v>3394.7526</v>
+        <v>318.5081</v>
       </c>
       <c r="G29" t="n">
-        <v>220.0666666666667</v>
+        <v>-43181.55359999998</v>
       </c>
       <c r="H29" t="n">
-        <v>216.6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>215</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C30" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D30" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E30" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F30" t="n">
-        <v>2528.7953</v>
+        <v>16451.9709</v>
       </c>
       <c r="G30" t="n">
-        <v>220.2</v>
+        <v>-59633.52449999998</v>
       </c>
       <c r="H30" t="n">
-        <v>216.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>215</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C31" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D31" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E31" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F31" t="n">
-        <v>1892.0197</v>
+        <v>4.6512</v>
       </c>
       <c r="G31" t="n">
-        <v>220.3333333333333</v>
+        <v>-59628.87329999998</v>
       </c>
       <c r="H31" t="n">
-        <v>216.8</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>215</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,42 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C32" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D32" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E32" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" t="n">
-        <v>855.2524</v>
+        <v>1133.1369</v>
       </c>
       <c r="G32" t="n">
-        <v>220.4</v>
+        <v>-58495.73639999999</v>
       </c>
       <c r="H32" t="n">
-        <v>216.95</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>215</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,43 +1518,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D33" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F33" t="n">
-        <v>5776.028</v>
+        <v>4632.7745</v>
       </c>
       <c r="G33" t="n">
-        <v>220.4666666666667</v>
+        <v>-63128.51089999999</v>
       </c>
       <c r="H33" t="n">
-        <v>217.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>215</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>1.018255813953489</v>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1842,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C34" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D34" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E34" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F34" t="n">
-        <v>412.2878</v>
+        <v>198.1319</v>
       </c>
       <c r="G34" t="n">
-        <v>220.6666666666667</v>
+        <v>-62930.37899999999</v>
       </c>
       <c r="H34" t="n">
-        <v>217.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1588,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E35" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F35" t="n">
-        <v>1388.5001</v>
+        <v>555.1423</v>
       </c>
       <c r="G35" t="n">
-        <v>220.8</v>
+        <v>-63485.52129999999</v>
       </c>
       <c r="H35" t="n">
-        <v>217.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="K35" t="n">
+        <v>218</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1627,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C36" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D36" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E36" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F36" t="n">
-        <v>6075.1114</v>
+        <v>4444.8576</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8666666666667</v>
+        <v>-63485.52129999999</v>
       </c>
       <c r="H36" t="n">
-        <v>217.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>218</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1668,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C37" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D37" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E37" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F37" t="n">
-        <v>192.9268</v>
+        <v>248</v>
       </c>
       <c r="G37" t="n">
-        <v>220.8</v>
+        <v>-63237.52129999999</v>
       </c>
       <c r="H37" t="n">
-        <v>217.55</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>218</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +1709,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C38" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D38" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E38" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F38" t="n">
-        <v>22.608</v>
+        <v>658.6660000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>220.7333333333333</v>
+        <v>-63896.18729999998</v>
       </c>
       <c r="H38" t="n">
-        <v>217.7</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>218</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +1750,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C39" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E39" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F39" t="n">
-        <v>3037.7372</v>
+        <v>4831.7063</v>
       </c>
       <c r="G39" t="n">
-        <v>220.7333333333333</v>
+        <v>-59064.48099999999</v>
       </c>
       <c r="H39" t="n">
-        <v>217.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>218</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +1791,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C40" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D40" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E40" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F40" t="n">
-        <v>245.496</v>
+        <v>7016.3996</v>
       </c>
       <c r="G40" t="n">
-        <v>220.7333333333333</v>
+        <v>-52048.08139999999</v>
       </c>
       <c r="H40" t="n">
-        <v>217.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>218</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +1832,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E41" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F41" t="n">
-        <v>1093.4126</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>220.6</v>
+        <v>-52548.08139999999</v>
       </c>
       <c r="H41" t="n">
-        <v>218.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>218</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,36 +1873,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C42" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E42" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" t="n">
-        <v>7782.7483</v>
+        <v>1975.1883</v>
       </c>
       <c r="G42" t="n">
-        <v>220.5333333333333</v>
+        <v>-50572.89309999999</v>
       </c>
       <c r="H42" t="n">
-        <v>218.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>218</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,36 +1914,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D43" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E43" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F43" t="n">
-        <v>18744.2414</v>
+        <v>635.3389</v>
       </c>
       <c r="G43" t="n">
-        <v>220.4666666666667</v>
+        <v>-50572.89309999999</v>
       </c>
       <c r="H43" t="n">
-        <v>218.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>218</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,36 +1955,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>14409.2054</v>
       </c>
       <c r="G44" t="n">
-        <v>220.4</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H44" t="n">
-        <v>218.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>218</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,36 +1996,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F45" t="n">
-        <v>1552.3225</v>
+        <v>3561.4421</v>
       </c>
       <c r="G45" t="n">
-        <v>220.3333333333333</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H45" t="n">
-        <v>218.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>218</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,36 +2037,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" t="n">
-        <v>30895.9102</v>
+        <v>241.642</v>
       </c>
       <c r="G46" t="n">
-        <v>220.2666666666667</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H46" t="n">
-        <v>218.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>218</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,36 +2078,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C47" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E47" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F47" t="n">
-        <v>83.039</v>
+        <v>0.0001</v>
       </c>
       <c r="G47" t="n">
-        <v>220.2666666666667</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H47" t="n">
-        <v>218.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>218</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,36 +2119,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E48" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F48" t="n">
-        <v>14393.0187</v>
+        <v>2450.3053</v>
       </c>
       <c r="G48" t="n">
-        <v>220.2666666666667</v>
+        <v>-38613.99299999999</v>
       </c>
       <c r="H48" t="n">
-        <v>218.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>218</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,36 +2160,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C49" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" t="n">
-        <v>7313.5358</v>
+        <v>1466.1647</v>
       </c>
       <c r="G49" t="n">
-        <v>220.2</v>
+        <v>-37147.82829999999</v>
       </c>
       <c r="H49" t="n">
-        <v>218.55</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>218</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2453,33 +2204,36 @@
         <v>220</v>
       </c>
       <c r="C50" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D50" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" t="n">
         <v>220</v>
       </c>
       <c r="F50" t="n">
-        <v>12535.8228</v>
+        <v>57340.259</v>
       </c>
       <c r="G50" t="n">
-        <v>220.2</v>
+        <v>20192.43070000001</v>
       </c>
       <c r="H50" t="n">
-        <v>218.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>218</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,7 +2242,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" t="n">
         <v>221</v>
@@ -2497,27 +2251,30 @@
         <v>221</v>
       </c>
       <c r="E51" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" t="n">
-        <v>17014.0777</v>
+        <v>15892.2827</v>
       </c>
       <c r="G51" t="n">
-        <v>220.2</v>
+        <v>36084.71340000001</v>
       </c>
       <c r="H51" t="n">
-        <v>218.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>218</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,33 +2286,36 @@
         <v>221</v>
       </c>
       <c r="C52" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D52" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E52" t="n">
         <v>220</v>
       </c>
       <c r="F52" t="n">
-        <v>241.8422</v>
+        <v>5668.193</v>
       </c>
       <c r="G52" t="n">
-        <v>220.2</v>
+        <v>41752.90640000001</v>
       </c>
       <c r="H52" t="n">
-        <v>218.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>218</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,36 +2324,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C53" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D53" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E53" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F53" t="n">
-        <v>7314.1893</v>
+        <v>17633.3516</v>
       </c>
       <c r="G53" t="n">
-        <v>220.0666666666667</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H53" t="n">
-        <v>218.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>218</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,36 +2365,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C54" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D54" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E54" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F54" t="n">
-        <v>133.4352</v>
+        <v>2584</v>
       </c>
       <c r="G54" t="n">
-        <v>220</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H54" t="n">
-        <v>218.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>218</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,36 +2406,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C55" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D55" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E55" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F55" t="n">
-        <v>930.4012</v>
+        <v>583.0173</v>
       </c>
       <c r="G55" t="n">
-        <v>219.9333333333333</v>
+        <v>24702.5721</v>
       </c>
       <c r="H55" t="n">
-        <v>218.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>218</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,36 +2447,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C56" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D56" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E56" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F56" t="n">
-        <v>254.8968</v>
+        <v>17201.5648</v>
       </c>
       <c r="G56" t="n">
-        <v>219.8666666666667</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H56" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>218</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,36 +2488,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C57" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D57" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E57" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F57" t="n">
-        <v>114</v>
+        <v>5862.6392</v>
       </c>
       <c r="G57" t="n">
-        <v>219.8666666666667</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H57" t="n">
-        <v>219.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>218</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,36 +2529,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C58" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D58" t="n">
         <v>221</v>
       </c>
       <c r="E58" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F58" t="n">
-        <v>15558.5321</v>
+        <v>3394.7526</v>
       </c>
       <c r="G58" t="n">
-        <v>219.7333333333333</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H58" t="n">
-        <v>219.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>218</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,36 +2570,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D59" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E59" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F59" t="n">
-        <v>171.1914</v>
+        <v>2528.7953</v>
       </c>
       <c r="G59" t="n">
-        <v>219.6</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H59" t="n">
-        <v>219.15</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>218</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,36 +2611,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C60" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D60" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E60" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F60" t="n">
-        <v>3803.0842</v>
+        <v>1892.0197</v>
       </c>
       <c r="G60" t="n">
-        <v>219.4</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H60" t="n">
-        <v>219.15</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>218</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,36 +2652,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C61" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D61" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E61" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F61" t="n">
-        <v>5045.1683</v>
+        <v>855.2524</v>
       </c>
       <c r="G61" t="n">
-        <v>219.2</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H61" t="n">
-        <v>219.2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>218</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,36 +2693,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C62" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D62" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E62" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F62" t="n">
-        <v>135</v>
+        <v>5776.028</v>
       </c>
       <c r="G62" t="n">
-        <v>218.9333333333333</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H62" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>218</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,37 +2734,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C63" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D63" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E63" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F63" t="n">
-        <v>565.8653</v>
+        <v>412.2878</v>
       </c>
       <c r="G63" t="n">
-        <v>218.6666666666667</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H63" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>218</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1.008761467889908</v>
       </c>
     </row>
     <row r="64">
@@ -2982,36 +2775,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C64" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D64" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E64" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F64" t="n">
-        <v>683.2972</v>
+        <v>1388.5001</v>
       </c>
       <c r="G64" t="n">
-        <v>218.4666666666667</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H64" t="n">
-        <v>219.25</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,36 +2810,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C65" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D65" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E65" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F65" t="n">
-        <v>520</v>
+        <v>6075.1114</v>
       </c>
       <c r="G65" t="n">
-        <v>218.1333333333333</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H65" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,36 +2845,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C66" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D66" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E66" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F66" t="n">
-        <v>2150.4909</v>
+        <v>192.9268</v>
       </c>
       <c r="G66" t="n">
-        <v>217.8</v>
+        <v>6865.115900000004</v>
       </c>
       <c r="H66" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,36 +2880,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C67" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D67" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E67" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F67" t="n">
-        <v>8269.4786</v>
+        <v>22.608</v>
       </c>
       <c r="G67" t="n">
-        <v>217.4666666666667</v>
+        <v>6887.723900000005</v>
       </c>
       <c r="H67" t="n">
-        <v>219.2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +2915,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D68" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E68" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F68" t="n">
-        <v>332</v>
+        <v>3037.7372</v>
       </c>
       <c r="G68" t="n">
-        <v>217.4</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H68" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,36 +2950,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C69" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D69" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E69" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F69" t="n">
-        <v>182</v>
+        <v>245.496</v>
       </c>
       <c r="G69" t="n">
-        <v>217.3333333333333</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H69" t="n">
-        <v>219.25</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,36 +2985,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E70" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F70" t="n">
-        <v>4115.7471</v>
+        <v>1093.4126</v>
       </c>
       <c r="G70" t="n">
-        <v>217.2666666666667</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H70" t="n">
-        <v>219.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,36 +3020,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C71" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E71" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F71" t="n">
-        <v>14226.7234</v>
+        <v>7782.7483</v>
       </c>
       <c r="G71" t="n">
-        <v>217.2666666666667</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H71" t="n">
-        <v>219.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,36 +3055,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C72" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D72" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E72" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F72" t="n">
-        <v>8064.2345</v>
+        <v>18744.2414</v>
       </c>
       <c r="G72" t="n">
-        <v>217.1333333333333</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H72" t="n">
-        <v>219.3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,36 +3090,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C73" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E73" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F73" t="n">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>217.0666666666667</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H73" t="n">
-        <v>219.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,36 +3125,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E74" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F74" t="n">
-        <v>12.4016</v>
+        <v>1552.3225</v>
       </c>
       <c r="G74" t="n">
-        <v>217</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H74" t="n">
-        <v>219.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3400,36 +3160,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C75" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E75" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F75" t="n">
-        <v>41.4183</v>
+        <v>30895.9102</v>
       </c>
       <c r="G75" t="n">
-        <v>216.9333333333333</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H75" t="n">
-        <v>219.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,36 +3195,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C76" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D76" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E76" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F76" t="n">
-        <v>607.4973</v>
+        <v>83.039</v>
       </c>
       <c r="G76" t="n">
-        <v>216.8666666666667</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H76" t="n">
-        <v>219.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,36 +3230,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C77" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D77" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E77" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F77" t="n">
-        <v>109.5994</v>
+        <v>14393.0187</v>
       </c>
       <c r="G77" t="n">
-        <v>216.8</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H77" t="n">
-        <v>219.1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,36 +3265,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C78" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D78" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E78" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F78" t="n">
-        <v>6728</v>
+        <v>7313.5358</v>
       </c>
       <c r="G78" t="n">
-        <v>216.6666666666667</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H78" t="n">
-        <v>219.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,36 +3300,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C79" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D79" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E79" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F79" t="n">
-        <v>32814.6345</v>
+        <v>12535.8228</v>
       </c>
       <c r="G79" t="n">
-        <v>216.5333333333333</v>
+        <v>16385.8095</v>
       </c>
       <c r="H79" t="n">
-        <v>218.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,36 +3335,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F80" t="n">
-        <v>3000</v>
+        <v>17014.0777</v>
       </c>
       <c r="G80" t="n">
-        <v>216.4666666666667</v>
+        <v>16385.8095</v>
       </c>
       <c r="H80" t="n">
-        <v>218.9</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,36 +3370,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C81" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D81" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E81" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F81" t="n">
-        <v>3899.209093087557</v>
+        <v>241.8422</v>
       </c>
       <c r="G81" t="n">
-        <v>216.4</v>
+        <v>16143.9673</v>
       </c>
       <c r="H81" t="n">
-        <v>218.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,36 +3405,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C82" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D82" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E82" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F82" t="n">
-        <v>460.8294</v>
+        <v>7314.1893</v>
       </c>
       <c r="G82" t="n">
-        <v>216.4</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H82" t="n">
-        <v>218.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,36 +3440,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C83" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D83" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E83" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F83" t="n">
-        <v>5518</v>
+        <v>133.4352</v>
       </c>
       <c r="G83" t="n">
-        <v>216.2</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H83" t="n">
-        <v>218.6</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,36 +3475,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C84" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D84" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E84" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F84" t="n">
-        <v>508.3992</v>
+        <v>930.4012</v>
       </c>
       <c r="G84" t="n">
-        <v>216.0666666666667</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H84" t="n">
-        <v>218.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,36 +3510,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C85" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D85" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E85" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F85" t="n">
-        <v>225.7836</v>
+        <v>254.8968</v>
       </c>
       <c r="G85" t="n">
-        <v>215.9333333333333</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H85" t="n">
-        <v>218.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,36 +3545,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C86" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D86" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E86" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F86" t="n">
-        <v>2150.3053</v>
+        <v>114</v>
       </c>
       <c r="G86" t="n">
-        <v>215.6666666666667</v>
+        <v>8943.778000000004</v>
       </c>
       <c r="H86" t="n">
-        <v>218.35</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,36 +3580,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C87" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D87" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E87" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F87" t="n">
-        <v>69746.4771</v>
+        <v>15558.5321</v>
       </c>
       <c r="G87" t="n">
-        <v>215.3333333333333</v>
+        <v>-6614.754099999996</v>
       </c>
       <c r="H87" t="n">
-        <v>218.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,36 +3615,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C88" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D88" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E88" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>4147.3938</v>
+        <v>171.1914</v>
       </c>
       <c r="G88" t="n">
-        <v>215.2</v>
+        <v>-6614.754099999996</v>
       </c>
       <c r="H88" t="n">
-        <v>218.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,36 +3650,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C89" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D89" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E89" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F89" t="n">
-        <v>245.0417</v>
+        <v>3803.0842</v>
       </c>
       <c r="G89" t="n">
-        <v>215.0666666666667</v>
+        <v>-10417.8383</v>
       </c>
       <c r="H89" t="n">
-        <v>218.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,36 +3685,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C90" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D90" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E90" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F90" t="n">
-        <v>8922.8428</v>
+        <v>5045.1683</v>
       </c>
       <c r="G90" t="n">
-        <v>214.8</v>
+        <v>-10417.8383</v>
       </c>
       <c r="H90" t="n">
-        <v>217.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,36 +3720,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C91" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D91" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E91" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F91" t="n">
-        <v>367.3008</v>
+        <v>135</v>
       </c>
       <c r="G91" t="n">
-        <v>214.7333333333333</v>
+        <v>-10552.8383</v>
       </c>
       <c r="H91" t="n">
-        <v>217.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,36 +3755,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E92" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F92" t="n">
-        <v>187.0591</v>
+        <v>565.8653</v>
       </c>
       <c r="G92" t="n">
-        <v>214.7333333333333</v>
+        <v>-10552.8383</v>
       </c>
       <c r="H92" t="n">
-        <v>217.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4084,36 +3790,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C93" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D93" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E93" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F93" t="n">
-        <v>472.3015</v>
+        <v>683.2972</v>
       </c>
       <c r="G93" t="n">
-        <v>214.8</v>
+        <v>-9869.541099999995</v>
       </c>
       <c r="H93" t="n">
-        <v>217.6</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,36 +3825,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C94" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D94" t="n">
         <v>216</v>
       </c>
       <c r="E94" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F94" t="n">
-        <v>992.996</v>
+        <v>520</v>
       </c>
       <c r="G94" t="n">
-        <v>214.8</v>
+        <v>-10389.54109999999</v>
       </c>
       <c r="H94" t="n">
-        <v>217.5</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,36 +3860,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D95" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E95" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F95" t="n">
-        <v>25</v>
+        <v>2150.4909</v>
       </c>
       <c r="G95" t="n">
-        <v>214.8</v>
+        <v>-10389.54109999999</v>
       </c>
       <c r="H95" t="n">
-        <v>217.4</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,36 +3895,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C96" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D96" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E96" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F96" t="n">
-        <v>69746.4771</v>
+        <v>8269.4786</v>
       </c>
       <c r="G96" t="n">
-        <v>214.5333333333333</v>
+        <v>-18659.0197</v>
       </c>
       <c r="H96" t="n">
-        <v>217.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,36 +3930,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C97" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D97" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E97" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F97" t="n">
-        <v>1471.2568</v>
+        <v>332</v>
       </c>
       <c r="G97" t="n">
-        <v>214.5333333333333</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H97" t="n">
-        <v>217.15</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,36 +3965,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C98" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D98" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E98" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>311.4296</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
-        <v>214.4666666666667</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H98" t="n">
-        <v>217.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,36 +4000,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C99" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D99" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E99" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F99" t="n">
-        <v>5241.2944</v>
+        <v>4115.7471</v>
       </c>
       <c r="G99" t="n">
-        <v>214.4666666666667</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H99" t="n">
-        <v>216.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,36 +4035,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C100" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D100" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E100" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F100" t="n">
-        <v>10300</v>
+        <v>14226.7234</v>
       </c>
       <c r="G100" t="n">
-        <v>214.4</v>
+        <v>-4100.296299999996</v>
       </c>
       <c r="H100" t="n">
-        <v>216.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,36 +4070,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D101" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E101" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F101" t="n">
-        <v>7192.4676</v>
+        <v>8064.2345</v>
       </c>
       <c r="G101" t="n">
-        <v>214.4</v>
+        <v>-12164.5308</v>
       </c>
       <c r="H101" t="n">
-        <v>216.8</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,36 +4105,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C102" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D102" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E102" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="G102" t="n">
-        <v>214.5333333333333</v>
+        <v>-12491.5308</v>
       </c>
       <c r="H102" t="n">
-        <v>216.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,36 +4140,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C103" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D103" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E103" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F103" t="n">
-        <v>29636.457</v>
+        <v>12.4016</v>
       </c>
       <c r="G103" t="n">
-        <v>214.4666666666667</v>
+        <v>-12491.5308</v>
       </c>
       <c r="H103" t="n">
-        <v>216.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,36 +4175,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C104" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D104" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E104" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F104" t="n">
-        <v>46.0129</v>
+        <v>41.4183</v>
       </c>
       <c r="G104" t="n">
-        <v>214.4</v>
+        <v>-12532.9491</v>
       </c>
       <c r="H104" t="n">
-        <v>216.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,36 +4210,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C105" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D105" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E105" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F105" t="n">
-        <v>176.6989</v>
+        <v>607.4973</v>
       </c>
       <c r="G105" t="n">
-        <v>214.5333333333333</v>
+        <v>-12532.9491</v>
       </c>
       <c r="H105" t="n">
-        <v>216.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,36 +4245,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F106" t="n">
-        <v>7975.4882</v>
+        <v>109.5994</v>
       </c>
       <c r="G106" t="n">
-        <v>214.4666666666667</v>
+        <v>-12642.5485</v>
       </c>
       <c r="H106" t="n">
-        <v>216.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,24 +4292,21 @@
         <v>214</v>
       </c>
       <c r="F107" t="n">
-        <v>391.3436</v>
+        <v>6728</v>
       </c>
       <c r="G107" t="n">
-        <v>214.4</v>
+        <v>-19370.5485</v>
       </c>
       <c r="H107" t="n">
-        <v>216.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,36 +4315,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D108" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E108" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F108" t="n">
-        <v>1621.2886</v>
+        <v>32814.6345</v>
       </c>
       <c r="G108" t="n">
-        <v>214.4666666666667</v>
+        <v>13444.086</v>
       </c>
       <c r="H108" t="n">
-        <v>216.15</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,36 +4350,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C109" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D109" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E109" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F109" t="n">
-        <v>1848.8804</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="n">
-        <v>214.6</v>
+        <v>13444.086</v>
       </c>
       <c r="H109" t="n">
-        <v>216.1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,36 +4385,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C110" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D110" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E110" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F110" t="n">
-        <v>231.0613</v>
+        <v>3899.209093087557</v>
       </c>
       <c r="G110" t="n">
-        <v>214.6666666666667</v>
+        <v>13444.086</v>
       </c>
       <c r="H110" t="n">
-        <v>216.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,33 +4423,30 @@
         <v>215</v>
       </c>
       <c r="C111" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D111" t="n">
         <v>215</v>
       </c>
       <c r="E111" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F111" t="n">
-        <v>517.3445</v>
+        <v>460.8294</v>
       </c>
       <c r="G111" t="n">
-        <v>214.8666666666667</v>
+        <v>13444.086</v>
       </c>
       <c r="H111" t="n">
-        <v>215.9</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,36 +4455,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C112" t="n">
         <v>215</v>
       </c>
       <c r="D112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E112" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F112" t="n">
-        <v>268.5159</v>
+        <v>5518</v>
       </c>
       <c r="G112" t="n">
-        <v>214.8666666666667</v>
+        <v>13444.086</v>
       </c>
       <c r="H112" t="n">
-        <v>215.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,36 +4490,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C113" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D113" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E113" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F113" t="n">
-        <v>787.8169</v>
+        <v>508.3992</v>
       </c>
       <c r="G113" t="n">
-        <v>214.9333333333333</v>
+        <v>13952.4852</v>
       </c>
       <c r="H113" t="n">
-        <v>215.75</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,36 +4525,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C114" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D114" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E114" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F114" t="n">
-        <v>10800</v>
+        <v>225.7836</v>
       </c>
       <c r="G114" t="n">
-        <v>214.8666666666667</v>
+        <v>13952.4852</v>
       </c>
       <c r="H114" t="n">
-        <v>215.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,24 +4572,21 @@
         <v>215</v>
       </c>
       <c r="F115" t="n">
-        <v>251.4037</v>
+        <v>2150.3053</v>
       </c>
       <c r="G115" t="n">
-        <v>214.8666666666667</v>
+        <v>11802.1799</v>
       </c>
       <c r="H115" t="n">
-        <v>215.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4961,33 +4598,1181 @@
         <v>215</v>
       </c>
       <c r="C116" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D116" t="n">
         <v>215</v>
       </c>
       <c r="E116" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>69746.4771</v>
       </c>
       <c r="G116" t="n">
-        <v>214.8666666666667</v>
+        <v>-57944.2972</v>
       </c>
       <c r="H116" t="n">
-        <v>215.55</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>215</v>
+      </c>
+      <c r="C117" t="n">
+        <v>215</v>
+      </c>
+      <c r="D117" t="n">
+        <v>216</v>
+      </c>
+      <c r="E117" t="n">
+        <v>215</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4147.3938</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-53796.9034</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>215</v>
+      </c>
+      <c r="C118" t="n">
+        <v>215</v>
+      </c>
+      <c r="D118" t="n">
+        <v>215</v>
+      </c>
+      <c r="E118" t="n">
+        <v>215</v>
+      </c>
+      <c r="F118" t="n">
+        <v>245.0417</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-53796.9034</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>213</v>
+      </c>
+      <c r="C119" t="n">
+        <v>212</v>
+      </c>
+      <c r="D119" t="n">
+        <v>213</v>
+      </c>
+      <c r="E119" t="n">
+        <v>212</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8922.8428</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-62719.7462</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>214</v>
+      </c>
+      <c r="C120" t="n">
+        <v>215</v>
+      </c>
+      <c r="D120" t="n">
+        <v>215</v>
+      </c>
+      <c r="E120" t="n">
+        <v>214</v>
+      </c>
+      <c r="F120" t="n">
+        <v>367.3008</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>215</v>
+      </c>
+      <c r="C121" t="n">
+        <v>215</v>
+      </c>
+      <c r="D121" t="n">
+        <v>215</v>
+      </c>
+      <c r="E121" t="n">
+        <v>215</v>
+      </c>
+      <c r="F121" t="n">
+        <v>187.0591</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>215</v>
+      </c>
+      <c r="C122" t="n">
+        <v>215</v>
+      </c>
+      <c r="D122" t="n">
+        <v>215</v>
+      </c>
+      <c r="E122" t="n">
+        <v>215</v>
+      </c>
+      <c r="F122" t="n">
+        <v>472.3015</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>215</v>
+      </c>
+      <c r="C123" t="n">
+        <v>215</v>
+      </c>
+      <c r="D123" t="n">
+        <v>216</v>
+      </c>
+      <c r="E123" t="n">
+        <v>215</v>
+      </c>
+      <c r="F123" t="n">
+        <v>992.996</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>215</v>
+      </c>
+      <c r="C124" t="n">
+        <v>215</v>
+      </c>
+      <c r="D124" t="n">
+        <v>215</v>
+      </c>
+      <c r="E124" t="n">
+        <v>215</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>215</v>
+      </c>
+      <c r="K124" t="n">
+        <v>215</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>213</v>
+      </c>
+      <c r="C125" t="n">
+        <v>211</v>
+      </c>
+      <c r="D125" t="n">
+        <v>213</v>
+      </c>
+      <c r="E125" t="n">
+        <v>211</v>
+      </c>
+      <c r="F125" t="n">
+        <v>69746.4771</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-132098.9225</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>215</v>
+      </c>
+      <c r="K125" t="n">
+        <v>215</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>214</v>
+      </c>
+      <c r="C126" t="n">
+        <v>215</v>
+      </c>
+      <c r="D126" t="n">
+        <v>215</v>
+      </c>
+      <c r="E126" t="n">
+        <v>213</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1471.2568</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-130627.6657</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>215</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>214</v>
+      </c>
+      <c r="C127" t="n">
+        <v>214</v>
+      </c>
+      <c r="D127" t="n">
+        <v>214</v>
+      </c>
+      <c r="E127" t="n">
+        <v>214</v>
+      </c>
+      <c r="F127" t="n">
+        <v>311.4296</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-130939.0953</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>215</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>213</v>
+      </c>
+      <c r="C128" t="n">
+        <v>216</v>
+      </c>
+      <c r="D128" t="n">
+        <v>216</v>
+      </c>
+      <c r="E128" t="n">
+        <v>213</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5241.2944</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-125697.8009</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>215</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>215</v>
+      </c>
+      <c r="C129" t="n">
+        <v>215</v>
+      </c>
+      <c r="D129" t="n">
+        <v>215</v>
+      </c>
+      <c r="E129" t="n">
+        <v>215</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>215</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>213</v>
+      </c>
+      <c r="C130" t="n">
+        <v>215</v>
+      </c>
+      <c r="D130" t="n">
+        <v>216</v>
+      </c>
+      <c r="E130" t="n">
+        <v>213</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7192.4676</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>215</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>215</v>
+      </c>
+      <c r="C131" t="n">
+        <v>215</v>
+      </c>
+      <c r="D131" t="n">
+        <v>215</v>
+      </c>
+      <c r="E131" t="n">
+        <v>215</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>215</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>213</v>
+      </c>
+      <c r="C132" t="n">
+        <v>214</v>
+      </c>
+      <c r="D132" t="n">
+        <v>214</v>
+      </c>
+      <c r="E132" t="n">
+        <v>211</v>
+      </c>
+      <c r="F132" t="n">
+        <v>29636.457</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>215</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>214</v>
+      </c>
+      <c r="C133" t="n">
+        <v>214</v>
+      </c>
+      <c r="D133" t="n">
+        <v>214</v>
+      </c>
+      <c r="E133" t="n">
+        <v>214</v>
+      </c>
+      <c r="F133" t="n">
+        <v>46.0129</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>215</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>214</v>
+      </c>
+      <c r="C134" t="n">
+        <v>214</v>
+      </c>
+      <c r="D134" t="n">
+        <v>214</v>
+      </c>
+      <c r="E134" t="n">
+        <v>214</v>
+      </c>
+      <c r="F134" t="n">
+        <v>176.6989</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>214</v>
+      </c>
+      <c r="K134" t="n">
+        <v>215</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>214</v>
+      </c>
+      <c r="C135" t="n">
+        <v>214</v>
+      </c>
+      <c r="D135" t="n">
+        <v>214</v>
+      </c>
+      <c r="E135" t="n">
+        <v>214</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7975.4882</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>215</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>214</v>
+      </c>
+      <c r="C136" t="n">
+        <v>214</v>
+      </c>
+      <c r="D136" t="n">
+        <v>214</v>
+      </c>
+      <c r="E136" t="n">
+        <v>214</v>
+      </c>
+      <c r="F136" t="n">
+        <v>391.3436</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>214</v>
+      </c>
+      <c r="K136" t="n">
+        <v>215</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>216</v>
+      </c>
+      <c r="C137" t="n">
+        <v>216</v>
+      </c>
+      <c r="D137" t="n">
+        <v>216</v>
+      </c>
+      <c r="E137" t="n">
+        <v>216</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1621.2886</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-164012.9693</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>215</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>213</v>
+      </c>
+      <c r="C138" t="n">
+        <v>217</v>
+      </c>
+      <c r="D138" t="n">
+        <v>217</v>
+      </c>
+      <c r="E138" t="n">
+        <v>213</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1848.8804</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-162164.0889</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>215</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>216</v>
+      </c>
+      <c r="C139" t="n">
+        <v>216</v>
+      </c>
+      <c r="D139" t="n">
+        <v>216</v>
+      </c>
+      <c r="E139" t="n">
+        <v>216</v>
+      </c>
+      <c r="F139" t="n">
+        <v>231.0613</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-162395.1502</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>215</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>215</v>
+      </c>
+      <c r="C140" t="n">
+        <v>214</v>
+      </c>
+      <c r="D140" t="n">
+        <v>215</v>
+      </c>
+      <c r="E140" t="n">
+        <v>214</v>
+      </c>
+      <c r="F140" t="n">
+        <v>517.3445</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-162912.4947</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>215</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>214</v>
+      </c>
+      <c r="C141" t="n">
+        <v>215</v>
+      </c>
+      <c r="D141" t="n">
+        <v>215</v>
+      </c>
+      <c r="E141" t="n">
+        <v>214</v>
+      </c>
+      <c r="F141" t="n">
+        <v>268.5159</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>215</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>215</v>
+      </c>
+      <c r="C142" t="n">
+        <v>215</v>
+      </c>
+      <c r="D142" t="n">
+        <v>215</v>
+      </c>
+      <c r="E142" t="n">
+        <v>215</v>
+      </c>
+      <c r="F142" t="n">
+        <v>787.8169</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>215</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>215</v>
+      </c>
+      <c r="C143" t="n">
+        <v>215</v>
+      </c>
+      <c r="D143" t="n">
+        <v>215</v>
+      </c>
+      <c r="E143" t="n">
+        <v>215</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>215</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>215</v>
+      </c>
+      <c r="C144" t="n">
+        <v>215</v>
+      </c>
+      <c r="D144" t="n">
+        <v>215</v>
+      </c>
+      <c r="E144" t="n">
+        <v>215</v>
+      </c>
+      <c r="F144" t="n">
+        <v>251.4037</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>215</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>215</v>
+      </c>
+      <c r="C145" t="n">
+        <v>215</v>
+      </c>
+      <c r="D145" t="n">
+        <v>215</v>
+      </c>
+      <c r="E145" t="n">
+        <v>215</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>215</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D2" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E2" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F2" t="n">
-        <v>15.5</v>
+        <v>14409.2054</v>
       </c>
       <c r="G2" t="n">
-        <v>-50239.71079999999</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D3" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E3" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>3561.4421</v>
       </c>
       <c r="G3" t="n">
-        <v>-50229.71079999999</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D4" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E4" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>3.4993</v>
+        <v>241.642</v>
       </c>
       <c r="G4" t="n">
-        <v>-50226.21149999999</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C5" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E5" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F5" t="n">
-        <v>10.1714</v>
+        <v>0.0001</v>
       </c>
       <c r="G5" t="n">
-        <v>-50226.21149999999</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D6" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E6" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F6" t="n">
-        <v>10.1714</v>
+        <v>2450.3053</v>
       </c>
       <c r="G6" t="n">
-        <v>-50236.38289999999</v>
+        <v>-38613.99299999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C7" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E7" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F7" t="n">
-        <v>124.8126</v>
+        <v>1466.1647</v>
       </c>
       <c r="G7" t="n">
-        <v>-50236.38289999999</v>
+        <v>-37147.82829999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D8" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E8" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F8" t="n">
-        <v>199.6775</v>
+        <v>57340.259</v>
       </c>
       <c r="G8" t="n">
-        <v>-50036.70539999999</v>
+        <v>20192.43070000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D9" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E9" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F9" t="n">
-        <v>17.5344</v>
+        <v>15892.2827</v>
       </c>
       <c r="G9" t="n">
-        <v>-50036.70539999999</v>
+        <v>36084.71340000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E10" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F10" t="n">
-        <v>6451.9291</v>
+        <v>5668.193</v>
       </c>
       <c r="G10" t="n">
-        <v>-43584.77629999999</v>
+        <v>41752.90640000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C11" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E11" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F11" t="n">
-        <v>23.0722</v>
+        <v>17633.3516</v>
       </c>
       <c r="G11" t="n">
-        <v>-43561.70409999999</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E12" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F12" t="n">
-        <v>141</v>
+        <v>2584</v>
       </c>
       <c r="G12" t="n">
-        <v>-43420.70409999999</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D13" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E13" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F13" t="n">
-        <v>2333.9226</v>
+        <v>583.0173</v>
       </c>
       <c r="G13" t="n">
-        <v>-41086.78149999999</v>
+        <v>24702.5721</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D14" t="n">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E14" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F14" t="n">
-        <v>4236.4653</v>
+        <v>17201.5648</v>
       </c>
       <c r="G14" t="n">
-        <v>-41086.78149999999</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E15" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F15" t="n">
-        <v>4891.0364</v>
+        <v>5862.6392</v>
       </c>
       <c r="G15" t="n">
-        <v>-41086.78149999999</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E16" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F16" t="n">
-        <v>3350</v>
+        <v>3394.7526</v>
       </c>
       <c r="G16" t="n">
-        <v>-44436.78149999999</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C17" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D17" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E17" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F17" t="n">
-        <v>499.2122</v>
+        <v>2528.7953</v>
       </c>
       <c r="G17" t="n">
-        <v>-43937.56929999999</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D18" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F18" t="n">
-        <v>3068.0506</v>
+        <v>1892.0197</v>
       </c>
       <c r="G18" t="n">
-        <v>-43937.56929999999</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C19" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D19" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E19" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F19" t="n">
-        <v>11028.97</v>
+        <v>855.2524</v>
       </c>
       <c r="G19" t="n">
-        <v>-43937.56929999999</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E20" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F20" t="n">
-        <v>9486.7942</v>
+        <v>5776.028</v>
       </c>
       <c r="G20" t="n">
-        <v>-43937.56929999999</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C21" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D21" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E21" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F21" t="n">
-        <v>1412</v>
+        <v>412.2878</v>
       </c>
       <c r="G21" t="n">
-        <v>-43937.56929999999</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C22" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D22" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E22" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F22" t="n">
-        <v>1208.9998</v>
+        <v>1388.5001</v>
       </c>
       <c r="G22" t="n">
-        <v>-43937.56929999999</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C23" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D23" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E23" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>537.2809999999999</v>
+        <v>6075.1114</v>
       </c>
       <c r="G23" t="n">
-        <v>-43937.56929999999</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C24" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D24" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E24" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F24" t="n">
-        <v>694</v>
+        <v>192.9268</v>
       </c>
       <c r="G24" t="n">
-        <v>-43937.56929999999</v>
+        <v>6865.115900000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C25" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D25" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E25" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F25" t="n">
-        <v>140.4207</v>
+        <v>22.608</v>
       </c>
       <c r="G25" t="n">
-        <v>-44077.98999999999</v>
+        <v>6887.723900000005</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D26" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E26" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F26" t="n">
-        <v>908.1361000000001</v>
+        <v>3037.7372</v>
       </c>
       <c r="G26" t="n">
-        <v>-43169.85389999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C27" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D27" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>733.2195</v>
+        <v>245.496</v>
       </c>
       <c r="G27" t="n">
-        <v>-43903.07339999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D28" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E28" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F28" t="n">
-        <v>403.0117</v>
+        <v>1093.4126</v>
       </c>
       <c r="G28" t="n">
-        <v>-43500.06169999998</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C29" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D29" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E29" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F29" t="n">
-        <v>318.5081</v>
+        <v>7782.7483</v>
       </c>
       <c r="G29" t="n">
-        <v>-43181.55359999998</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C30" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D30" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F30" t="n">
-        <v>16451.9709</v>
+        <v>18744.2414</v>
       </c>
       <c r="G30" t="n">
-        <v>-59633.52449999998</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C31" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D31" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E31" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F31" t="n">
-        <v>4.6512</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>-59628.87329999998</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C32" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D32" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E32" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F32" t="n">
-        <v>1133.1369</v>
+        <v>1552.3225</v>
       </c>
       <c r="G32" t="n">
-        <v>-58495.73639999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C33" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D33" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E33" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F33" t="n">
-        <v>4632.7745</v>
+        <v>30895.9102</v>
       </c>
       <c r="G33" t="n">
-        <v>-63128.51089999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E34" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F34" t="n">
-        <v>198.1319</v>
+        <v>83.039</v>
       </c>
       <c r="G34" t="n">
-        <v>-62930.37899999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,67 +1619,65 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C35" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D35" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E35" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F35" t="n">
-        <v>555.1423</v>
+        <v>14393.0187</v>
       </c>
       <c r="G35" t="n">
-        <v>-63485.52129999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>218</v>
-      </c>
-      <c r="K35" t="n">
-        <v>218</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C36" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D36" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E36" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F36" t="n">
-        <v>4444.8576</v>
+        <v>7313.5358</v>
       </c>
       <c r="G36" t="n">
-        <v>-63485.52129999999</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1651,326 +1686,286 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>218</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D37" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E37" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F37" t="n">
-        <v>248</v>
+        <v>12535.8228</v>
       </c>
       <c r="G37" t="n">
-        <v>-63237.52129999999</v>
+        <v>16385.8095</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>218</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C38" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D38" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E38" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F38" t="n">
-        <v>658.6660000000001</v>
+        <v>17014.0777</v>
       </c>
       <c r="G38" t="n">
-        <v>-63896.18729999998</v>
+        <v>16385.8095</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>218</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D39" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E39" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F39" t="n">
-        <v>4831.7063</v>
+        <v>241.8422</v>
       </c>
       <c r="G39" t="n">
-        <v>-59064.48099999999</v>
+        <v>16143.9673</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>218</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F40" t="n">
-        <v>7016.3996</v>
+        <v>7314.1893</v>
       </c>
       <c r="G40" t="n">
-        <v>-52048.08139999999</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>218</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E41" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>133.4352</v>
       </c>
       <c r="G41" t="n">
-        <v>-52548.08139999999</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>218</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F42" t="n">
-        <v>1975.1883</v>
+        <v>930.4012</v>
       </c>
       <c r="G42" t="n">
-        <v>-50572.89309999999</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>218</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F43" t="n">
-        <v>635.3389</v>
+        <v>254.8968</v>
       </c>
       <c r="G43" t="n">
-        <v>-50572.89309999999</v>
+        <v>8829.778000000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>218</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D44" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E44" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" t="n">
-        <v>14409.2054</v>
+        <v>114</v>
       </c>
       <c r="G44" t="n">
-        <v>-36163.68769999999</v>
+        <v>8943.778000000004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1979,17 +1974,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>218</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1999,19 +1989,19 @@
         <v>219</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E45" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" t="n">
-        <v>3561.4421</v>
+        <v>15558.5321</v>
       </c>
       <c r="G45" t="n">
-        <v>-36163.68769999999</v>
+        <v>-6614.754099999996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2020,17 +2010,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>218</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,19 +2025,19 @@
         <v>219</v>
       </c>
       <c r="C46" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" t="n">
         <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" t="n">
-        <v>241.642</v>
+        <v>171.1914</v>
       </c>
       <c r="G46" t="n">
-        <v>-36163.68769999999</v>
+        <v>-6614.754099999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2061,39 +2046,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>218</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C47" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E47" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0001</v>
+        <v>3803.0842</v>
       </c>
       <c r="G47" t="n">
-        <v>-36163.68769999999</v>
+        <v>-10417.8383</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2102,39 +2082,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>218</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C48" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E48" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" t="n">
-        <v>2450.3053</v>
+        <v>5045.1683</v>
       </c>
       <c r="G48" t="n">
-        <v>-38613.99299999999</v>
+        <v>-10417.8383</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2143,39 +2118,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>218</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F49" t="n">
-        <v>1466.1647</v>
+        <v>135</v>
       </c>
       <c r="G49" t="n">
-        <v>-37147.82829999999</v>
+        <v>-10552.8383</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,39 +2154,34 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>218</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C50" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D50" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E50" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F50" t="n">
-        <v>57340.259</v>
+        <v>565.8653</v>
       </c>
       <c r="G50" t="n">
-        <v>20192.43070000001</v>
+        <v>-10552.8383</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2225,39 +2190,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>218</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C51" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D51" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E51" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F51" t="n">
-        <v>15892.2827</v>
+        <v>683.2972</v>
       </c>
       <c r="G51" t="n">
-        <v>36084.71340000001</v>
+        <v>-9869.541099999995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2266,39 +2226,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>218</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C52" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E52" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F52" t="n">
-        <v>5668.193</v>
+        <v>520</v>
       </c>
       <c r="G52" t="n">
-        <v>41752.90640000001</v>
+        <v>-10389.54109999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2307,39 +2262,34 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>218</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C53" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D53" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F53" t="n">
-        <v>17633.3516</v>
+        <v>2150.4909</v>
       </c>
       <c r="G53" t="n">
-        <v>24119.55480000001</v>
+        <v>-10389.54109999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2348,39 +2298,34 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>218</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C54" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D54" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E54" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F54" t="n">
-        <v>2584</v>
+        <v>8269.4786</v>
       </c>
       <c r="G54" t="n">
-        <v>24119.55480000001</v>
+        <v>-18659.0197</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2389,39 +2334,34 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>218</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C55" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D55" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E55" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F55" t="n">
-        <v>583.0173</v>
+        <v>332</v>
       </c>
       <c r="G55" t="n">
-        <v>24702.5721</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2430,39 +2370,34 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>218</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C56" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E56" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F56" t="n">
-        <v>17201.5648</v>
+        <v>182</v>
       </c>
       <c r="G56" t="n">
-        <v>7501.007300000005</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2471,39 +2406,34 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>218</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C57" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D57" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E57" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F57" t="n">
-        <v>5862.6392</v>
+        <v>4115.7471</v>
       </c>
       <c r="G57" t="n">
-        <v>7501.007300000005</v>
+        <v>-18327.0197</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2512,39 +2442,34 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>218</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C58" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E58" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F58" t="n">
-        <v>3394.7526</v>
+        <v>14226.7234</v>
       </c>
       <c r="G58" t="n">
-        <v>7501.007300000005</v>
+        <v>-4100.296299999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2553,39 +2478,34 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>218</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C59" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E59" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F59" t="n">
-        <v>2528.7953</v>
+        <v>8064.2345</v>
       </c>
       <c r="G59" t="n">
-        <v>7501.007300000005</v>
+        <v>-12164.5308</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2594,39 +2514,34 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>218</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C60" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D60" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E60" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F60" t="n">
-        <v>1892.0197</v>
+        <v>327</v>
       </c>
       <c r="G60" t="n">
-        <v>7501.007300000005</v>
+        <v>-12491.5308</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2635,39 +2550,34 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>218</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C61" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D61" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E61" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F61" t="n">
-        <v>855.2524</v>
+        <v>12.4016</v>
       </c>
       <c r="G61" t="n">
-        <v>6645.754900000004</v>
+        <v>-12491.5308</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2676,39 +2586,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>218</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C62" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D62" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E62" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F62" t="n">
-        <v>5776.028</v>
+        <v>41.4183</v>
       </c>
       <c r="G62" t="n">
-        <v>6645.754900000004</v>
+        <v>-12532.9491</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2717,86 +2622,76 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>218</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C63" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D63" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E63" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F63" t="n">
-        <v>412.2878</v>
+        <v>607.4973</v>
       </c>
       <c r="G63" t="n">
-        <v>7058.042700000005</v>
+        <v>-12532.9491</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>218</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>1.008761467889908</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C64" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D64" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E64" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F64" t="n">
-        <v>1388.5001</v>
+        <v>109.5994</v>
       </c>
       <c r="G64" t="n">
-        <v>7058.042700000005</v>
+        <v>-12642.5485</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2804,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C65" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D65" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E65" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F65" t="n">
-        <v>6075.1114</v>
+        <v>6728</v>
       </c>
       <c r="G65" t="n">
-        <v>7058.042700000005</v>
+        <v>-19370.5485</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2839,343 +2735,391 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C66" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D66" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E66" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F66" t="n">
-        <v>192.9268</v>
+        <v>32814.6345</v>
       </c>
       <c r="G66" t="n">
-        <v>6865.115900000004</v>
+        <v>13444.086</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>214</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C67" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D67" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E67" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F67" t="n">
-        <v>22.608</v>
+        <v>3000</v>
       </c>
       <c r="G67" t="n">
-        <v>6887.723900000005</v>
+        <v>13444.086</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D68" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F68" t="n">
-        <v>3037.7372</v>
+        <v>3899.209093087557</v>
       </c>
       <c r="G68" t="n">
-        <v>3849.986700000004</v>
+        <v>13444.086</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C69" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D69" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E69" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F69" t="n">
-        <v>245.496</v>
+        <v>460.8294</v>
       </c>
       <c r="G69" t="n">
-        <v>3849.986700000004</v>
+        <v>13444.086</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C70" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D70" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E70" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F70" t="n">
-        <v>1093.4126</v>
+        <v>5518</v>
       </c>
       <c r="G70" t="n">
-        <v>3849.986700000004</v>
+        <v>13444.086</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C71" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D71" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E71" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F71" t="n">
-        <v>7782.7483</v>
+        <v>508.3992</v>
       </c>
       <c r="G71" t="n">
-        <v>3849.986700000004</v>
+        <v>13952.4852</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C72" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D72" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E72" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F72" t="n">
-        <v>18744.2414</v>
+        <v>225.7836</v>
       </c>
       <c r="G72" t="n">
-        <v>3849.986700000004</v>
+        <v>13952.4852</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C73" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D73" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E73" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>2150.3053</v>
       </c>
       <c r="G73" t="n">
-        <v>3849.986700000004</v>
+        <v>11802.1799</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C74" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D74" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E74" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F74" t="n">
-        <v>1552.3225</v>
+        <v>69746.4771</v>
       </c>
       <c r="G74" t="n">
-        <v>3849.986700000004</v>
+        <v>-57944.2972</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C75" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D75" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E75" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F75" t="n">
-        <v>30895.9102</v>
+        <v>4147.3938</v>
       </c>
       <c r="G75" t="n">
-        <v>3849.986700000004</v>
+        <v>-53796.9034</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3185,32 +3129,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C76" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D76" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E76" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F76" t="n">
-        <v>83.039</v>
+        <v>245.0417</v>
       </c>
       <c r="G76" t="n">
-        <v>3849.986700000004</v>
+        <v>-53796.9034</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3220,32 +3169,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C77" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D77" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E77" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F77" t="n">
-        <v>14393.0187</v>
+        <v>8922.8428</v>
       </c>
       <c r="G77" t="n">
-        <v>3849.986700000004</v>
+        <v>-62719.7462</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3255,67 +3209,79 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C78" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D78" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E78" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F78" t="n">
-        <v>7313.5358</v>
+        <v>367.3008</v>
       </c>
       <c r="G78" t="n">
-        <v>3849.986700000004</v>
+        <v>-62352.4454</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>212</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C79" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D79" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E79" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F79" t="n">
-        <v>12535.8228</v>
+        <v>187.0591</v>
       </c>
       <c r="G79" t="n">
-        <v>16385.8095</v>
+        <v>-62352.4454</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3325,32 +3291,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C80" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D80" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E80" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F80" t="n">
-        <v>17014.0777</v>
+        <v>472.3015</v>
       </c>
       <c r="G80" t="n">
-        <v>16385.8095</v>
+        <v>-62352.4454</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3360,67 +3331,77 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C81" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D81" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E81" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F81" t="n">
-        <v>241.8422</v>
+        <v>992.996</v>
       </c>
       <c r="G81" t="n">
-        <v>16143.9673</v>
+        <v>-62352.4454</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C82" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D82" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E82" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F82" t="n">
-        <v>7314.1893</v>
+        <v>25</v>
       </c>
       <c r="G82" t="n">
-        <v>8829.778000000004</v>
+        <v>-62352.4454</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3430,32 +3411,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C83" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D83" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E83" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F83" t="n">
-        <v>133.4352</v>
+        <v>69746.4771</v>
       </c>
       <c r="G83" t="n">
-        <v>8829.778000000004</v>
+        <v>-132098.9225</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3465,32 +3451,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C84" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D84" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E84" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F84" t="n">
-        <v>930.4012</v>
+        <v>1471.2568</v>
       </c>
       <c r="G84" t="n">
-        <v>8829.778000000004</v>
+        <v>-130627.6657</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3500,360 +3491,435 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C85" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D85" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E85" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F85" t="n">
-        <v>254.8968</v>
+        <v>311.4296</v>
       </c>
       <c r="G85" t="n">
-        <v>8829.778000000004</v>
+        <v>-130939.0953</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>215</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C86" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D86" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E86" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F86" t="n">
-        <v>114</v>
+        <v>5241.2944</v>
       </c>
       <c r="G86" t="n">
-        <v>8943.778000000004</v>
+        <v>-125697.8009</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>214</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C87" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D87" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E87" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F87" t="n">
-        <v>15558.5321</v>
+        <v>10300</v>
       </c>
       <c r="G87" t="n">
-        <v>-6614.754099999996</v>
+        <v>-135997.8009</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>216</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C88" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D88" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E88" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F88" t="n">
-        <v>171.1914</v>
+        <v>7192.4676</v>
       </c>
       <c r="G88" t="n">
-        <v>-6614.754099999996</v>
+        <v>-135997.8009</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>215</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C89" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D89" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E89" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F89" t="n">
-        <v>3803.0842</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>-10417.8383</v>
+        <v>-135997.8009</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>215</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C90" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D90" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E90" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F90" t="n">
-        <v>5045.1683</v>
+        <v>29636.457</v>
       </c>
       <c r="G90" t="n">
-        <v>-10417.8383</v>
+        <v>-165634.2579</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>215</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C91" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D91" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E91" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F91" t="n">
-        <v>135</v>
+        <v>46.0129</v>
       </c>
       <c r="G91" t="n">
-        <v>-10552.8383</v>
+        <v>-165634.2579</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>214</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E92" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F92" t="n">
-        <v>565.8653</v>
+        <v>176.6989</v>
       </c>
       <c r="G92" t="n">
-        <v>-10552.8383</v>
+        <v>-165634.2579</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>214</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C93" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D93" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E93" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F93" t="n">
-        <v>683.2972</v>
+        <v>7975.4882</v>
       </c>
       <c r="G93" t="n">
-        <v>-9869.541099999995</v>
+        <v>-165634.2579</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>214</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C94" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D94" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E94" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F94" t="n">
-        <v>520</v>
+        <v>391.3436</v>
       </c>
       <c r="G94" t="n">
-        <v>-10389.54109999999</v>
+        <v>-165634.2579</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>214</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3872,80 +3938,94 @@
         <v>216</v>
       </c>
       <c r="F95" t="n">
-        <v>2150.4909</v>
+        <v>1621.2886</v>
       </c>
       <c r="G95" t="n">
-        <v>-10389.54109999999</v>
+        <v>-164012.9693</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>214</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C96" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D96" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E96" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F96" t="n">
-        <v>8269.4786</v>
+        <v>1848.8804</v>
       </c>
       <c r="G96" t="n">
-        <v>-18659.0197</v>
+        <v>-162164.0889</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>216</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C97" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D97" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F97" t="n">
-        <v>332</v>
+        <v>231.0613</v>
       </c>
       <c r="G97" t="n">
-        <v>-18327.0197</v>
+        <v>-162395.1502</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3955,32 +4035,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C98" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D98" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E98" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F98" t="n">
-        <v>182</v>
+        <v>517.3445</v>
       </c>
       <c r="G98" t="n">
-        <v>-18327.0197</v>
+        <v>-162912.4947</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3990,32 +4075,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C99" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D99" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E99" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F99" t="n">
-        <v>4115.7471</v>
+        <v>268.5159</v>
       </c>
       <c r="G99" t="n">
-        <v>-18327.0197</v>
+        <v>-162643.9788</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4025,32 +4115,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C100" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D100" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E100" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F100" t="n">
-        <v>14226.7234</v>
+        <v>787.8169</v>
       </c>
       <c r="G100" t="n">
-        <v>-4100.296299999996</v>
+        <v>-162643.9788</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4060,32 +4155,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D101" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E101" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F101" t="n">
-        <v>8064.2345</v>
+        <v>10800</v>
       </c>
       <c r="G101" t="n">
-        <v>-12164.5308</v>
+        <v>-162643.9788</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4095,67 +4195,79 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C102" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D102" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E102" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F102" t="n">
-        <v>327</v>
+        <v>251.4037</v>
       </c>
       <c r="G102" t="n">
-        <v>-12491.5308</v>
+        <v>-162643.9788</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>215</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C103" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D103" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E103" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F103" t="n">
-        <v>12.4016</v>
+        <v>20</v>
       </c>
       <c r="G103" t="n">
-        <v>-12491.5308</v>
+        <v>-162643.9788</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4165,1616 +4277,15 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>216</v>
-      </c>
-      <c r="C104" t="n">
-        <v>216</v>
-      </c>
-      <c r="D104" t="n">
-        <v>216</v>
-      </c>
-      <c r="E104" t="n">
-        <v>216</v>
-      </c>
-      <c r="F104" t="n">
-        <v>41.4183</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-12532.9491</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>216</v>
-      </c>
-      <c r="C105" t="n">
-        <v>216</v>
-      </c>
-      <c r="D105" t="n">
-        <v>216</v>
-      </c>
-      <c r="E105" t="n">
-        <v>216</v>
-      </c>
-      <c r="F105" t="n">
-        <v>607.4973</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-12532.9491</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>215</v>
-      </c>
-      <c r="C106" t="n">
-        <v>215</v>
-      </c>
-      <c r="D106" t="n">
-        <v>215</v>
-      </c>
-      <c r="E106" t="n">
-        <v>215</v>
-      </c>
-      <c r="F106" t="n">
-        <v>109.5994</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-12642.5485</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>214</v>
-      </c>
-      <c r="C107" t="n">
-        <v>214</v>
-      </c>
-      <c r="D107" t="n">
-        <v>214</v>
-      </c>
-      <c r="E107" t="n">
-        <v>214</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6728</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-19370.5485</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>214</v>
-      </c>
-      <c r="C108" t="n">
-        <v>215</v>
-      </c>
-      <c r="D108" t="n">
-        <v>224</v>
-      </c>
-      <c r="E108" t="n">
-        <v>214</v>
-      </c>
-      <c r="F108" t="n">
-        <v>32814.6345</v>
-      </c>
-      <c r="G108" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>215</v>
-      </c>
-      <c r="C109" t="n">
-        <v>215</v>
-      </c>
-      <c r="D109" t="n">
-        <v>215</v>
-      </c>
-      <c r="E109" t="n">
-        <v>215</v>
-      </c>
-      <c r="F109" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>217</v>
-      </c>
-      <c r="C110" t="n">
-        <v>215</v>
-      </c>
-      <c r="D110" t="n">
-        <v>217</v>
-      </c>
-      <c r="E110" t="n">
-        <v>215</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3899.209093087557</v>
-      </c>
-      <c r="G110" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>215</v>
-      </c>
-      <c r="C111" t="n">
-        <v>215</v>
-      </c>
-      <c r="D111" t="n">
-        <v>215</v>
-      </c>
-      <c r="E111" t="n">
-        <v>215</v>
-      </c>
-      <c r="F111" t="n">
-        <v>460.8294</v>
-      </c>
-      <c r="G111" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>216</v>
-      </c>
-      <c r="C112" t="n">
-        <v>215</v>
-      </c>
-      <c r="D112" t="n">
-        <v>216</v>
-      </c>
-      <c r="E112" t="n">
-        <v>215</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5518</v>
-      </c>
-      <c r="G112" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>216</v>
-      </c>
-      <c r="C113" t="n">
-        <v>216</v>
-      </c>
-      <c r="D113" t="n">
-        <v>216</v>
-      </c>
-      <c r="E113" t="n">
-        <v>216</v>
-      </c>
-      <c r="F113" t="n">
-        <v>508.3992</v>
-      </c>
-      <c r="G113" t="n">
-        <v>13952.4852</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>216</v>
-      </c>
-      <c r="C114" t="n">
-        <v>216</v>
-      </c>
-      <c r="D114" t="n">
-        <v>216</v>
-      </c>
-      <c r="E114" t="n">
-        <v>216</v>
-      </c>
-      <c r="F114" t="n">
-        <v>225.7836</v>
-      </c>
-      <c r="G114" t="n">
-        <v>13952.4852</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>215</v>
-      </c>
-      <c r="C115" t="n">
-        <v>215</v>
-      </c>
-      <c r="D115" t="n">
-        <v>215</v>
-      </c>
-      <c r="E115" t="n">
-        <v>215</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2150.3053</v>
-      </c>
-      <c r="G115" t="n">
-        <v>11802.1799</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>215</v>
-      </c>
-      <c r="C116" t="n">
-        <v>213</v>
-      </c>
-      <c r="D116" t="n">
-        <v>215</v>
-      </c>
-      <c r="E116" t="n">
-        <v>213</v>
-      </c>
-      <c r="F116" t="n">
-        <v>69746.4771</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-57944.2972</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>215</v>
-      </c>
-      <c r="C117" t="n">
-        <v>215</v>
-      </c>
-      <c r="D117" t="n">
-        <v>216</v>
-      </c>
-      <c r="E117" t="n">
-        <v>215</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4147.3938</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-53796.9034</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>215</v>
-      </c>
-      <c r="C118" t="n">
-        <v>215</v>
-      </c>
-      <c r="D118" t="n">
-        <v>215</v>
-      </c>
-      <c r="E118" t="n">
-        <v>215</v>
-      </c>
-      <c r="F118" t="n">
-        <v>245.0417</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-53796.9034</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>213</v>
-      </c>
-      <c r="C119" t="n">
-        <v>212</v>
-      </c>
-      <c r="D119" t="n">
-        <v>213</v>
-      </c>
-      <c r="E119" t="n">
-        <v>212</v>
-      </c>
-      <c r="F119" t="n">
-        <v>8922.8428</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-62719.7462</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>214</v>
-      </c>
-      <c r="C120" t="n">
-        <v>215</v>
-      </c>
-      <c r="D120" t="n">
-        <v>215</v>
-      </c>
-      <c r="E120" t="n">
-        <v>214</v>
-      </c>
-      <c r="F120" t="n">
-        <v>367.3008</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>215</v>
-      </c>
-      <c r="C121" t="n">
-        <v>215</v>
-      </c>
-      <c r="D121" t="n">
-        <v>215</v>
-      </c>
-      <c r="E121" t="n">
-        <v>215</v>
-      </c>
-      <c r="F121" t="n">
-        <v>187.0591</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>215</v>
-      </c>
-      <c r="C122" t="n">
-        <v>215</v>
-      </c>
-      <c r="D122" t="n">
-        <v>215</v>
-      </c>
-      <c r="E122" t="n">
-        <v>215</v>
-      </c>
-      <c r="F122" t="n">
-        <v>472.3015</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>215</v>
-      </c>
-      <c r="C123" t="n">
-        <v>215</v>
-      </c>
-      <c r="D123" t="n">
-        <v>216</v>
-      </c>
-      <c r="E123" t="n">
-        <v>215</v>
-      </c>
-      <c r="F123" t="n">
-        <v>992.996</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>215</v>
-      </c>
-      <c r="C124" t="n">
-        <v>215</v>
-      </c>
-      <c r="D124" t="n">
-        <v>215</v>
-      </c>
-      <c r="E124" t="n">
-        <v>215</v>
-      </c>
-      <c r="F124" t="n">
-        <v>25</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>215</v>
-      </c>
-      <c r="K124" t="n">
-        <v>215</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>213</v>
-      </c>
-      <c r="C125" t="n">
-        <v>211</v>
-      </c>
-      <c r="D125" t="n">
-        <v>213</v>
-      </c>
-      <c r="E125" t="n">
-        <v>211</v>
-      </c>
-      <c r="F125" t="n">
-        <v>69746.4771</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-132098.9225</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>215</v>
-      </c>
-      <c r="K125" t="n">
-        <v>215</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>214</v>
-      </c>
-      <c r="C126" t="n">
-        <v>215</v>
-      </c>
-      <c r="D126" t="n">
-        <v>215</v>
-      </c>
-      <c r="E126" t="n">
-        <v>213</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1471.2568</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-130627.6657</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>215</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>214</v>
-      </c>
-      <c r="C127" t="n">
-        <v>214</v>
-      </c>
-      <c r="D127" t="n">
-        <v>214</v>
-      </c>
-      <c r="E127" t="n">
-        <v>214</v>
-      </c>
-      <c r="F127" t="n">
-        <v>311.4296</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-130939.0953</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>215</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>213</v>
-      </c>
-      <c r="C128" t="n">
-        <v>216</v>
-      </c>
-      <c r="D128" t="n">
-        <v>216</v>
-      </c>
-      <c r="E128" t="n">
-        <v>213</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5241.2944</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-125697.8009</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>215</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>215</v>
-      </c>
-      <c r="C129" t="n">
-        <v>215</v>
-      </c>
-      <c r="D129" t="n">
-        <v>215</v>
-      </c>
-      <c r="E129" t="n">
-        <v>215</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10300</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>215</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>213</v>
-      </c>
-      <c r="C130" t="n">
-        <v>215</v>
-      </c>
-      <c r="D130" t="n">
-        <v>216</v>
-      </c>
-      <c r="E130" t="n">
-        <v>213</v>
-      </c>
-      <c r="F130" t="n">
-        <v>7192.4676</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>215</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>215</v>
-      </c>
-      <c r="C131" t="n">
-        <v>215</v>
-      </c>
-      <c r="D131" t="n">
-        <v>215</v>
-      </c>
-      <c r="E131" t="n">
-        <v>215</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>215</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>213</v>
-      </c>
-      <c r="C132" t="n">
-        <v>214</v>
-      </c>
-      <c r="D132" t="n">
-        <v>214</v>
-      </c>
-      <c r="E132" t="n">
-        <v>211</v>
-      </c>
-      <c r="F132" t="n">
-        <v>29636.457</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>215</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>214</v>
-      </c>
-      <c r="C133" t="n">
-        <v>214</v>
-      </c>
-      <c r="D133" t="n">
-        <v>214</v>
-      </c>
-      <c r="E133" t="n">
-        <v>214</v>
-      </c>
-      <c r="F133" t="n">
-        <v>46.0129</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>215</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>214</v>
-      </c>
-      <c r="C134" t="n">
-        <v>214</v>
-      </c>
-      <c r="D134" t="n">
-        <v>214</v>
-      </c>
-      <c r="E134" t="n">
-        <v>214</v>
-      </c>
-      <c r="F134" t="n">
-        <v>176.6989</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>214</v>
-      </c>
-      <c r="K134" t="n">
-        <v>215</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>214</v>
-      </c>
-      <c r="C135" t="n">
-        <v>214</v>
-      </c>
-      <c r="D135" t="n">
-        <v>214</v>
-      </c>
-      <c r="E135" t="n">
-        <v>214</v>
-      </c>
-      <c r="F135" t="n">
-        <v>7975.4882</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>215</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>214</v>
-      </c>
-      <c r="C136" t="n">
-        <v>214</v>
-      </c>
-      <c r="D136" t="n">
-        <v>214</v>
-      </c>
-      <c r="E136" t="n">
-        <v>214</v>
-      </c>
-      <c r="F136" t="n">
-        <v>391.3436</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>214</v>
-      </c>
-      <c r="K136" t="n">
-        <v>215</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>216</v>
-      </c>
-      <c r="C137" t="n">
-        <v>216</v>
-      </c>
-      <c r="D137" t="n">
-        <v>216</v>
-      </c>
-      <c r="E137" t="n">
-        <v>216</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1621.2886</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-164012.9693</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>215</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>213</v>
-      </c>
-      <c r="C138" t="n">
-        <v>217</v>
-      </c>
-      <c r="D138" t="n">
-        <v>217</v>
-      </c>
-      <c r="E138" t="n">
-        <v>213</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1848.8804</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-162164.0889</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>215</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>216</v>
-      </c>
-      <c r="C139" t="n">
-        <v>216</v>
-      </c>
-      <c r="D139" t="n">
-        <v>216</v>
-      </c>
-      <c r="E139" t="n">
-        <v>216</v>
-      </c>
-      <c r="F139" t="n">
-        <v>231.0613</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-162395.1502</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>215</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>215</v>
-      </c>
-      <c r="C140" t="n">
-        <v>214</v>
-      </c>
-      <c r="D140" t="n">
-        <v>215</v>
-      </c>
-      <c r="E140" t="n">
-        <v>214</v>
-      </c>
-      <c r="F140" t="n">
-        <v>517.3445</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-162912.4947</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>215</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>214</v>
-      </c>
-      <c r="C141" t="n">
-        <v>215</v>
-      </c>
-      <c r="D141" t="n">
-        <v>215</v>
-      </c>
-      <c r="E141" t="n">
-        <v>214</v>
-      </c>
-      <c r="F141" t="n">
-        <v>268.5159</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>215</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>215</v>
-      </c>
-      <c r="C142" t="n">
-        <v>215</v>
-      </c>
-      <c r="D142" t="n">
-        <v>215</v>
-      </c>
-      <c r="E142" t="n">
-        <v>215</v>
-      </c>
-      <c r="F142" t="n">
-        <v>787.8169</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>215</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>215</v>
-      </c>
-      <c r="C143" t="n">
-        <v>215</v>
-      </c>
-      <c r="D143" t="n">
-        <v>215</v>
-      </c>
-      <c r="E143" t="n">
-        <v>215</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10800</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>215</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>215</v>
-      </c>
-      <c r="C144" t="n">
-        <v>215</v>
-      </c>
-      <c r="D144" t="n">
-        <v>215</v>
-      </c>
-      <c r="E144" t="n">
-        <v>215</v>
-      </c>
-      <c r="F144" t="n">
-        <v>251.4037</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>215</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>215</v>
-      </c>
-      <c r="C145" t="n">
-        <v>215</v>
-      </c>
-      <c r="D145" t="n">
-        <v>215</v>
-      </c>
-      <c r="E145" t="n">
-        <v>215</v>
-      </c>
-      <c r="F145" t="n">
-        <v>20</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>215</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E2" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F2" t="n">
-        <v>14409.2054</v>
+        <v>1073.361</v>
       </c>
       <c r="G2" t="n">
-        <v>-36163.68769999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F3" t="n">
-        <v>3561.4421</v>
+        <v>2961.7203</v>
       </c>
       <c r="G3" t="n">
-        <v>-36163.68769999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E4" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>241.642</v>
+        <v>3208.8198</v>
       </c>
       <c r="G4" t="n">
-        <v>-36163.68769999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001</v>
+        <v>530.6097</v>
       </c>
       <c r="G5" t="n">
-        <v>-36163.68769999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E6" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>2450.3053</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>-38613.99299999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D7" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E7" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" t="n">
-        <v>1466.1647</v>
+        <v>85</v>
       </c>
       <c r="G7" t="n">
-        <v>-37147.82829999999</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C8" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D8" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F8" t="n">
-        <v>57340.259</v>
+        <v>5163.9362</v>
       </c>
       <c r="G8" t="n">
-        <v>20192.43070000001</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C9" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D9" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E9" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F9" t="n">
-        <v>15892.2827</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>36084.71340000001</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C10" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D10" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" t="n">
-        <v>5668.193</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>41752.90640000001</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C11" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F11" t="n">
-        <v>17633.3516</v>
+        <v>65</v>
       </c>
       <c r="G11" t="n">
-        <v>24119.55480000001</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C12" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>2584</v>
+        <v>52</v>
       </c>
       <c r="G12" t="n">
-        <v>24119.55480000001</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D13" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E13" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F13" t="n">
-        <v>583.0173</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>24702.5721</v>
+        <v>-43076.2837</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C14" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F14" t="n">
-        <v>17201.5648</v>
+        <v>552</v>
       </c>
       <c r="G14" t="n">
-        <v>7501.007300000005</v>
+        <v>-42524.2837</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C15" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D15" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E15" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F15" t="n">
-        <v>5862.6392</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>7501.007300000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C16" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D16" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F16" t="n">
-        <v>3394.7526</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>7501.007300000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C17" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D17" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F17" t="n">
-        <v>2528.7953</v>
+        <v>0.3053</v>
       </c>
       <c r="G17" t="n">
-        <v>7501.007300000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D18" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E18" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>1892.0197</v>
+        <v>10.5505</v>
       </c>
       <c r="G18" t="n">
-        <v>7501.007300000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D19" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F19" t="n">
-        <v>855.2524</v>
+        <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>6645.754900000004</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C20" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D20" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F20" t="n">
-        <v>5776.028</v>
+        <v>65</v>
       </c>
       <c r="G20" t="n">
-        <v>6645.754900000004</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C21" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D21" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E21" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F21" t="n">
-        <v>412.2878</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>7058.042700000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C22" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D22" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E22" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F22" t="n">
-        <v>1388.5001</v>
+        <v>65</v>
       </c>
       <c r="G22" t="n">
-        <v>7058.042700000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C23" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D23" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E23" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F23" t="n">
-        <v>6075.1114</v>
+        <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>7058.042700000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C24" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E24" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F24" t="n">
-        <v>192.9268</v>
+        <v>65</v>
       </c>
       <c r="G24" t="n">
-        <v>6865.115900000004</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E25" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F25" t="n">
-        <v>22.608</v>
+        <v>164.0363</v>
       </c>
       <c r="G25" t="n">
-        <v>6887.723900000005</v>
+        <v>-42553.2837</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C26" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D26" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E26" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F26" t="n">
-        <v>3037.7372</v>
+        <v>7207.4189</v>
       </c>
       <c r="G26" t="n">
-        <v>3849.986700000004</v>
+        <v>-49760.7026</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C27" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D27" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E27" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F27" t="n">
-        <v>245.496</v>
+        <v>2219.7948</v>
       </c>
       <c r="G27" t="n">
-        <v>3849.986700000004</v>
+        <v>-49760.7026</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C28" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D28" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E28" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F28" t="n">
-        <v>1093.4126</v>
+        <v>126</v>
       </c>
       <c r="G28" t="n">
-        <v>3849.986700000004</v>
+        <v>-49634.7026</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C29" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D29" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E29" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F29" t="n">
-        <v>7782.7483</v>
+        <v>451.5082</v>
       </c>
       <c r="G29" t="n">
-        <v>3849.986700000004</v>
+        <v>-50086.21079999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C30" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D30" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E30" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F30" t="n">
-        <v>18744.2414</v>
+        <v>169</v>
       </c>
       <c r="G30" t="n">
-        <v>3849.986700000004</v>
+        <v>-50255.21079999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,31 +1482,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C31" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D31" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E31" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="G31" t="n">
-        <v>3849.986700000004</v>
+        <v>-50239.71079999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>211</v>
+      </c>
+      <c r="K31" t="n">
+        <v>211</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1518,22 +1522,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C32" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D32" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E32" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F32" t="n">
-        <v>1552.3225</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>3849.986700000004</v>
+        <v>-50229.71079999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>211</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1564,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E33" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F33" t="n">
-        <v>30895.9102</v>
+        <v>3.4993</v>
       </c>
       <c r="G33" t="n">
-        <v>3849.986700000004</v>
+        <v>-50226.21149999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>213</v>
+      </c>
+      <c r="K33" t="n">
+        <v>211</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1608,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C34" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D34" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E34" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F34" t="n">
-        <v>83.039</v>
+        <v>10.1714</v>
       </c>
       <c r="G34" t="n">
-        <v>3849.986700000004</v>
+        <v>-50226.21149999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,28 +1644,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C35" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D35" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E35" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F35" t="n">
-        <v>14393.0187</v>
+        <v>10.1714</v>
       </c>
       <c r="G35" t="n">
-        <v>3849.986700000004</v>
+        <v>-50236.38289999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,31 +1680,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C36" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E36" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F36" t="n">
-        <v>7313.5358</v>
+        <v>124.8126</v>
       </c>
       <c r="G36" t="n">
-        <v>3849.986700000004</v>
+        <v>-50236.38289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>212</v>
+      </c>
+      <c r="K36" t="n">
+        <v>212</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1698,32 +1720,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C37" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D37" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E37" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F37" t="n">
-        <v>12535.8228</v>
+        <v>199.6775</v>
       </c>
       <c r="G37" t="n">
-        <v>16385.8095</v>
+        <v>-50036.70539999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>212</v>
+      </c>
+      <c r="K37" t="n">
+        <v>212</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1764,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C38" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D38" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E38" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F38" t="n">
-        <v>17014.0777</v>
+        <v>17.5344</v>
       </c>
       <c r="G38" t="n">
-        <v>16385.8095</v>
+        <v>-50036.70539999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>213</v>
+      </c>
+      <c r="K38" t="n">
+        <v>212</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,31 +1808,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C39" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D39" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E39" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F39" t="n">
-        <v>241.8422</v>
+        <v>6451.9291</v>
       </c>
       <c r="G39" t="n">
-        <v>16143.9673</v>
+        <v>-43584.77629999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>213</v>
+      </c>
+      <c r="K39" t="n">
+        <v>213</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
@@ -1806,32 +1848,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C40" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D40" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E40" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F40" t="n">
-        <v>7314.1893</v>
+        <v>23.0722</v>
       </c>
       <c r="G40" t="n">
-        <v>8829.778000000004</v>
+        <v>-43561.70409999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>214</v>
+      </c>
+      <c r="K40" t="n">
+        <v>213</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1892,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D41" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E41" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F41" t="n">
-        <v>133.4352</v>
+        <v>141</v>
       </c>
       <c r="G41" t="n">
-        <v>8829.778000000004</v>
+        <v>-43420.70409999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>215</v>
+      </c>
+      <c r="K41" t="n">
+        <v>213</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +1936,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C42" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F42" t="n">
-        <v>930.4012</v>
+        <v>2333.9226</v>
       </c>
       <c r="G42" t="n">
-        <v>8829.778000000004</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>216</v>
+      </c>
+      <c r="K42" t="n">
+        <v>213</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +1980,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C43" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F43" t="n">
-        <v>254.8968</v>
+        <v>4236.4653</v>
       </c>
       <c r="G43" t="n">
-        <v>8829.778000000004</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>213</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2022,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E44" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" t="n">
-        <v>114</v>
+        <v>4891.0364</v>
       </c>
       <c r="G44" t="n">
-        <v>8943.778000000004</v>
+        <v>-41086.78149999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2046,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>213</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2064,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C45" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D45" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E45" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F45" t="n">
-        <v>15558.5321</v>
+        <v>3350</v>
       </c>
       <c r="G45" t="n">
-        <v>-6614.754099999996</v>
+        <v>-44436.78149999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2088,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>213</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2106,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C46" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E46" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F46" t="n">
-        <v>171.1914</v>
+        <v>499.2122</v>
       </c>
       <c r="G46" t="n">
-        <v>-6614.754099999996</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2130,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>213</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2148,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E47" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F47" t="n">
-        <v>3803.0842</v>
+        <v>3068.0506</v>
       </c>
       <c r="G47" t="n">
-        <v>-10417.8383</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>213</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2190,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F48" t="n">
-        <v>5045.1683</v>
+        <v>11028.97</v>
       </c>
       <c r="G48" t="n">
-        <v>-10417.8383</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2214,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>213</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2232,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" t="n">
         <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E49" t="n">
         <v>216</v>
       </c>
       <c r="F49" t="n">
-        <v>135</v>
+        <v>9486.7942</v>
       </c>
       <c r="G49" t="n">
-        <v>-10552.8383</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2256,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>213</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,7 +2274,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" t="n">
         <v>216</v>
@@ -2175,13 +2283,13 @@
         <v>216</v>
       </c>
       <c r="E50" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" t="n">
-        <v>565.8653</v>
+        <v>1412</v>
       </c>
       <c r="G50" t="n">
-        <v>-10552.8383</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2298,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>213</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2316,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C51" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E51" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F51" t="n">
-        <v>683.2972</v>
+        <v>1208.9998</v>
       </c>
       <c r="G51" t="n">
-        <v>-9869.541099999995</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>216</v>
+      </c>
+      <c r="K51" t="n">
+        <v>213</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2250,10 +2372,10 @@
         <v>216</v>
       </c>
       <c r="F52" t="n">
-        <v>520</v>
+        <v>537.2809999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-10389.54109999999</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2384,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>213</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,7 +2402,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C53" t="n">
         <v>216</v>
@@ -2283,13 +2411,13 @@
         <v>216</v>
       </c>
       <c r="E53" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F53" t="n">
-        <v>2150.4909</v>
+        <v>694</v>
       </c>
       <c r="G53" t="n">
-        <v>-10389.54109999999</v>
+        <v>-43937.56929999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2426,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>213</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2322,10 +2456,10 @@
         <v>215</v>
       </c>
       <c r="F54" t="n">
-        <v>8269.4786</v>
+        <v>140.4207</v>
       </c>
       <c r="G54" t="n">
-        <v>-18659.0197</v>
+        <v>-44077.98999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2468,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>213</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2486,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D55" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E55" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F55" t="n">
-        <v>332</v>
+        <v>908.1361000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-18327.0197</v>
+        <v>-43169.85389999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>215</v>
+      </c>
+      <c r="K55" t="n">
+        <v>213</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2530,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D56" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E56" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F56" t="n">
-        <v>182</v>
+        <v>733.2195</v>
       </c>
       <c r="G56" t="n">
-        <v>-18327.0197</v>
+        <v>-43903.07339999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>213</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2572,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D57" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E57" t="n">
         <v>216</v>
       </c>
       <c r="F57" t="n">
-        <v>4115.7471</v>
+        <v>403.0117</v>
       </c>
       <c r="G57" t="n">
-        <v>-18327.0197</v>
+        <v>-43500.06169999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>213</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2617,19 @@
         <v>217</v>
       </c>
       <c r="C58" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E58" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F58" t="n">
-        <v>14226.7234</v>
+        <v>318.5081</v>
       </c>
       <c r="G58" t="n">
-        <v>-4100.296299999996</v>
+        <v>-43181.55359999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2638,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>213</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2493,19 +2659,19 @@
         <v>217</v>
       </c>
       <c r="C59" t="n">
+        <v>214</v>
+      </c>
+      <c r="D59" t="n">
         <v>218</v>
       </c>
-      <c r="D59" t="n">
-        <v>219</v>
-      </c>
       <c r="E59" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F59" t="n">
-        <v>8064.2345</v>
+        <v>16451.9709</v>
       </c>
       <c r="G59" t="n">
-        <v>-12164.5308</v>
+        <v>-59633.52449999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2680,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>213</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2698,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D60" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E60" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F60" t="n">
-        <v>327</v>
+        <v>4.6512</v>
       </c>
       <c r="G60" t="n">
-        <v>-12491.5308</v>
+        <v>-59628.87329999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>213</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2740,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D61" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E61" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" t="n">
-        <v>12.4016</v>
+        <v>1133.1369</v>
       </c>
       <c r="G61" t="n">
-        <v>-12491.5308</v>
+        <v>-58495.73639999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2764,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>213</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2782,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E62" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F62" t="n">
-        <v>41.4183</v>
+        <v>4632.7745</v>
       </c>
       <c r="G62" t="n">
-        <v>-12532.9491</v>
+        <v>-63128.51089999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2806,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>213</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2824,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D63" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E63" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F63" t="n">
-        <v>607.4973</v>
+        <v>198.1319</v>
       </c>
       <c r="G63" t="n">
-        <v>-12532.9491</v>
+        <v>-62930.37899999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>215</v>
+      </c>
+      <c r="K63" t="n">
+        <v>213</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2868,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C64" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D64" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E64" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F64" t="n">
-        <v>109.5994</v>
+        <v>555.1423</v>
       </c>
       <c r="G64" t="n">
-        <v>-12642.5485</v>
+        <v>-63485.52129999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +2892,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>213</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2910,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C65" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D65" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E65" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F65" t="n">
-        <v>6728</v>
+        <v>4444.8576</v>
       </c>
       <c r="G65" t="n">
-        <v>-19370.5485</v>
+        <v>-63485.52129999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +2934,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>213</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,36 +2952,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C66" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D66" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E66" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F66" t="n">
-        <v>32814.6345</v>
+        <v>248</v>
       </c>
       <c r="G66" t="n">
-        <v>13444.086</v>
+        <v>-63237.52129999999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>214</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>213</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2784,22 +2994,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C67" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D67" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E67" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F67" t="n">
-        <v>3000</v>
+        <v>658.6660000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>13444.086</v>
+        <v>-63896.18729999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2808,7 +3018,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>213</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,19 +3039,19 @@
         <v>217</v>
       </c>
       <c r="C68" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D68" t="n">
         <v>217</v>
       </c>
       <c r="E68" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F68" t="n">
-        <v>3899.209093087557</v>
+        <v>4831.7063</v>
       </c>
       <c r="G68" t="n">
-        <v>13444.086</v>
+        <v>-59064.48099999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2848,7 +3060,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>213</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,22 +3078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C69" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D69" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E69" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F69" t="n">
-        <v>460.8294</v>
+        <v>7016.3996</v>
       </c>
       <c r="G69" t="n">
-        <v>13444.086</v>
+        <v>-52048.08139999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2888,7 +3102,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>213</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,22 +3120,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C70" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D70" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E70" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F70" t="n">
-        <v>5518</v>
+        <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>13444.086</v>
+        <v>-52548.08139999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2928,7 +3144,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>213</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,22 +3162,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C71" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E71" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F71" t="n">
-        <v>508.3992</v>
+        <v>1975.1883</v>
       </c>
       <c r="G71" t="n">
-        <v>13952.4852</v>
+        <v>-50572.89309999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2968,7 +3186,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>213</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,22 +3204,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C72" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F72" t="n">
-        <v>225.7836</v>
+        <v>635.3389</v>
       </c>
       <c r="G72" t="n">
-        <v>13952.4852</v>
+        <v>-50572.89309999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3008,7 +3228,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>213</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3024,22 +3246,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C73" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D73" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E73" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F73" t="n">
-        <v>2150.3053</v>
+        <v>14409.2054</v>
       </c>
       <c r="G73" t="n">
-        <v>11802.1799</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,7 +3270,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>213</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,22 +3288,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C74" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D74" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E74" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F74" t="n">
-        <v>69746.4771</v>
+        <v>3561.4421</v>
       </c>
       <c r="G74" t="n">
-        <v>-57944.2972</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3088,7 +3312,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>213</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3104,22 +3330,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C75" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D75" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E75" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F75" t="n">
-        <v>4147.3938</v>
+        <v>241.642</v>
       </c>
       <c r="G75" t="n">
-        <v>-53796.9034</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3128,7 +3354,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>213</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3144,22 +3372,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C76" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E76" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F76" t="n">
-        <v>245.0417</v>
+        <v>0.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>-53796.9034</v>
+        <v>-36163.68769999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3168,7 +3396,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>213</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,22 +3414,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C77" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D77" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E77" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F77" t="n">
-        <v>8922.8428</v>
+        <v>2450.3053</v>
       </c>
       <c r="G77" t="n">
-        <v>-62719.7462</v>
+        <v>-38613.99299999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3208,7 +3438,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>213</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,33 +3456,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C78" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D78" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E78" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F78" t="n">
-        <v>367.3008</v>
+        <v>1466.1647</v>
       </c>
       <c r="G78" t="n">
-        <v>-62352.4454</v>
+        <v>-37147.82829999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>212</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>213</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,22 +3498,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C79" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E79" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F79" t="n">
-        <v>187.0591</v>
+        <v>57340.259</v>
       </c>
       <c r="G79" t="n">
-        <v>-62352.4454</v>
+        <v>20192.43070000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3290,7 +3522,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>213</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,22 +3540,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D80" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E80" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F80" t="n">
-        <v>472.3015</v>
+        <v>15892.2827</v>
       </c>
       <c r="G80" t="n">
-        <v>-62352.4454</v>
+        <v>36084.71340000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3330,7 +3564,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>213</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,22 +3582,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C81" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D81" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E81" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F81" t="n">
-        <v>992.996</v>
+        <v>5668.193</v>
       </c>
       <c r="G81" t="n">
-        <v>-62352.4454</v>
+        <v>41752.90640000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3370,7 +3606,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>213</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3386,22 +3624,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C82" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E82" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F82" t="n">
-        <v>25</v>
+        <v>17633.3516</v>
       </c>
       <c r="G82" t="n">
-        <v>-62352.4454</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3410,7 +3648,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>213</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,22 +3666,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C83" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D83" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E83" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F83" t="n">
-        <v>69746.4771</v>
+        <v>2584</v>
       </c>
       <c r="G83" t="n">
-        <v>-132098.9225</v>
+        <v>24119.55480000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3450,7 +3690,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>213</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,22 +3708,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C84" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D84" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E84" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F84" t="n">
-        <v>1471.2568</v>
+        <v>583.0173</v>
       </c>
       <c r="G84" t="n">
-        <v>-130627.6657</v>
+        <v>24702.5721</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3490,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>213</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,40 +3750,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C85" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D85" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E85" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F85" t="n">
-        <v>311.4296</v>
+        <v>17201.5648</v>
       </c>
       <c r="G85" t="n">
-        <v>-130939.0953</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>215</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>213</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>1.03255868544601</v>
       </c>
       <c r="N85" t="inlineStr"/>
     </row>
@@ -3548,38 +3792,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C86" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D86" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E86" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F86" t="n">
-        <v>5241.2944</v>
+        <v>5862.6392</v>
       </c>
       <c r="G86" t="n">
-        <v>-125697.8009</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3590,38 +3828,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C87" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D87" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E87" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F87" t="n">
-        <v>10300</v>
+        <v>3394.7526</v>
       </c>
       <c r="G87" t="n">
-        <v>-135997.8009</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>216</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3632,38 +3864,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C88" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D88" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E88" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F88" t="n">
-        <v>7192.4676</v>
+        <v>2528.7953</v>
       </c>
       <c r="G88" t="n">
-        <v>-135997.8009</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3674,38 +3900,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C89" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D89" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E89" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>1892.0197</v>
       </c>
       <c r="G89" t="n">
-        <v>-135997.8009</v>
+        <v>7501.007300000005</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3716,38 +3936,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C90" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D90" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E90" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F90" t="n">
-        <v>29636.457</v>
+        <v>855.2524</v>
       </c>
       <c r="G90" t="n">
-        <v>-165634.2579</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3758,38 +3972,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C91" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E91" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F91" t="n">
-        <v>46.0129</v>
+        <v>5776.028</v>
       </c>
       <c r="G91" t="n">
-        <v>-165634.2579</v>
+        <v>6645.754900000004</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3800,38 +4008,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C92" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D92" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E92" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F92" t="n">
-        <v>176.6989</v>
+        <v>412.2878</v>
       </c>
       <c r="G92" t="n">
-        <v>-165634.2579</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3842,38 +4044,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C93" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D93" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E93" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F93" t="n">
-        <v>7975.4882</v>
+        <v>1388.5001</v>
       </c>
       <c r="G93" t="n">
-        <v>-165634.2579</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3884,38 +4080,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C94" t="n">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D94" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E94" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F94" t="n">
-        <v>391.3436</v>
+        <v>6075.1114</v>
       </c>
       <c r="G94" t="n">
-        <v>-165634.2579</v>
+        <v>7058.042700000005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3926,38 +4116,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C95" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D95" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E95" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F95" t="n">
-        <v>1621.2886</v>
+        <v>192.9268</v>
       </c>
       <c r="G95" t="n">
-        <v>-164012.9693</v>
+        <v>6865.115900000004</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3968,38 +4152,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C96" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D96" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E96" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F96" t="n">
-        <v>1848.8804</v>
+        <v>22.608</v>
       </c>
       <c r="G96" t="n">
-        <v>-162164.0889</v>
+        <v>6887.723900000005</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>216</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4010,36 +4188,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C97" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D97" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E97" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F97" t="n">
-        <v>231.0613</v>
+        <v>3037.7372</v>
       </c>
       <c r="G97" t="n">
-        <v>-162395.1502</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4224,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C98" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D98" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E98" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F98" t="n">
-        <v>517.3445</v>
+        <v>245.496</v>
       </c>
       <c r="G98" t="n">
-        <v>-162912.4947</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4075,11 +4249,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4090,36 +4260,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C99" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D99" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E99" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F99" t="n">
-        <v>268.5159</v>
+        <v>1093.4126</v>
       </c>
       <c r="G99" t="n">
-        <v>-162643.9788</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4130,22 +4296,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C100" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D100" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E100" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F100" t="n">
-        <v>787.8169</v>
+        <v>7782.7483</v>
       </c>
       <c r="G100" t="n">
-        <v>-162643.9788</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4155,11 +4321,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4170,36 +4332,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D101" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E101" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F101" t="n">
-        <v>10800</v>
+        <v>18744.2414</v>
       </c>
       <c r="G101" t="n">
-        <v>-162643.9788</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4210,38 +4368,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C102" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D102" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E102" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F102" t="n">
-        <v>251.4037</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>-162643.9788</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4252,40 +4404,2592 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C103" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D103" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E103" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>1552.3225</v>
       </c>
       <c r="G103" t="n">
-        <v>-162643.9788</v>
+        <v>3849.986700000004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>220</v>
+      </c>
+      <c r="C104" t="n">
+        <v>220</v>
+      </c>
+      <c r="D104" t="n">
+        <v>220</v>
+      </c>
+      <c r="E104" t="n">
+        <v>220</v>
+      </c>
+      <c r="F104" t="n">
+        <v>30895.9102</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>221</v>
+      </c>
+      <c r="C105" t="n">
+        <v>220</v>
+      </c>
+      <c r="D105" t="n">
+        <v>221</v>
+      </c>
+      <c r="E105" t="n">
+        <v>220</v>
+      </c>
+      <c r="F105" t="n">
+        <v>83.039</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>220</v>
+      </c>
+      <c r="C106" t="n">
+        <v>220</v>
+      </c>
+      <c r="D106" t="n">
+        <v>220</v>
+      </c>
+      <c r="E106" t="n">
+        <v>220</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14393.0187</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>220</v>
+      </c>
+      <c r="C107" t="n">
+        <v>220</v>
+      </c>
+      <c r="D107" t="n">
+        <v>220</v>
+      </c>
+      <c r="E107" t="n">
+        <v>220</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7313.5358</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>220</v>
+      </c>
+      <c r="C108" t="n">
+        <v>221</v>
+      </c>
+      <c r="D108" t="n">
+        <v>221</v>
+      </c>
+      <c r="E108" t="n">
+        <v>220</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12535.8228</v>
+      </c>
+      <c r="G108" t="n">
+        <v>16385.8095</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>221</v>
+      </c>
+      <c r="C109" t="n">
+        <v>221</v>
+      </c>
+      <c r="D109" t="n">
+        <v>221</v>
+      </c>
+      <c r="E109" t="n">
+        <v>221</v>
+      </c>
+      <c r="F109" t="n">
+        <v>17014.0777</v>
+      </c>
+      <c r="G109" t="n">
+        <v>16385.8095</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>220</v>
+      </c>
+      <c r="D110" t="n">
+        <v>221</v>
+      </c>
+      <c r="E110" t="n">
+        <v>220</v>
+      </c>
+      <c r="F110" t="n">
+        <v>241.8422</v>
+      </c>
+      <c r="G110" t="n">
+        <v>16143.9673</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>219</v>
+      </c>
+      <c r="C111" t="n">
+        <v>219</v>
+      </c>
+      <c r="D111" t="n">
+        <v>219</v>
+      </c>
+      <c r="E111" t="n">
+        <v>219</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7314.1893</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8829.778000000004</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>219</v>
+      </c>
+      <c r="C112" t="n">
+        <v>219</v>
+      </c>
+      <c r="D112" t="n">
+        <v>219</v>
+      </c>
+      <c r="E112" t="n">
+        <v>219</v>
+      </c>
+      <c r="F112" t="n">
+        <v>133.4352</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8829.778000000004</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>219</v>
+      </c>
+      <c r="C113" t="n">
+        <v>219</v>
+      </c>
+      <c r="D113" t="n">
+        <v>219</v>
+      </c>
+      <c r="E113" t="n">
+        <v>219</v>
+      </c>
+      <c r="F113" t="n">
+        <v>930.4012</v>
+      </c>
+      <c r="G113" t="n">
+        <v>8829.778000000004</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>219</v>
+      </c>
+      <c r="C114" t="n">
+        <v>219</v>
+      </c>
+      <c r="D114" t="n">
+        <v>219</v>
+      </c>
+      <c r="E114" t="n">
+        <v>219</v>
+      </c>
+      <c r="F114" t="n">
+        <v>254.8968</v>
+      </c>
+      <c r="G114" t="n">
+        <v>8829.778000000004</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>218</v>
+      </c>
+      <c r="C115" t="n">
+        <v>220</v>
+      </c>
+      <c r="D115" t="n">
+        <v>220</v>
+      </c>
+      <c r="E115" t="n">
+        <v>218</v>
+      </c>
+      <c r="F115" t="n">
+        <v>114</v>
+      </c>
+      <c r="G115" t="n">
+        <v>8943.778000000004</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>219</v>
+      </c>
+      <c r="C116" t="n">
+        <v>218</v>
+      </c>
+      <c r="D116" t="n">
+        <v>221</v>
+      </c>
+      <c r="E116" t="n">
+        <v>217</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15558.5321</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-6614.754099999996</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>219</v>
+      </c>
+      <c r="C117" t="n">
+        <v>218</v>
+      </c>
+      <c r="D117" t="n">
+        <v>219</v>
+      </c>
+      <c r="E117" t="n">
+        <v>218</v>
+      </c>
+      <c r="F117" t="n">
+        <v>171.1914</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-6614.754099999996</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>217</v>
+      </c>
+      <c r="C118" t="n">
+        <v>217</v>
+      </c>
+      <c r="D118" t="n">
+        <v>217</v>
+      </c>
+      <c r="E118" t="n">
+        <v>217</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3803.0842</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-10417.8383</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>217</v>
+      </c>
+      <c r="C119" t="n">
+        <v>217</v>
+      </c>
+      <c r="D119" t="n">
+        <v>217</v>
+      </c>
+      <c r="E119" t="n">
+        <v>217</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5045.1683</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-10417.8383</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>217</v>
+      </c>
+      <c r="C120" t="n">
+        <v>216</v>
+      </c>
+      <c r="D120" t="n">
+        <v>217</v>
+      </c>
+      <c r="E120" t="n">
+        <v>216</v>
+      </c>
+      <c r="F120" t="n">
+        <v>135</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-10552.8383</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>216</v>
+      </c>
+      <c r="C121" t="n">
+        <v>216</v>
+      </c>
+      <c r="D121" t="n">
+        <v>216</v>
+      </c>
+      <c r="E121" t="n">
+        <v>216</v>
+      </c>
+      <c r="F121" t="n">
+        <v>565.8653</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-10552.8383</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>217</v>
+      </c>
+      <c r="C122" t="n">
+        <v>217</v>
+      </c>
+      <c r="D122" t="n">
+        <v>217</v>
+      </c>
+      <c r="E122" t="n">
+        <v>217</v>
+      </c>
+      <c r="F122" t="n">
+        <v>683.2972</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-9869.541099999995</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>216</v>
+      </c>
+      <c r="C123" t="n">
+        <v>216</v>
+      </c>
+      <c r="D123" t="n">
+        <v>216</v>
+      </c>
+      <c r="E123" t="n">
+        <v>216</v>
+      </c>
+      <c r="F123" t="n">
+        <v>520</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-10389.54109999999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>216</v>
+      </c>
+      <c r="C124" t="n">
+        <v>216</v>
+      </c>
+      <c r="D124" t="n">
+        <v>216</v>
+      </c>
+      <c r="E124" t="n">
+        <v>216</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2150.4909</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-10389.54109999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>215</v>
+      </c>
+      <c r="C125" t="n">
+        <v>215</v>
+      </c>
+      <c r="D125" t="n">
+        <v>215</v>
+      </c>
+      <c r="E125" t="n">
+        <v>215</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8269.4786</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-18659.0197</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>218</v>
+      </c>
+      <c r="C126" t="n">
+        <v>218</v>
+      </c>
+      <c r="D126" t="n">
+        <v>218</v>
+      </c>
+      <c r="E126" t="n">
+        <v>218</v>
+      </c>
+      <c r="F126" t="n">
+        <v>332</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-18327.0197</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>217</v>
+      </c>
+      <c r="C127" t="n">
+        <v>218</v>
+      </c>
+      <c r="D127" t="n">
+        <v>218</v>
+      </c>
+      <c r="E127" t="n">
+        <v>217</v>
+      </c>
+      <c r="F127" t="n">
+        <v>182</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-18327.0197</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>218</v>
+      </c>
+      <c r="C128" t="n">
+        <v>218</v>
+      </c>
+      <c r="D128" t="n">
+        <v>218</v>
+      </c>
+      <c r="E128" t="n">
+        <v>216</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4115.7471</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-18327.0197</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>217</v>
+      </c>
+      <c r="C129" t="n">
+        <v>219</v>
+      </c>
+      <c r="D129" t="n">
+        <v>219</v>
+      </c>
+      <c r="E129" t="n">
+        <v>216</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14226.7234</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4100.296299999996</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>217</v>
+      </c>
+      <c r="C130" t="n">
+        <v>218</v>
+      </c>
+      <c r="D130" t="n">
+        <v>219</v>
+      </c>
+      <c r="E130" t="n">
+        <v>217</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8064.2345</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-12164.5308</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>217</v>
+      </c>
+      <c r="C131" t="n">
+        <v>217</v>
+      </c>
+      <c r="D131" t="n">
+        <v>218</v>
+      </c>
+      <c r="E131" t="n">
+        <v>217</v>
+      </c>
+      <c r="F131" t="n">
+        <v>327</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-12491.5308</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>217</v>
+      </c>
+      <c r="C132" t="n">
+        <v>217</v>
+      </c>
+      <c r="D132" t="n">
+        <v>217</v>
+      </c>
+      <c r="E132" t="n">
+        <v>217</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.4016</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-12491.5308</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>216</v>
+      </c>
+      <c r="C133" t="n">
+        <v>216</v>
+      </c>
+      <c r="D133" t="n">
+        <v>216</v>
+      </c>
+      <c r="E133" t="n">
+        <v>216</v>
+      </c>
+      <c r="F133" t="n">
+        <v>41.4183</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-12532.9491</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>216</v>
+      </c>
+      <c r="C134" t="n">
+        <v>216</v>
+      </c>
+      <c r="D134" t="n">
+        <v>216</v>
+      </c>
+      <c r="E134" t="n">
+        <v>216</v>
+      </c>
+      <c r="F134" t="n">
+        <v>607.4973</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-12532.9491</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>215</v>
+      </c>
+      <c r="C135" t="n">
+        <v>215</v>
+      </c>
+      <c r="D135" t="n">
+        <v>215</v>
+      </c>
+      <c r="E135" t="n">
+        <v>215</v>
+      </c>
+      <c r="F135" t="n">
+        <v>109.5994</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-12642.5485</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>214</v>
+      </c>
+      <c r="C136" t="n">
+        <v>214</v>
+      </c>
+      <c r="D136" t="n">
+        <v>214</v>
+      </c>
+      <c r="E136" t="n">
+        <v>214</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6728</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-19370.5485</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>214</v>
+      </c>
+      <c r="C137" t="n">
+        <v>215</v>
+      </c>
+      <c r="D137" t="n">
+        <v>224</v>
+      </c>
+      <c r="E137" t="n">
+        <v>214</v>
+      </c>
+      <c r="F137" t="n">
+        <v>32814.6345</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13444.086</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>215</v>
+      </c>
+      <c r="C138" t="n">
+        <v>215</v>
+      </c>
+      <c r="D138" t="n">
+        <v>215</v>
+      </c>
+      <c r="E138" t="n">
+        <v>215</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>13444.086</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>217</v>
+      </c>
+      <c r="C139" t="n">
+        <v>215</v>
+      </c>
+      <c r="D139" t="n">
+        <v>217</v>
+      </c>
+      <c r="E139" t="n">
+        <v>215</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3899.209093087557</v>
+      </c>
+      <c r="G139" t="n">
+        <v>13444.086</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>215</v>
+      </c>
+      <c r="C140" t="n">
+        <v>215</v>
+      </c>
+      <c r="D140" t="n">
+        <v>215</v>
+      </c>
+      <c r="E140" t="n">
+        <v>215</v>
+      </c>
+      <c r="F140" t="n">
+        <v>460.8294</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13444.086</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>216</v>
+      </c>
+      <c r="C141" t="n">
+        <v>215</v>
+      </c>
+      <c r="D141" t="n">
+        <v>216</v>
+      </c>
+      <c r="E141" t="n">
+        <v>215</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5518</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13444.086</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>216</v>
+      </c>
+      <c r="C142" t="n">
+        <v>216</v>
+      </c>
+      <c r="D142" t="n">
+        <v>216</v>
+      </c>
+      <c r="E142" t="n">
+        <v>216</v>
+      </c>
+      <c r="F142" t="n">
+        <v>508.3992</v>
+      </c>
+      <c r="G142" t="n">
+        <v>13952.4852</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>216</v>
+      </c>
+      <c r="C143" t="n">
+        <v>216</v>
+      </c>
+      <c r="D143" t="n">
+        <v>216</v>
+      </c>
+      <c r="E143" t="n">
+        <v>216</v>
+      </c>
+      <c r="F143" t="n">
+        <v>225.7836</v>
+      </c>
+      <c r="G143" t="n">
+        <v>13952.4852</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>215</v>
+      </c>
+      <c r="C144" t="n">
+        <v>215</v>
+      </c>
+      <c r="D144" t="n">
+        <v>215</v>
+      </c>
+      <c r="E144" t="n">
+        <v>215</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2150.3053</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11802.1799</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>215</v>
+      </c>
+      <c r="C145" t="n">
+        <v>213</v>
+      </c>
+      <c r="D145" t="n">
+        <v>215</v>
+      </c>
+      <c r="E145" t="n">
+        <v>213</v>
+      </c>
+      <c r="F145" t="n">
+        <v>69746.4771</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-57944.2972</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>215</v>
+      </c>
+      <c r="C146" t="n">
+        <v>215</v>
+      </c>
+      <c r="D146" t="n">
+        <v>216</v>
+      </c>
+      <c r="E146" t="n">
+        <v>215</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4147.3938</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-53796.9034</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>215</v>
+      </c>
+      <c r="C147" t="n">
+        <v>215</v>
+      </c>
+      <c r="D147" t="n">
+        <v>215</v>
+      </c>
+      <c r="E147" t="n">
+        <v>215</v>
+      </c>
+      <c r="F147" t="n">
+        <v>245.0417</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-53796.9034</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>213</v>
+      </c>
+      <c r="C148" t="n">
+        <v>212</v>
+      </c>
+      <c r="D148" t="n">
+        <v>213</v>
+      </c>
+      <c r="E148" t="n">
+        <v>212</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8922.8428</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-62719.7462</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>214</v>
+      </c>
+      <c r="C149" t="n">
+        <v>215</v>
+      </c>
+      <c r="D149" t="n">
+        <v>215</v>
+      </c>
+      <c r="E149" t="n">
+        <v>214</v>
+      </c>
+      <c r="F149" t="n">
+        <v>367.3008</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>215</v>
+      </c>
+      <c r="C150" t="n">
+        <v>215</v>
+      </c>
+      <c r="D150" t="n">
+        <v>215</v>
+      </c>
+      <c r="E150" t="n">
+        <v>215</v>
+      </c>
+      <c r="F150" t="n">
+        <v>187.0591</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>215</v>
+      </c>
+      <c r="C151" t="n">
+        <v>215</v>
+      </c>
+      <c r="D151" t="n">
+        <v>215</v>
+      </c>
+      <c r="E151" t="n">
+        <v>215</v>
+      </c>
+      <c r="F151" t="n">
+        <v>472.3015</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>215</v>
+      </c>
+      <c r="C152" t="n">
+        <v>215</v>
+      </c>
+      <c r="D152" t="n">
+        <v>216</v>
+      </c>
+      <c r="E152" t="n">
+        <v>215</v>
+      </c>
+      <c r="F152" t="n">
+        <v>992.996</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>215</v>
+      </c>
+      <c r="C153" t="n">
+        <v>215</v>
+      </c>
+      <c r="D153" t="n">
+        <v>215</v>
+      </c>
+      <c r="E153" t="n">
+        <v>215</v>
+      </c>
+      <c r="F153" t="n">
+        <v>25</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-62352.4454</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>213</v>
+      </c>
+      <c r="C154" t="n">
+        <v>211</v>
+      </c>
+      <c r="D154" t="n">
+        <v>213</v>
+      </c>
+      <c r="E154" t="n">
+        <v>211</v>
+      </c>
+      <c r="F154" t="n">
+        <v>69746.4771</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-132098.9225</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>214</v>
+      </c>
+      <c r="C155" t="n">
+        <v>215</v>
+      </c>
+      <c r="D155" t="n">
+        <v>215</v>
+      </c>
+      <c r="E155" t="n">
+        <v>213</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1471.2568</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-130627.6657</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>214</v>
+      </c>
+      <c r="C156" t="n">
+        <v>214</v>
+      </c>
+      <c r="D156" t="n">
+        <v>214</v>
+      </c>
+      <c r="E156" t="n">
+        <v>214</v>
+      </c>
+      <c r="F156" t="n">
+        <v>311.4296</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-130939.0953</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>213</v>
+      </c>
+      <c r="C157" t="n">
+        <v>216</v>
+      </c>
+      <c r="D157" t="n">
+        <v>216</v>
+      </c>
+      <c r="E157" t="n">
+        <v>213</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5241.2944</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-125697.8009</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>215</v>
+      </c>
+      <c r="C158" t="n">
+        <v>215</v>
+      </c>
+      <c r="D158" t="n">
+        <v>215</v>
+      </c>
+      <c r="E158" t="n">
+        <v>215</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>213</v>
+      </c>
+      <c r="C159" t="n">
+        <v>215</v>
+      </c>
+      <c r="D159" t="n">
+        <v>216</v>
+      </c>
+      <c r="E159" t="n">
+        <v>213</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7192.4676</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>215</v>
+      </c>
+      <c r="C160" t="n">
+        <v>215</v>
+      </c>
+      <c r="D160" t="n">
+        <v>215</v>
+      </c>
+      <c r="E160" t="n">
+        <v>215</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-135997.8009</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>213</v>
+      </c>
+      <c r="C161" t="n">
+        <v>214</v>
+      </c>
+      <c r="D161" t="n">
+        <v>214</v>
+      </c>
+      <c r="E161" t="n">
+        <v>211</v>
+      </c>
+      <c r="F161" t="n">
+        <v>29636.457</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>214</v>
+      </c>
+      <c r="C162" t="n">
+        <v>214</v>
+      </c>
+      <c r="D162" t="n">
+        <v>214</v>
+      </c>
+      <c r="E162" t="n">
+        <v>214</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46.0129</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>214</v>
+      </c>
+      <c r="C163" t="n">
+        <v>214</v>
+      </c>
+      <c r="D163" t="n">
+        <v>214</v>
+      </c>
+      <c r="E163" t="n">
+        <v>214</v>
+      </c>
+      <c r="F163" t="n">
+        <v>176.6989</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>214</v>
+      </c>
+      <c r="C164" t="n">
+        <v>214</v>
+      </c>
+      <c r="D164" t="n">
+        <v>214</v>
+      </c>
+      <c r="E164" t="n">
+        <v>214</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7975.4882</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>214</v>
+      </c>
+      <c r="C165" t="n">
+        <v>214</v>
+      </c>
+      <c r="D165" t="n">
+        <v>214</v>
+      </c>
+      <c r="E165" t="n">
+        <v>214</v>
+      </c>
+      <c r="F165" t="n">
+        <v>391.3436</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-165634.2579</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>216</v>
+      </c>
+      <c r="C166" t="n">
+        <v>216</v>
+      </c>
+      <c r="D166" t="n">
+        <v>216</v>
+      </c>
+      <c r="E166" t="n">
+        <v>216</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1621.2886</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-164012.9693</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>213</v>
+      </c>
+      <c r="C167" t="n">
+        <v>217</v>
+      </c>
+      <c r="D167" t="n">
+        <v>217</v>
+      </c>
+      <c r="E167" t="n">
+        <v>213</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1848.8804</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-162164.0889</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>216</v>
+      </c>
+      <c r="C168" t="n">
+        <v>216</v>
+      </c>
+      <c r="D168" t="n">
+        <v>216</v>
+      </c>
+      <c r="E168" t="n">
+        <v>216</v>
+      </c>
+      <c r="F168" t="n">
+        <v>231.0613</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-162395.1502</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>215</v>
+      </c>
+      <c r="C169" t="n">
+        <v>214</v>
+      </c>
+      <c r="D169" t="n">
+        <v>215</v>
+      </c>
+      <c r="E169" t="n">
+        <v>214</v>
+      </c>
+      <c r="F169" t="n">
+        <v>517.3445</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-162912.4947</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>214</v>
+      </c>
+      <c r="C170" t="n">
+        <v>215</v>
+      </c>
+      <c r="D170" t="n">
+        <v>215</v>
+      </c>
+      <c r="E170" t="n">
+        <v>214</v>
+      </c>
+      <c r="F170" t="n">
+        <v>268.5159</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>215</v>
+      </c>
+      <c r="C171" t="n">
+        <v>215</v>
+      </c>
+      <c r="D171" t="n">
+        <v>215</v>
+      </c>
+      <c r="E171" t="n">
+        <v>215</v>
+      </c>
+      <c r="F171" t="n">
+        <v>787.8169</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>215</v>
+      </c>
+      <c r="C172" t="n">
+        <v>215</v>
+      </c>
+      <c r="D172" t="n">
+        <v>215</v>
+      </c>
+      <c r="E172" t="n">
+        <v>215</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>215</v>
+      </c>
+      <c r="C173" t="n">
+        <v>215</v>
+      </c>
+      <c r="D173" t="n">
+        <v>215</v>
+      </c>
+      <c r="E173" t="n">
+        <v>215</v>
+      </c>
+      <c r="F173" t="n">
+        <v>251.4037</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>215</v>
+      </c>
+      <c r="C174" t="n">
+        <v>215</v>
+      </c>
+      <c r="D174" t="n">
+        <v>215</v>
+      </c>
+      <c r="E174" t="n">
+        <v>215</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-162643.9788</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-42553.2837</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,22 +1408,19 @@
         <v>-50239.71079999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J31" t="n">
         <v>211</v>
       </c>
-      <c r="K31" t="n">
-        <v>211</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1542,22 +1447,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>211</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1582,26 +1484,23 @@
         <v>-50226.21149999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="J33" t="n">
-        <v>213</v>
-      </c>
-      <c r="K33" t="n">
         <v>211</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,16 +1527,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,22 +1591,15 @@
         <v>-50236.38289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>212</v>
-      </c>
-      <c r="K36" t="n">
-        <v>212</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,110 +1624,101 @@
         <v>-50036.70539999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J37" t="n">
         <v>212</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>213</v>
+      </c>
+      <c r="C38" t="n">
+        <v>213</v>
+      </c>
+      <c r="D38" t="n">
+        <v>213</v>
+      </c>
+      <c r="E38" t="n">
+        <v>213</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.5344</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-50036.70539999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>213</v>
+      </c>
+      <c r="J38" t="n">
         <v>212</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>214</v>
+      </c>
+      <c r="C39" t="n">
+        <v>214</v>
+      </c>
+      <c r="D39" t="n">
+        <v>214</v>
+      </c>
+      <c r="E39" t="n">
+        <v>214</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6451.9291</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-43584.77629999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>213</v>
       </c>
-      <c r="C38" t="n">
-        <v>213</v>
-      </c>
-      <c r="D38" t="n">
-        <v>213</v>
-      </c>
-      <c r="E38" t="n">
-        <v>213</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17.5344</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-50036.70539999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>213</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
         <v>212</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>214</v>
-      </c>
-      <c r="C39" t="n">
-        <v>214</v>
-      </c>
-      <c r="D39" t="n">
-        <v>214</v>
-      </c>
-      <c r="E39" t="n">
-        <v>214</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6451.9291</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-43584.77629999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>213</v>
-      </c>
-      <c r="K39" t="n">
-        <v>213</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1866,1548 +1743,1295 @@
         <v>-43561.70409999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J40" t="n">
         <v>214</v>
       </c>
-      <c r="K40" t="n">
-        <v>213</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>216</v>
+      </c>
+      <c r="C41" t="n">
+        <v>216</v>
+      </c>
+      <c r="D41" t="n">
+        <v>216</v>
+      </c>
+      <c r="E41" t="n">
+        <v>216</v>
+      </c>
+      <c r="F41" t="n">
+        <v>141</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-43420.70409999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>214</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>216</v>
-      </c>
-      <c r="C41" t="n">
-        <v>216</v>
-      </c>
-      <c r="D41" t="n">
-        <v>216</v>
-      </c>
-      <c r="E41" t="n">
-        <v>216</v>
-      </c>
-      <c r="F41" t="n">
-        <v>141</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-43420.70409999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>215</v>
-      </c>
-      <c r="K41" t="n">
-        <v>213</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>216</v>
+      </c>
+      <c r="C42" t="n">
+        <v>217</v>
+      </c>
+      <c r="D42" t="n">
+        <v>217</v>
+      </c>
+      <c r="E42" t="n">
+        <v>216</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2333.9226</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-41086.78149999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>214</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>216</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>217</v>
       </c>
-      <c r="D42" t="n">
+      <c r="C43" t="n">
         <v>217</v>
       </c>
-      <c r="E42" t="n">
-        <v>216</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2333.9226</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="D43" t="n">
+        <v>217</v>
+      </c>
+      <c r="E43" t="n">
+        <v>217</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4236.4653</v>
+      </c>
+      <c r="G43" t="n">
         <v>-41086.78149999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>216</v>
-      </c>
-      <c r="K42" t="n">
-        <v>213</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>217</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217</v>
+      </c>
+      <c r="D44" t="n">
+        <v>217</v>
+      </c>
+      <c r="E44" t="n">
+        <v>217</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4891.0364</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-41086.78149999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>215</v>
+      </c>
+      <c r="C45" t="n">
+        <v>215</v>
+      </c>
+      <c r="D45" t="n">
+        <v>215</v>
+      </c>
+      <c r="E45" t="n">
+        <v>215</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3350</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-44436.78149999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>216</v>
+      </c>
+      <c r="C46" t="n">
+        <v>216</v>
+      </c>
+      <c r="D46" t="n">
+        <v>216</v>
+      </c>
+      <c r="E46" t="n">
+        <v>216</v>
+      </c>
+      <c r="F46" t="n">
+        <v>499.2122</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>216</v>
+      </c>
+      <c r="C47" t="n">
+        <v>216</v>
+      </c>
+      <c r="D47" t="n">
+        <v>216</v>
+      </c>
+      <c r="E47" t="n">
+        <v>216</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3068.0506</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>216</v>
+      </c>
+      <c r="C48" t="n">
+        <v>216</v>
+      </c>
+      <c r="D48" t="n">
+        <v>216</v>
+      </c>
+      <c r="E48" t="n">
+        <v>214</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11028.97</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>216</v>
+      </c>
+      <c r="C49" t="n">
+        <v>216</v>
+      </c>
+      <c r="D49" t="n">
+        <v>216</v>
+      </c>
+      <c r="E49" t="n">
+        <v>216</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9486.7942</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>215</v>
+      </c>
+      <c r="C50" t="n">
+        <v>216</v>
+      </c>
+      <c r="D50" t="n">
+        <v>216</v>
+      </c>
+      <c r="E50" t="n">
+        <v>215</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1412</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>215</v>
+      </c>
+      <c r="C51" t="n">
+        <v>216</v>
+      </c>
+      <c r="D51" t="n">
+        <v>216</v>
+      </c>
+      <c r="E51" t="n">
+        <v>215</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1208.9998</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>216</v>
+      </c>
+      <c r="C52" t="n">
+        <v>216</v>
+      </c>
+      <c r="D52" t="n">
+        <v>216</v>
+      </c>
+      <c r="E52" t="n">
+        <v>216</v>
+      </c>
+      <c r="F52" t="n">
+        <v>537.2809999999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>215</v>
+      </c>
+      <c r="C53" t="n">
+        <v>216</v>
+      </c>
+      <c r="D53" t="n">
+        <v>216</v>
+      </c>
+      <c r="E53" t="n">
+        <v>215</v>
+      </c>
+      <c r="F53" t="n">
+        <v>694</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>215</v>
+      </c>
+      <c r="C54" t="n">
+        <v>215</v>
+      </c>
+      <c r="D54" t="n">
+        <v>215</v>
+      </c>
+      <c r="E54" t="n">
+        <v>215</v>
+      </c>
+      <c r="F54" t="n">
+        <v>140.4207</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-44077.98999999999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>216</v>
+      </c>
+      <c r="C55" t="n">
+        <v>216</v>
+      </c>
+      <c r="D55" t="n">
+        <v>216</v>
+      </c>
+      <c r="E55" t="n">
+        <v>215</v>
+      </c>
+      <c r="F55" t="n">
+        <v>908.1361000000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-43169.85389999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>216</v>
+      </c>
+      <c r="C56" t="n">
+        <v>215</v>
+      </c>
+      <c r="D56" t="n">
+        <v>216</v>
+      </c>
+      <c r="E56" t="n">
+        <v>215</v>
+      </c>
+      <c r="F56" t="n">
+        <v>733.2195</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-43903.07339999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>216</v>
+      </c>
+      <c r="C57" t="n">
+        <v>216</v>
+      </c>
+      <c r="D57" t="n">
+        <v>216</v>
+      </c>
+      <c r="E57" t="n">
+        <v>216</v>
+      </c>
+      <c r="F57" t="n">
+        <v>403.0117</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-43500.06169999998</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>217</v>
+      </c>
+      <c r="C58" t="n">
+        <v>217</v>
+      </c>
+      <c r="D58" t="n">
+        <v>217</v>
+      </c>
+      <c r="E58" t="n">
+        <v>217</v>
+      </c>
+      <c r="F58" t="n">
+        <v>318.5081</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-43181.55359999998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>217</v>
+      </c>
+      <c r="C59" t="n">
+        <v>214</v>
+      </c>
+      <c r="D59" t="n">
+        <v>218</v>
+      </c>
+      <c r="E59" t="n">
+        <v>214</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16451.9709</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-59633.52449999998</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>215</v>
+      </c>
+      <c r="C60" t="n">
+        <v>215</v>
+      </c>
+      <c r="D60" t="n">
+        <v>215</v>
+      </c>
+      <c r="E60" t="n">
+        <v>215</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.6512</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-59628.87329999998</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>216</v>
+      </c>
+      <c r="C61" t="n">
+        <v>216</v>
+      </c>
+      <c r="D61" t="n">
+        <v>216</v>
+      </c>
+      <c r="E61" t="n">
+        <v>216</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1133.1369</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-58495.73639999999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>215</v>
+      </c>
+      <c r="C62" t="n">
+        <v>215</v>
+      </c>
+      <c r="D62" t="n">
+        <v>215</v>
+      </c>
+      <c r="E62" t="n">
+        <v>215</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4632.7745</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-63128.51089999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>215</v>
+      </c>
+      <c r="C63" t="n">
+        <v>218</v>
+      </c>
+      <c r="D63" t="n">
+        <v>218</v>
+      </c>
+      <c r="E63" t="n">
+        <v>215</v>
+      </c>
+      <c r="F63" t="n">
+        <v>198.1319</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-62930.37899999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>216</v>
+      </c>
+      <c r="C64" t="n">
+        <v>216</v>
+      </c>
+      <c r="D64" t="n">
+        <v>216</v>
+      </c>
+      <c r="E64" t="n">
+        <v>216</v>
+      </c>
+      <c r="F64" t="n">
+        <v>555.1423</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-63485.52129999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>218</v>
+      </c>
+      <c r="J64" t="n">
+        <v>218</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>216</v>
+      </c>
+      <c r="C65" t="n">
+        <v>216</v>
+      </c>
+      <c r="D65" t="n">
+        <v>216</v>
+      </c>
+      <c r="E65" t="n">
+        <v>216</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4444.8576</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-63485.52129999999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>218</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>216</v>
+      </c>
+      <c r="C66" t="n">
+        <v>217</v>
+      </c>
+      <c r="D66" t="n">
+        <v>217</v>
+      </c>
+      <c r="E66" t="n">
+        <v>216</v>
+      </c>
+      <c r="F66" t="n">
+        <v>248</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-63237.52129999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>218</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>217</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C67" t="n">
+        <v>216</v>
+      </c>
+      <c r="D67" t="n">
         <v>217</v>
       </c>
-      <c r="D43" t="n">
-        <v>217</v>
-      </c>
-      <c r="E43" t="n">
-        <v>217</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4236.4653</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>213</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E67" t="n">
+        <v>216</v>
+      </c>
+      <c r="F67" t="n">
+        <v>658.6660000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-63896.18729999998</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>218</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>217</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C68" t="n">
         <v>217</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D68" t="n">
         <v>217</v>
       </c>
-      <c r="E44" t="n">
-        <v>217</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4891.0364</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>213</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E68" t="n">
+        <v>216</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4831.7063</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-59064.48099999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>218</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>215</v>
-      </c>
-      <c r="C45" t="n">
-        <v>215</v>
-      </c>
-      <c r="D45" t="n">
-        <v>215</v>
-      </c>
-      <c r="E45" t="n">
-        <v>215</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3350</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-44436.78149999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>213</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>218</v>
+      </c>
+      <c r="C69" t="n">
+        <v>218</v>
+      </c>
+      <c r="D69" t="n">
+        <v>218</v>
+      </c>
+      <c r="E69" t="n">
+        <v>218</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7016.3996</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-52048.08139999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>218</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>216</v>
-      </c>
-      <c r="C46" t="n">
-        <v>216</v>
-      </c>
-      <c r="D46" t="n">
-        <v>216</v>
-      </c>
-      <c r="E46" t="n">
-        <v>216</v>
-      </c>
-      <c r="F46" t="n">
-        <v>499.2122</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>213</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>217</v>
+      </c>
+      <c r="C70" t="n">
+        <v>217</v>
+      </c>
+      <c r="D70" t="n">
+        <v>217</v>
+      </c>
+      <c r="E70" t="n">
+        <v>217</v>
+      </c>
+      <c r="F70" t="n">
+        <v>500</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-52548.08139999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>218</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>216</v>
-      </c>
-      <c r="C47" t="n">
-        <v>216</v>
-      </c>
-      <c r="D47" t="n">
-        <v>216</v>
-      </c>
-      <c r="E47" t="n">
-        <v>216</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3068.0506</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>213</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>218</v>
+      </c>
+      <c r="C71" t="n">
+        <v>218</v>
+      </c>
+      <c r="D71" t="n">
+        <v>218</v>
+      </c>
+      <c r="E71" t="n">
+        <v>218</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1975.1883</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-50572.89309999999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>218</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>216</v>
-      </c>
-      <c r="C48" t="n">
-        <v>216</v>
-      </c>
-      <c r="D48" t="n">
-        <v>216</v>
-      </c>
-      <c r="E48" t="n">
-        <v>214</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11028.97</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>213</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>218</v>
+      </c>
+      <c r="C72" t="n">
+        <v>218</v>
+      </c>
+      <c r="D72" t="n">
+        <v>218</v>
+      </c>
+      <c r="E72" t="n">
+        <v>218</v>
+      </c>
+      <c r="F72" t="n">
+        <v>635.3389</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-50572.89309999999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>218</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>216</v>
-      </c>
-      <c r="C49" t="n">
-        <v>216</v>
-      </c>
-      <c r="D49" t="n">
-        <v>216</v>
-      </c>
-      <c r="E49" t="n">
-        <v>216</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9486.7942</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>213</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>219</v>
+      </c>
+      <c r="C73" t="n">
+        <v>219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>219</v>
+      </c>
+      <c r="E73" t="n">
+        <v>219</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14409.2054</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>218</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>215</v>
-      </c>
-      <c r="C50" t="n">
-        <v>216</v>
-      </c>
-      <c r="D50" t="n">
-        <v>216</v>
-      </c>
-      <c r="E50" t="n">
-        <v>215</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1412</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>213</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>219</v>
+      </c>
+      <c r="C74" t="n">
+        <v>219</v>
+      </c>
+      <c r="D74" t="n">
+        <v>219</v>
+      </c>
+      <c r="E74" t="n">
+        <v>219</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3561.4421</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>215</v>
-      </c>
-      <c r="C51" t="n">
-        <v>216</v>
-      </c>
-      <c r="D51" t="n">
-        <v>216</v>
-      </c>
-      <c r="E51" t="n">
-        <v>215</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1208.9998</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>216</v>
-      </c>
-      <c r="K51" t="n">
-        <v>213</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>219</v>
+      </c>
+      <c r="C75" t="n">
+        <v>219</v>
+      </c>
+      <c r="D75" t="n">
+        <v>219</v>
+      </c>
+      <c r="E75" t="n">
+        <v>219</v>
+      </c>
+      <c r="F75" t="n">
+        <v>241.642</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>218</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>216</v>
-      </c>
-      <c r="C52" t="n">
-        <v>216</v>
-      </c>
-      <c r="D52" t="n">
-        <v>216</v>
-      </c>
-      <c r="E52" t="n">
-        <v>216</v>
-      </c>
-      <c r="F52" t="n">
-        <v>537.2809999999999</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>213</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>219</v>
+      </c>
+      <c r="C76" t="n">
+        <v>219</v>
+      </c>
+      <c r="D76" t="n">
+        <v>219</v>
+      </c>
+      <c r="E76" t="n">
+        <v>219</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>218</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>215</v>
-      </c>
-      <c r="C53" t="n">
-        <v>216</v>
-      </c>
-      <c r="D53" t="n">
-        <v>216</v>
-      </c>
-      <c r="E53" t="n">
-        <v>215</v>
-      </c>
-      <c r="F53" t="n">
-        <v>694</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>213</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>215</v>
-      </c>
-      <c r="C54" t="n">
-        <v>215</v>
-      </c>
-      <c r="D54" t="n">
-        <v>215</v>
-      </c>
-      <c r="E54" t="n">
-        <v>215</v>
-      </c>
-      <c r="F54" t="n">
-        <v>140.4207</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-44077.98999999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>213</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>216</v>
-      </c>
-      <c r="C55" t="n">
-        <v>216</v>
-      </c>
-      <c r="D55" t="n">
-        <v>216</v>
-      </c>
-      <c r="E55" t="n">
-        <v>215</v>
-      </c>
-      <c r="F55" t="n">
-        <v>908.1361000000001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-43169.85389999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>215</v>
-      </c>
-      <c r="K55" t="n">
-        <v>213</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>216</v>
-      </c>
-      <c r="C56" t="n">
-        <v>215</v>
-      </c>
-      <c r="D56" t="n">
-        <v>216</v>
-      </c>
-      <c r="E56" t="n">
-        <v>215</v>
-      </c>
-      <c r="F56" t="n">
-        <v>733.2195</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-43903.07339999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>213</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>216</v>
-      </c>
-      <c r="C57" t="n">
-        <v>216</v>
-      </c>
-      <c r="D57" t="n">
-        <v>216</v>
-      </c>
-      <c r="E57" t="n">
-        <v>216</v>
-      </c>
-      <c r="F57" t="n">
-        <v>403.0117</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-43500.06169999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>213</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>217</v>
-      </c>
-      <c r="C58" t="n">
-        <v>217</v>
-      </c>
-      <c r="D58" t="n">
-        <v>217</v>
-      </c>
-      <c r="E58" t="n">
-        <v>217</v>
-      </c>
-      <c r="F58" t="n">
-        <v>318.5081</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-43181.55359999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>213</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>217</v>
-      </c>
-      <c r="C59" t="n">
-        <v>214</v>
-      </c>
-      <c r="D59" t="n">
-        <v>218</v>
-      </c>
-      <c r="E59" t="n">
-        <v>214</v>
-      </c>
-      <c r="F59" t="n">
-        <v>16451.9709</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-59633.52449999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>213</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>215</v>
-      </c>
-      <c r="C60" t="n">
-        <v>215</v>
-      </c>
-      <c r="D60" t="n">
-        <v>215</v>
-      </c>
-      <c r="E60" t="n">
-        <v>215</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4.6512</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-59628.87329999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>213</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>216</v>
-      </c>
-      <c r="C61" t="n">
-        <v>216</v>
-      </c>
-      <c r="D61" t="n">
-        <v>216</v>
-      </c>
-      <c r="E61" t="n">
-        <v>216</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1133.1369</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-58495.73639999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>213</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>215</v>
-      </c>
-      <c r="C62" t="n">
-        <v>215</v>
-      </c>
-      <c r="D62" t="n">
-        <v>215</v>
-      </c>
-      <c r="E62" t="n">
-        <v>215</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4632.7745</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-63128.51089999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>213</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>215</v>
-      </c>
-      <c r="C63" t="n">
-        <v>218</v>
-      </c>
-      <c r="D63" t="n">
-        <v>218</v>
-      </c>
-      <c r="E63" t="n">
-        <v>215</v>
-      </c>
-      <c r="F63" t="n">
-        <v>198.1319</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-62930.37899999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>215</v>
-      </c>
-      <c r="K63" t="n">
-        <v>213</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>216</v>
-      </c>
-      <c r="C64" t="n">
-        <v>216</v>
-      </c>
-      <c r="D64" t="n">
-        <v>216</v>
-      </c>
-      <c r="E64" t="n">
-        <v>216</v>
-      </c>
-      <c r="F64" t="n">
-        <v>555.1423</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-63485.52129999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>213</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>216</v>
-      </c>
-      <c r="C65" t="n">
-        <v>216</v>
-      </c>
-      <c r="D65" t="n">
-        <v>216</v>
-      </c>
-      <c r="E65" t="n">
-        <v>216</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4444.8576</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-63485.52129999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>213</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>216</v>
-      </c>
-      <c r="C66" t="n">
-        <v>217</v>
-      </c>
-      <c r="D66" t="n">
-        <v>217</v>
-      </c>
-      <c r="E66" t="n">
-        <v>216</v>
-      </c>
-      <c r="F66" t="n">
-        <v>248</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-63237.52129999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>213</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>217</v>
-      </c>
-      <c r="C67" t="n">
-        <v>216</v>
-      </c>
-      <c r="D67" t="n">
-        <v>217</v>
-      </c>
-      <c r="E67" t="n">
-        <v>216</v>
-      </c>
-      <c r="F67" t="n">
-        <v>658.6660000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-63896.18729999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>213</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>217</v>
-      </c>
-      <c r="C68" t="n">
-        <v>217</v>
-      </c>
-      <c r="D68" t="n">
-        <v>217</v>
-      </c>
-      <c r="E68" t="n">
-        <v>216</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4831.7063</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-59064.48099999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>213</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>218</v>
-      </c>
-      <c r="C69" t="n">
-        <v>218</v>
-      </c>
-      <c r="D69" t="n">
-        <v>218</v>
-      </c>
-      <c r="E69" t="n">
-        <v>218</v>
-      </c>
-      <c r="F69" t="n">
-        <v>7016.3996</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-52048.08139999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>213</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>217</v>
-      </c>
-      <c r="C70" t="n">
-        <v>217</v>
-      </c>
-      <c r="D70" t="n">
-        <v>217</v>
-      </c>
-      <c r="E70" t="n">
-        <v>217</v>
-      </c>
-      <c r="F70" t="n">
-        <v>500</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-52548.08139999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>213</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>218</v>
-      </c>
-      <c r="C71" t="n">
-        <v>218</v>
-      </c>
-      <c r="D71" t="n">
-        <v>218</v>
-      </c>
-      <c r="E71" t="n">
-        <v>218</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1975.1883</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>213</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>218</v>
-      </c>
-      <c r="C72" t="n">
-        <v>218</v>
-      </c>
-      <c r="D72" t="n">
-        <v>218</v>
-      </c>
-      <c r="E72" t="n">
-        <v>218</v>
-      </c>
-      <c r="F72" t="n">
-        <v>635.3389</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>213</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>219</v>
-      </c>
-      <c r="C73" t="n">
-        <v>219</v>
-      </c>
-      <c r="D73" t="n">
-        <v>219</v>
-      </c>
-      <c r="E73" t="n">
-        <v>219</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14409.2054</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>213</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>219</v>
-      </c>
-      <c r="C74" t="n">
-        <v>219</v>
-      </c>
-      <c r="D74" t="n">
-        <v>219</v>
-      </c>
-      <c r="E74" t="n">
-        <v>219</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3561.4421</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>213</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>219</v>
-      </c>
-      <c r="C75" t="n">
-        <v>219</v>
-      </c>
-      <c r="D75" t="n">
-        <v>219</v>
-      </c>
-      <c r="E75" t="n">
-        <v>219</v>
-      </c>
-      <c r="F75" t="n">
-        <v>241.642</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>213</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>219</v>
-      </c>
-      <c r="C76" t="n">
-        <v>219</v>
-      </c>
-      <c r="D76" t="n">
-        <v>219</v>
-      </c>
-      <c r="E76" t="n">
-        <v>219</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>213</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3432,24 +3056,21 @@
         <v>-38613.99299999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>213</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>218</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3476,22 +3097,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>213</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3518,22 +3130,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>213</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3558,24 +3161,15 @@
         <v>36084.71340000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>213</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3600,24 +3194,15 @@
         <v>41752.90640000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>213</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3642,24 +3227,15 @@
         <v>24119.55480000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>213</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3684,24 +3260,15 @@
         <v>24119.55480000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>213</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3726,24 +3293,15 @@
         <v>24702.5721</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>213</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3768,24 +3326,15 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>213</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1.03255868544601</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3810,18 +3359,15 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3846,18 +3392,15 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3882,18 +3425,15 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3918,18 +3458,15 @@
         <v>7501.007300000005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3956,16 +3493,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3992,16 +3526,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4028,16 +3559,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4062,18 +3590,15 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4098,18 +3623,15 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4134,18 +3656,15 @@
         <v>6865.115900000004</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4170,18 +3689,15 @@
         <v>6887.723900000005</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4206,18 +3722,15 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4242,18 +3755,15 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4278,18 +3788,15 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4316,16 +3823,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4350,18 +3854,15 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4388,16 +3889,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4424,16 +3922,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4460,16 +3955,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4496,16 +3988,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4532,16 +4021,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4568,16 +4054,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4604,16 +4087,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4640,16 +4120,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4676,16 +4153,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4712,16 +4186,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4748,16 +4219,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4784,16 +4252,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4820,16 +4285,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4856,16 +4318,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4890,18 +4349,15 @@
         <v>-6614.754099999996</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4928,16 +4384,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4964,16 +4417,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5000,16 +4450,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5034,18 +4481,15 @@
         <v>-10552.8383</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5072,16 +4516,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5108,16 +4549,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5142,18 +4580,15 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5178,18 +4613,15 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5214,18 +4646,15 @@
         <v>-18659.0197</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5250,18 +4679,15 @@
         <v>-18327.0197</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5286,18 +4712,15 @@
         <v>-18327.0197</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5324,16 +4747,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5360,16 +4780,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5396,16 +4813,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5430,18 +4844,15 @@
         <v>-12491.5308</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5466,18 +4877,15 @@
         <v>-12491.5308</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5502,18 +4910,15 @@
         <v>-12532.9491</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5538,18 +4943,15 @@
         <v>-12532.9491</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5574,18 +4976,15 @@
         <v>-12642.5485</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5610,18 +5009,15 @@
         <v>-19370.5485</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5646,18 +5042,15 @@
         <v>13444.086</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5682,18 +5075,15 @@
         <v>13444.086</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5718,18 +5108,15 @@
         <v>13444.086</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5754,18 +5141,15 @@
         <v>13444.086</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5792,16 +5176,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5828,16 +5209,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5864,16 +5242,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5900,16 +5275,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5936,16 +5308,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5972,16 +5341,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6008,16 +5374,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6044,16 +5407,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6080,16 +5440,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6116,16 +5473,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6152,16 +5506,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6188,16 +5539,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6224,16 +5572,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6260,16 +5605,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6296,16 +5638,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6332,16 +5671,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6368,16 +5704,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6404,16 +5737,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6440,16 +5770,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6476,16 +5803,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6512,16 +5836,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6548,16 +5869,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6584,16 +5902,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6620,16 +5935,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6656,16 +5968,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6692,16 +6001,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6728,16 +6034,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6764,16 +6067,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6800,16 +6100,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6836,16 +6133,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6872,16 +6166,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6908,16 +6199,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6944,16 +6232,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6980,18 +6265,15 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>-42553.2837</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1408,14 +1408,10 @@
         <v>-50239.71079999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>211</v>
-      </c>
-      <c r="J31" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1448,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>211</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1484,19 +1474,11 @@
         <v>-50226.21149999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>213</v>
-      </c>
-      <c r="J33" t="n">
-        <v>211</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,10 +1573,14 @@
         <v>-50236.38289999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>212</v>
+      </c>
+      <c r="J36" t="n">
+        <v>212</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1624,15 +1610,17 @@
         <v>-50036.70539999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>212</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,7 +1649,7 @@
         <v>-50036.70539999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>213</v>
@@ -1702,56 +1690,56 @@
         <v>-43584.77629999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>213</v>
       </c>
       <c r="J39" t="n">
-        <v>212</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>213</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>215</v>
+      </c>
+      <c r="C40" t="n">
+        <v>215</v>
+      </c>
+      <c r="D40" t="n">
+        <v>215</v>
+      </c>
+      <c r="E40" t="n">
+        <v>215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.0722</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-43561.70409999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>214</v>
+      </c>
+      <c r="J40" t="n">
+        <v>213</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>215</v>
-      </c>
-      <c r="C40" t="n">
-        <v>215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>215</v>
-      </c>
-      <c r="E40" t="n">
-        <v>215</v>
-      </c>
-      <c r="F40" t="n">
-        <v>23.0722</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-43561.70409999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>214</v>
-      </c>
-      <c r="J40" t="n">
-        <v>214</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1784,7 +1772,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1822,14 +1810,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>214</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2236,17 @@
         <v>-43169.85389999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>215</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2287,11 +2275,17 @@
         <v>-43903.07339999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>216</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2314,17 @@
         <v>-43500.06169999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>215</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2353,17 @@
         <v>-43181.55359999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>216</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2390,7 +2396,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2423,7 +2433,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2452,11 +2466,17 @@
         <v>-58495.73639999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>215</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2505,17 @@
         <v>-63128.51089999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>216</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2544,17 @@
         <v>-62930.37899999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>215</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2551,15 +2583,15 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>218</v>
-      </c>
-      <c r="J64" t="n">
-        <v>218</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2591,12 +2623,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>218</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2630,12 +2660,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>218</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2669,9 +2697,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>218</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2708,9 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>218</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,9 +2771,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>218</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>218</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,9 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>218</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,9 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>218</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,9 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>218</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>218</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2981,9 +2993,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>218</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>218</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,713 +3064,793 @@
         <v>-38613.99299999999</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>218</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>219</v>
+      </c>
+      <c r="C78" t="n">
+        <v>219</v>
+      </c>
+      <c r="D78" t="n">
+        <v>219</v>
+      </c>
+      <c r="E78" t="n">
+        <v>219</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1466.1647</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-37147.82829999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>220</v>
+      </c>
+      <c r="C79" t="n">
+        <v>220</v>
+      </c>
+      <c r="D79" t="n">
+        <v>220</v>
+      </c>
+      <c r="E79" t="n">
+        <v>220</v>
+      </c>
+      <c r="F79" t="n">
+        <v>57340.259</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20192.43070000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>220</v>
+      </c>
+      <c r="C80" t="n">
+        <v>221</v>
+      </c>
+      <c r="D80" t="n">
+        <v>221</v>
+      </c>
+      <c r="E80" t="n">
+        <v>220</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15892.2827</v>
+      </c>
+      <c r="G80" t="n">
+        <v>36084.71340000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>221</v>
+      </c>
+      <c r="C81" t="n">
+        <v>222</v>
+      </c>
+      <c r="D81" t="n">
+        <v>222</v>
+      </c>
+      <c r="E81" t="n">
+        <v>220</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5668.193</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41752.90640000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>222</v>
+      </c>
+      <c r="C82" t="n">
+        <v>220</v>
+      </c>
+      <c r="D82" t="n">
+        <v>223</v>
+      </c>
+      <c r="E82" t="n">
+        <v>220</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17633.3516</v>
+      </c>
+      <c r="G82" t="n">
+        <v>24119.55480000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>221</v>
+      </c>
+      <c r="C83" t="n">
+        <v>220</v>
+      </c>
+      <c r="D83" t="n">
+        <v>221</v>
+      </c>
+      <c r="E83" t="n">
+        <v>220</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2584</v>
+      </c>
+      <c r="G83" t="n">
+        <v>24119.55480000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>222</v>
+      </c>
+      <c r="C84" t="n">
+        <v>222</v>
+      </c>
+      <c r="D84" t="n">
+        <v>222</v>
+      </c>
+      <c r="E84" t="n">
+        <v>222</v>
+      </c>
+      <c r="F84" t="n">
+        <v>583.0173</v>
+      </c>
+      <c r="G84" t="n">
+        <v>24702.5721</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>222</v>
+      </c>
+      <c r="C85" t="n">
+        <v>221</v>
+      </c>
+      <c r="D85" t="n">
+        <v>223</v>
+      </c>
+      <c r="E85" t="n">
+        <v>220</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17201.5648</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>221</v>
+      </c>
+      <c r="C86" t="n">
+        <v>221</v>
+      </c>
+      <c r="D86" t="n">
+        <v>222</v>
+      </c>
+      <c r="E86" t="n">
+        <v>221</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5862.6392</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>221</v>
+      </c>
+      <c r="C87" t="n">
+        <v>221</v>
+      </c>
+      <c r="D87" t="n">
+        <v>221</v>
+      </c>
+      <c r="E87" t="n">
+        <v>221</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3394.7526</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>221</v>
+      </c>
+      <c r="C88" t="n">
+        <v>221</v>
+      </c>
+      <c r="D88" t="n">
+        <v>221</v>
+      </c>
+      <c r="E88" t="n">
+        <v>221</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2528.7953</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>221</v>
+      </c>
+      <c r="C89" t="n">
+        <v>221</v>
+      </c>
+      <c r="D89" t="n">
+        <v>221</v>
+      </c>
+      <c r="E89" t="n">
+        <v>221</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1892.0197</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>221</v>
+      </c>
+      <c r="C90" t="n">
+        <v>220</v>
+      </c>
+      <c r="D90" t="n">
+        <v>221</v>
+      </c>
+      <c r="E90" t="n">
+        <v>220</v>
+      </c>
+      <c r="F90" t="n">
+        <v>855.2524</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6645.754900000004</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>222</v>
+      </c>
+      <c r="C91" t="n">
+        <v>220</v>
+      </c>
+      <c r="D91" t="n">
+        <v>222</v>
+      </c>
+      <c r="E91" t="n">
+        <v>220</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5776.028</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6645.754900000004</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>221</v>
+      </c>
+      <c r="C92" t="n">
+        <v>221</v>
+      </c>
+      <c r="D92" t="n">
+        <v>221</v>
+      </c>
+      <c r="E92" t="n">
+        <v>221</v>
+      </c>
+      <c r="F92" t="n">
+        <v>412.2878</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7058.042700000005</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>221</v>
+      </c>
+      <c r="C93" t="n">
+        <v>221</v>
+      </c>
+      <c r="D93" t="n">
+        <v>221</v>
+      </c>
+      <c r="E93" t="n">
+        <v>221</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1388.5001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7058.042700000005</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>222</v>
+      </c>
+      <c r="C94" t="n">
+        <v>221</v>
+      </c>
+      <c r="D94" t="n">
+        <v>222</v>
+      </c>
+      <c r="E94" t="n">
+        <v>220</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6075.1114</v>
+      </c>
+      <c r="G94" t="n">
+        <v>7058.042700000005</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>220</v>
+      </c>
+      <c r="C95" t="n">
+        <v>220</v>
+      </c>
+      <c r="D95" t="n">
+        <v>220</v>
+      </c>
+      <c r="E95" t="n">
+        <v>220</v>
+      </c>
+      <c r="F95" t="n">
+        <v>192.9268</v>
+      </c>
+      <c r="G95" t="n">
+        <v>6865.115900000004</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>221</v>
+      </c>
+      <c r="C96" t="n">
+        <v>221</v>
+      </c>
+      <c r="D96" t="n">
+        <v>221</v>
+      </c>
+      <c r="E96" t="n">
+        <v>221</v>
+      </c>
+      <c r="F96" t="n">
+        <v>22.608</v>
+      </c>
+      <c r="G96" t="n">
+        <v>6887.723900000005</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>220</v>
+      </c>
+      <c r="C97" t="n">
+        <v>220</v>
+      </c>
+      <c r="D97" t="n">
+        <v>220</v>
+      </c>
+      <c r="E97" t="n">
+        <v>220</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3037.7372</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>220</v>
+      </c>
+      <c r="C98" t="n">
+        <v>220</v>
+      </c>
+      <c r="D98" t="n">
+        <v>220</v>
+      </c>
+      <c r="E98" t="n">
+        <v>220</v>
+      </c>
+      <c r="F98" t="n">
+        <v>245.496</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3849.986700000004</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>219</v>
-      </c>
-      <c r="C78" t="n">
-        <v>219</v>
-      </c>
-      <c r="D78" t="n">
-        <v>219</v>
-      </c>
-      <c r="E78" t="n">
-        <v>219</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1466.1647</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-37147.82829999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>220</v>
-      </c>
-      <c r="C79" t="n">
-        <v>220</v>
-      </c>
-      <c r="D79" t="n">
-        <v>220</v>
-      </c>
-      <c r="E79" t="n">
-        <v>220</v>
-      </c>
-      <c r="F79" t="n">
-        <v>57340.259</v>
-      </c>
-      <c r="G79" t="n">
-        <v>20192.43070000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>220</v>
-      </c>
-      <c r="C80" t="n">
-        <v>221</v>
-      </c>
-      <c r="D80" t="n">
-        <v>221</v>
-      </c>
-      <c r="E80" t="n">
-        <v>220</v>
-      </c>
-      <c r="F80" t="n">
-        <v>15892.2827</v>
-      </c>
-      <c r="G80" t="n">
-        <v>36084.71340000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>221</v>
-      </c>
-      <c r="C81" t="n">
-        <v>222</v>
-      </c>
-      <c r="D81" t="n">
-        <v>222</v>
-      </c>
-      <c r="E81" t="n">
-        <v>220</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5668.193</v>
-      </c>
-      <c r="G81" t="n">
-        <v>41752.90640000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>222</v>
-      </c>
-      <c r="C82" t="n">
-        <v>220</v>
-      </c>
-      <c r="D82" t="n">
-        <v>223</v>
-      </c>
-      <c r="E82" t="n">
-        <v>220</v>
-      </c>
-      <c r="F82" t="n">
-        <v>17633.3516</v>
-      </c>
-      <c r="G82" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>221</v>
-      </c>
-      <c r="C83" t="n">
-        <v>220</v>
-      </c>
-      <c r="D83" t="n">
-        <v>221</v>
-      </c>
-      <c r="E83" t="n">
-        <v>220</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2584</v>
-      </c>
-      <c r="G83" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>222</v>
-      </c>
-      <c r="C84" t="n">
-        <v>222</v>
-      </c>
-      <c r="D84" t="n">
-        <v>222</v>
-      </c>
-      <c r="E84" t="n">
-        <v>222</v>
-      </c>
-      <c r="F84" t="n">
-        <v>583.0173</v>
-      </c>
-      <c r="G84" t="n">
-        <v>24702.5721</v>
-      </c>
-      <c r="H84" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>222</v>
-      </c>
-      <c r="C85" t="n">
-        <v>221</v>
-      </c>
-      <c r="D85" t="n">
-        <v>223</v>
-      </c>
-      <c r="E85" t="n">
-        <v>220</v>
-      </c>
-      <c r="F85" t="n">
-        <v>17201.5648</v>
-      </c>
-      <c r="G85" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>221</v>
-      </c>
-      <c r="C86" t="n">
-        <v>221</v>
-      </c>
-      <c r="D86" t="n">
-        <v>222</v>
-      </c>
-      <c r="E86" t="n">
-        <v>221</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5862.6392</v>
-      </c>
-      <c r="G86" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>221</v>
-      </c>
-      <c r="C87" t="n">
-        <v>221</v>
-      </c>
-      <c r="D87" t="n">
-        <v>221</v>
-      </c>
-      <c r="E87" t="n">
-        <v>221</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3394.7526</v>
-      </c>
-      <c r="G87" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>221</v>
-      </c>
-      <c r="C88" t="n">
-        <v>221</v>
-      </c>
-      <c r="D88" t="n">
-        <v>221</v>
-      </c>
-      <c r="E88" t="n">
-        <v>221</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2528.7953</v>
-      </c>
-      <c r="G88" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>221</v>
-      </c>
-      <c r="C89" t="n">
-        <v>221</v>
-      </c>
-      <c r="D89" t="n">
-        <v>221</v>
-      </c>
-      <c r="E89" t="n">
-        <v>221</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1892.0197</v>
-      </c>
-      <c r="G89" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>221</v>
-      </c>
-      <c r="C90" t="n">
-        <v>220</v>
-      </c>
-      <c r="D90" t="n">
-        <v>221</v>
-      </c>
-      <c r="E90" t="n">
-        <v>220</v>
-      </c>
-      <c r="F90" t="n">
-        <v>855.2524</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6645.754900000004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>222</v>
-      </c>
-      <c r="C91" t="n">
-        <v>220</v>
-      </c>
-      <c r="D91" t="n">
-        <v>222</v>
-      </c>
-      <c r="E91" t="n">
-        <v>220</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5776.028</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6645.754900000004</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>221</v>
-      </c>
-      <c r="C92" t="n">
-        <v>221</v>
-      </c>
-      <c r="D92" t="n">
-        <v>221</v>
-      </c>
-      <c r="E92" t="n">
-        <v>221</v>
-      </c>
-      <c r="F92" t="n">
-        <v>412.2878</v>
-      </c>
-      <c r="G92" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>221</v>
-      </c>
-      <c r="C93" t="n">
-        <v>221</v>
-      </c>
-      <c r="D93" t="n">
-        <v>221</v>
-      </c>
-      <c r="E93" t="n">
-        <v>221</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1388.5001</v>
-      </c>
-      <c r="G93" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>222</v>
-      </c>
-      <c r="C94" t="n">
-        <v>221</v>
-      </c>
-      <c r="D94" t="n">
-        <v>222</v>
-      </c>
-      <c r="E94" t="n">
-        <v>220</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6075.1114</v>
-      </c>
-      <c r="G94" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>220</v>
-      </c>
-      <c r="C95" t="n">
-        <v>220</v>
-      </c>
-      <c r="D95" t="n">
-        <v>220</v>
-      </c>
-      <c r="E95" t="n">
-        <v>220</v>
-      </c>
-      <c r="F95" t="n">
-        <v>192.9268</v>
-      </c>
-      <c r="G95" t="n">
-        <v>6865.115900000004</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>221</v>
-      </c>
-      <c r="C96" t="n">
-        <v>221</v>
-      </c>
-      <c r="D96" t="n">
-        <v>221</v>
-      </c>
-      <c r="E96" t="n">
-        <v>221</v>
-      </c>
-      <c r="F96" t="n">
-        <v>22.608</v>
-      </c>
-      <c r="G96" t="n">
-        <v>6887.723900000005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>220</v>
-      </c>
-      <c r="C97" t="n">
-        <v>220</v>
-      </c>
-      <c r="D97" t="n">
-        <v>220</v>
-      </c>
-      <c r="E97" t="n">
-        <v>220</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3037.7372</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>220</v>
-      </c>
-      <c r="C98" t="n">
-        <v>220</v>
-      </c>
-      <c r="D98" t="n">
-        <v>220</v>
-      </c>
-      <c r="E98" t="n">
-        <v>220</v>
-      </c>
-      <c r="F98" t="n">
-        <v>245.496</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3788,7 +3876,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3821,7 +3909,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3854,7 +3942,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3887,7 +3975,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3920,7 +4008,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3953,7 +4041,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3986,7 +4074,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4019,7 +4107,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4052,7 +4140,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4085,7 +4173,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4118,7 +4206,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4151,7 +4239,7 @@
         <v>16143.9673</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4184,7 +4272,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4349,7 +4437,7 @@
         <v>-6614.754099999996</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4448,7 +4536,7 @@
         <v>-10417.8383</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4481,7 +4569,7 @@
         <v>-10552.8383</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4514,7 +4602,7 @@
         <v>-10552.8383</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4547,7 +4635,7 @@
         <v>-9869.541099999995</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4580,7 +4668,7 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4613,7 +4701,7 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4646,7 +4734,7 @@
         <v>-18659.0197</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4679,7 +4767,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4712,7 +4800,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4745,7 +4833,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4778,7 +4866,7 @@
         <v>-4100.296299999996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4811,7 +4899,7 @@
         <v>-12164.5308</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4844,7 +4932,7 @@
         <v>-12491.5308</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4877,7 +4965,7 @@
         <v>-12491.5308</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4910,7 +4998,7 @@
         <v>-12532.9491</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4943,7 +5031,7 @@
         <v>-12532.9491</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4976,7 +5064,7 @@
         <v>-12642.5485</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5009,7 +5097,7 @@
         <v>-19370.5485</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5042,7 +5130,7 @@
         <v>13444.086</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5075,7 +5163,7 @@
         <v>13444.086</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5108,7 +5196,7 @@
         <v>13444.086</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5141,7 +5229,7 @@
         <v>13444.086</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6274,6 +6362,6 @@
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,11 +1309,17 @@
         <v>-49634.7026</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>213</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1348,17 @@
         <v>-50086.21079999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>216</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1391,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1424,17 @@
         <v>-50239.71079999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>211</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1463,17 @@
         <v>-50229.71079999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>212</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1502,17 @@
         <v>-50226.21149999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>213</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1545,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1582,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1578,10 +1620,12 @@
       <c r="I36" t="n">
         <v>212</v>
       </c>
-      <c r="J36" t="n">
-        <v>212</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,15 +1654,15 @@
         <v>-50036.70539999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>212</v>
       </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1654,12 +1698,10 @@
       <c r="I38" t="n">
         <v>213</v>
       </c>
-      <c r="J38" t="n">
-        <v>212</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1695,10 +1737,12 @@
       <c r="I39" t="n">
         <v>213</v>
       </c>
-      <c r="J39" t="n">
-        <v>213</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1732,12 +1776,10 @@
       <c r="I40" t="n">
         <v>214</v>
       </c>
-      <c r="J40" t="n">
-        <v>213</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1771,12 +1813,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>213</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1811,7 +1851,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1844,7 +1888,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1877,7 +1925,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1910,7 +1962,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1943,7 +1999,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1976,7 +2036,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2009,7 +2073,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2042,7 +2110,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2075,7 +2147,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2108,7 +2184,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2141,7 +2221,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2174,7 +2258,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,7 +2295,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2236,15 +2328,13 @@
         <v>-43169.85389999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2275,11 +2365,9 @@
         <v>-43903.07339999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2314,11 +2402,9 @@
         <v>-43500.06169999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2353,11 +2439,9 @@
         <v>-43181.55359999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2466,11 +2550,9 @@
         <v>-58495.73639999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2505,11 +2587,9 @@
         <v>-63128.51089999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>216</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2544,11 +2624,9 @@
         <v>-62930.37899999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2657,18 +2735,16 @@
         <v>-63237.52129999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2694,15 +2770,11 @@
         <v>-63896.18729999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2731,15 +2803,11 @@
         <v>-59064.48099999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2772,11 +2840,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2805,15 +2869,11 @@
         <v>-52548.08139999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2842,15 +2902,11 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2879,15 +2935,11 @@
         <v>-50572.89309999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2916,15 +2968,11 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2953,15 +3001,11 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2990,15 +3034,11 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3027,15 +3067,11 @@
         <v>-36163.68769999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3064,15 +3100,11 @@
         <v>-38613.99299999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3101,15 +3133,11 @@
         <v>-37147.82829999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3138,15 +3166,11 @@
         <v>20192.43070000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3175,15 +3199,11 @@
         <v>36084.71340000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3216,11 +3236,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3253,11 +3269,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3302,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3327,11 +3335,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3364,11 +3368,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3401,11 +3401,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3438,11 +3434,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3475,11 +3467,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3500,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3549,11 +3533,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3566,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3599,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3632,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3665,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3698,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3771,11 +3731,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3808,11 +3764,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3841,16 +3793,14 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3876,7 +3826,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3909,7 +3859,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3942,7 +3892,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3975,7 +3925,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4008,7 +3958,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4041,7 +3991,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4074,7 +4024,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4107,7 +4057,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4140,7 +4090,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4173,7 +4123,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4206,7 +4156,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4239,7 +4189,7 @@
         <v>16143.9673</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4272,7 +4222,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4536,7 +4486,7 @@
         <v>-10417.8383</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4569,7 +4519,7 @@
         <v>-10552.8383</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4602,7 +4552,7 @@
         <v>-10552.8383</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4635,7 +4585,7 @@
         <v>-9869.541099999995</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4668,7 +4618,7 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4701,7 +4651,7 @@
         <v>-10389.54109999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4734,7 +4684,7 @@
         <v>-18659.0197</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4767,7 +4717,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4800,7 +4750,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4833,7 +4783,7 @@
         <v>-18327.0197</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4866,7 +4816,7 @@
         <v>-4100.296299999996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4899,7 +4849,7 @@
         <v>-12164.5308</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4932,7 +4882,7 @@
         <v>-12491.5308</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4965,7 +4915,7 @@
         <v>-12491.5308</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4998,7 +4948,7 @@
         <v>-12532.9491</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5031,7 +4981,7 @@
         <v>-12532.9491</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6362,6 +6312,6 @@
       <c r="M174" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -1309,775 +1309,761 @@
         <v>-49634.7026</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>216</v>
+      </c>
+      <c r="C29" t="n">
+        <v>214</v>
+      </c>
+      <c r="D29" t="n">
+        <v>216</v>
+      </c>
+      <c r="E29" t="n">
+        <v>214</v>
+      </c>
+      <c r="F29" t="n">
+        <v>451.5082</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-50086.21079999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>215</v>
+      </c>
+      <c r="C30" t="n">
+        <v>211</v>
+      </c>
+      <c r="D30" t="n">
+        <v>215</v>
+      </c>
+      <c r="E30" t="n">
+        <v>211</v>
+      </c>
+      <c r="F30" t="n">
+        <v>169</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-50255.21079999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>212</v>
+      </c>
+      <c r="C31" t="n">
+        <v>212</v>
+      </c>
+      <c r="D31" t="n">
+        <v>212</v>
+      </c>
+      <c r="E31" t="n">
+        <v>212</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-50239.71079999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>213</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="C32" t="n">
+        <v>213</v>
+      </c>
+      <c r="D32" t="n">
+        <v>213</v>
+      </c>
+      <c r="E32" t="n">
+        <v>213</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-50229.71079999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>212</v>
+      </c>
+      <c r="J32" t="n">
+        <v>212</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>215</v>
+      </c>
+      <c r="C33" t="n">
+        <v>215</v>
+      </c>
+      <c r="D33" t="n">
+        <v>215</v>
+      </c>
+      <c r="E33" t="n">
+        <v>215</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.4993</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-50226.21149999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>213</v>
+      </c>
+      <c r="J33" t="n">
+        <v>212</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>215</v>
+      </c>
+      <c r="C34" t="n">
+        <v>215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>215</v>
+      </c>
+      <c r="E34" t="n">
+        <v>215</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.1714</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-50226.21149999999</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>212</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>212</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212</v>
+      </c>
+      <c r="D35" t="n">
+        <v>212</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.1714</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-50236.38289999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>212</v>
+      </c>
+      <c r="C36" t="n">
+        <v>212</v>
+      </c>
+      <c r="D36" t="n">
+        <v>212</v>
+      </c>
+      <c r="E36" t="n">
+        <v>212</v>
+      </c>
+      <c r="F36" t="n">
+        <v>124.8126</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-50236.38289999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>213</v>
+      </c>
+      <c r="C37" t="n">
+        <v>213</v>
+      </c>
+      <c r="D37" t="n">
+        <v>213</v>
+      </c>
+      <c r="E37" t="n">
+        <v>213</v>
+      </c>
+      <c r="F37" t="n">
+        <v>199.6775</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-50036.70539999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>212</v>
+      </c>
+      <c r="J37" t="n">
+        <v>212</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>213</v>
+      </c>
+      <c r="C38" t="n">
+        <v>213</v>
+      </c>
+      <c r="D38" t="n">
+        <v>213</v>
+      </c>
+      <c r="E38" t="n">
+        <v>213</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.5344</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-50036.70539999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>213</v>
+      </c>
+      <c r="J38" t="n">
+        <v>212</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>214</v>
+      </c>
+      <c r="C39" t="n">
+        <v>214</v>
+      </c>
+      <c r="D39" t="n">
+        <v>214</v>
+      </c>
+      <c r="E39" t="n">
+        <v>214</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6451.9291</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-43584.77629999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>213</v>
+      </c>
+      <c r="J39" t="n">
+        <v>212</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>215</v>
+      </c>
+      <c r="C40" t="n">
+        <v>215</v>
+      </c>
+      <c r="D40" t="n">
+        <v>215</v>
+      </c>
+      <c r="E40" t="n">
+        <v>215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.0722</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-43561.70409999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>214</v>
+      </c>
+      <c r="J40" t="n">
+        <v>214</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>216</v>
+      </c>
+      <c r="C41" t="n">
+        <v>216</v>
+      </c>
+      <c r="D41" t="n">
+        <v>216</v>
+      </c>
+      <c r="E41" t="n">
+        <v>216</v>
+      </c>
+      <c r="F41" t="n">
+        <v>141</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-43420.70409999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>214</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>216</v>
+      </c>
+      <c r="C42" t="n">
+        <v>217</v>
+      </c>
+      <c r="D42" t="n">
+        <v>217</v>
+      </c>
+      <c r="E42" t="n">
+        <v>216</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2333.9226</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-41086.78149999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>214</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>217</v>
+      </c>
+      <c r="C43" t="n">
+        <v>217</v>
+      </c>
+      <c r="D43" t="n">
+        <v>217</v>
+      </c>
+      <c r="E43" t="n">
+        <v>217</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4236.4653</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-41086.78149999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>217</v>
+      </c>
+      <c r="J43" t="n">
+        <v>217</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>217</v>
+      </c>
+      <c r="C44" t="n">
+        <v>217</v>
+      </c>
+      <c r="D44" t="n">
+        <v>217</v>
+      </c>
+      <c r="E44" t="n">
+        <v>217</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4891.0364</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-41086.78149999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>217</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>215</v>
+      </c>
+      <c r="C45" t="n">
+        <v>215</v>
+      </c>
+      <c r="D45" t="n">
+        <v>215</v>
+      </c>
+      <c r="E45" t="n">
+        <v>215</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3350</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-44436.78149999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>217</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>216</v>
+      </c>
+      <c r="C46" t="n">
+        <v>216</v>
+      </c>
+      <c r="D46" t="n">
+        <v>216</v>
+      </c>
+      <c r="E46" t="n">
+        <v>216</v>
+      </c>
+      <c r="F46" t="n">
+        <v>499.2122</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>215</v>
+      </c>
+      <c r="J46" t="n">
+        <v>215</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>216</v>
+      </c>
+      <c r="C47" t="n">
+        <v>216</v>
+      </c>
+      <c r="D47" t="n">
+        <v>216</v>
+      </c>
+      <c r="E47" t="n">
+        <v>216</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3068.0506</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>216</v>
+      </c>
+      <c r="J47" t="n">
+        <v>215</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>216</v>
+      </c>
+      <c r="C48" t="n">
+        <v>216</v>
+      </c>
+      <c r="D48" t="n">
+        <v>216</v>
+      </c>
+      <c r="E48" t="n">
+        <v>214</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11028.97</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-43937.56929999999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>216</v>
+      </c>
+      <c r="J48" t="n">
+        <v>215</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>216</v>
-      </c>
-      <c r="C29" t="n">
-        <v>214</v>
-      </c>
-      <c r="D29" t="n">
-        <v>216</v>
-      </c>
-      <c r="E29" t="n">
-        <v>214</v>
-      </c>
-      <c r="F29" t="n">
-        <v>451.5082</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-50086.21079999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>216</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>215</v>
-      </c>
-      <c r="C30" t="n">
-        <v>211</v>
-      </c>
-      <c r="D30" t="n">
-        <v>215</v>
-      </c>
-      <c r="E30" t="n">
-        <v>211</v>
-      </c>
-      <c r="F30" t="n">
-        <v>169</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-50255.21079999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>212</v>
-      </c>
-      <c r="C31" t="n">
-        <v>212</v>
-      </c>
-      <c r="D31" t="n">
-        <v>212</v>
-      </c>
-      <c r="E31" t="n">
-        <v>212</v>
-      </c>
-      <c r="F31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-50239.71079999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>211</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>213</v>
-      </c>
-      <c r="C32" t="n">
-        <v>213</v>
-      </c>
-      <c r="D32" t="n">
-        <v>213</v>
-      </c>
-      <c r="E32" t="n">
-        <v>213</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-50229.71079999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>212</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>215</v>
-      </c>
-      <c r="C33" t="n">
-        <v>215</v>
-      </c>
-      <c r="D33" t="n">
-        <v>215</v>
-      </c>
-      <c r="E33" t="n">
-        <v>215</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.4993</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-50226.21149999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>213</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>215</v>
-      </c>
-      <c r="C34" t="n">
-        <v>215</v>
-      </c>
-      <c r="D34" t="n">
-        <v>215</v>
-      </c>
-      <c r="E34" t="n">
-        <v>215</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10.1714</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-50226.21149999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>212</v>
-      </c>
-      <c r="C35" t="n">
-        <v>212</v>
-      </c>
-      <c r="D35" t="n">
-        <v>212</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10.1714</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-50236.38289999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>212</v>
-      </c>
-      <c r="C36" t="n">
-        <v>212</v>
-      </c>
-      <c r="D36" t="n">
-        <v>212</v>
-      </c>
-      <c r="E36" t="n">
-        <v>212</v>
-      </c>
-      <c r="F36" t="n">
-        <v>124.8126</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-50236.38289999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>212</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>213</v>
-      </c>
-      <c r="C37" t="n">
-        <v>213</v>
-      </c>
-      <c r="D37" t="n">
-        <v>213</v>
-      </c>
-      <c r="E37" t="n">
-        <v>213</v>
-      </c>
-      <c r="F37" t="n">
-        <v>199.6775</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-50036.70539999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>212</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>213</v>
-      </c>
-      <c r="C38" t="n">
-        <v>213</v>
-      </c>
-      <c r="D38" t="n">
-        <v>213</v>
-      </c>
-      <c r="E38" t="n">
-        <v>213</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17.5344</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-50036.70539999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>213</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>214</v>
-      </c>
-      <c r="C39" t="n">
-        <v>214</v>
-      </c>
-      <c r="D39" t="n">
-        <v>214</v>
-      </c>
-      <c r="E39" t="n">
-        <v>214</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6451.9291</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-43584.77629999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>213</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>215</v>
-      </c>
-      <c r="C40" t="n">
-        <v>215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>215</v>
-      </c>
-      <c r="E40" t="n">
-        <v>215</v>
-      </c>
-      <c r="F40" t="n">
-        <v>23.0722</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-43561.70409999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>214</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>216</v>
-      </c>
-      <c r="C41" t="n">
-        <v>216</v>
-      </c>
-      <c r="D41" t="n">
-        <v>216</v>
-      </c>
-      <c r="E41" t="n">
-        <v>216</v>
-      </c>
-      <c r="F41" t="n">
-        <v>141</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-43420.70409999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>216</v>
-      </c>
-      <c r="C42" t="n">
-        <v>217</v>
-      </c>
-      <c r="D42" t="n">
-        <v>217</v>
-      </c>
-      <c r="E42" t="n">
-        <v>216</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2333.9226</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>217</v>
-      </c>
-      <c r="C43" t="n">
-        <v>217</v>
-      </c>
-      <c r="D43" t="n">
-        <v>217</v>
-      </c>
-      <c r="E43" t="n">
-        <v>217</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4236.4653</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>217</v>
-      </c>
-      <c r="C44" t="n">
-        <v>217</v>
-      </c>
-      <c r="D44" t="n">
-        <v>217</v>
-      </c>
-      <c r="E44" t="n">
-        <v>217</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4891.0364</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>215</v>
-      </c>
-      <c r="C45" t="n">
-        <v>215</v>
-      </c>
-      <c r="D45" t="n">
-        <v>215</v>
-      </c>
-      <c r="E45" t="n">
-        <v>215</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3350</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-44436.78149999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>216</v>
-      </c>
-      <c r="C46" t="n">
-        <v>216</v>
-      </c>
-      <c r="D46" t="n">
-        <v>216</v>
-      </c>
-      <c r="E46" t="n">
-        <v>216</v>
-      </c>
-      <c r="F46" t="n">
-        <v>499.2122</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>216</v>
-      </c>
-      <c r="C47" t="n">
-        <v>216</v>
-      </c>
-      <c r="D47" t="n">
-        <v>216</v>
-      </c>
-      <c r="E47" t="n">
-        <v>216</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3068.0506</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>216</v>
-      </c>
-      <c r="C48" t="n">
-        <v>216</v>
-      </c>
-      <c r="D48" t="n">
-        <v>216</v>
-      </c>
-      <c r="E48" t="n">
-        <v>214</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11028.97</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2106,10 +2092,14 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>216</v>
+      </c>
+      <c r="J49" t="n">
+        <v>215</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,10 +2133,14 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>216</v>
+      </c>
+      <c r="J50" t="n">
+        <v>215</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2180,10 +2174,14 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>216</v>
+      </c>
+      <c r="J51" t="n">
+        <v>215</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2217,10 +2215,14 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>216</v>
+      </c>
+      <c r="J52" t="n">
+        <v>215</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,10 +2256,14 @@
         <v>-43937.56929999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>216</v>
+      </c>
+      <c r="J53" t="n">
+        <v>215</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,10 +2297,14 @@
         <v>-44077.98999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>216</v>
+      </c>
+      <c r="J54" t="n">
+        <v>215</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,10 +2338,14 @@
         <v>-43169.85389999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>215</v>
+      </c>
+      <c r="J55" t="n">
+        <v>215</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2365,10 +2379,14 @@
         <v>-43903.07339999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>216</v>
+      </c>
+      <c r="J56" t="n">
+        <v>215</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,10 +2420,14 @@
         <v>-43500.06169999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>215</v>
+      </c>
+      <c r="J57" t="n">
+        <v>215</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2439,10 +2461,14 @@
         <v>-43181.55359999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>216</v>
+      </c>
+      <c r="J58" t="n">
+        <v>215</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2476,10 +2502,14 @@
         <v>-59633.52449999998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>217</v>
+      </c>
+      <c r="J59" t="n">
+        <v>215</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2513,10 +2543,14 @@
         <v>-59628.87329999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>214</v>
+      </c>
+      <c r="J60" t="n">
+        <v>215</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,10 +2584,14 @@
         <v>-58495.73639999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>215</v>
+      </c>
+      <c r="J61" t="n">
+        <v>215</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,10 +2625,14 @@
         <v>-63128.51089999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>216</v>
+      </c>
+      <c r="J62" t="n">
+        <v>215</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,10 +2666,14 @@
         <v>-62930.37899999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>215</v>
+      </c>
+      <c r="J63" t="n">
+        <v>215</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,10 +2707,14 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>218</v>
+      </c>
+      <c r="J64" t="n">
+        <v>215</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2698,10 +2748,14 @@
         <v>-63485.52129999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>216</v>
+      </c>
+      <c r="J65" t="n">
+        <v>215</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2735,807 +2789,957 @@
         <v>-63237.52129999999</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>216</v>
+      </c>
+      <c r="J66" t="n">
+        <v>215</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>217</v>
+      </c>
+      <c r="C67" t="n">
+        <v>216</v>
+      </c>
+      <c r="D67" t="n">
+        <v>217</v>
+      </c>
+      <c r="E67" t="n">
+        <v>216</v>
+      </c>
+      <c r="F67" t="n">
+        <v>658.6660000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-63896.18729999998</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>215</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>217</v>
+      </c>
+      <c r="C68" t="n">
+        <v>217</v>
+      </c>
+      <c r="D68" t="n">
+        <v>217</v>
+      </c>
+      <c r="E68" t="n">
+        <v>216</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4831.7063</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-59064.48099999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>215</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>218</v>
+      </c>
+      <c r="C69" t="n">
+        <v>218</v>
+      </c>
+      <c r="D69" t="n">
+        <v>218</v>
+      </c>
+      <c r="E69" t="n">
+        <v>218</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7016.3996</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-52048.08139999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>215</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>217</v>
+      </c>
+      <c r="C70" t="n">
+        <v>217</v>
+      </c>
+      <c r="D70" t="n">
+        <v>217</v>
+      </c>
+      <c r="E70" t="n">
+        <v>217</v>
+      </c>
+      <c r="F70" t="n">
+        <v>500</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-52548.08139999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>215</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>218</v>
+      </c>
+      <c r="C71" t="n">
+        <v>218</v>
+      </c>
+      <c r="D71" t="n">
+        <v>218</v>
+      </c>
+      <c r="E71" t="n">
+        <v>218</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1975.1883</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-50572.89309999999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>215</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>218</v>
+      </c>
+      <c r="C72" t="n">
+        <v>218</v>
+      </c>
+      <c r="D72" t="n">
+        <v>218</v>
+      </c>
+      <c r="E72" t="n">
+        <v>218</v>
+      </c>
+      <c r="F72" t="n">
+        <v>635.3389</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-50572.89309999999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>215</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>219</v>
+      </c>
+      <c r="C73" t="n">
+        <v>219</v>
+      </c>
+      <c r="D73" t="n">
+        <v>219</v>
+      </c>
+      <c r="E73" t="n">
+        <v>219</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14409.2054</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>215</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>219</v>
+      </c>
+      <c r="C74" t="n">
+        <v>219</v>
+      </c>
+      <c r="D74" t="n">
+        <v>219</v>
+      </c>
+      <c r="E74" t="n">
+        <v>219</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3561.4421</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>215</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>219</v>
+      </c>
+      <c r="C75" t="n">
+        <v>219</v>
+      </c>
+      <c r="D75" t="n">
+        <v>219</v>
+      </c>
+      <c r="E75" t="n">
+        <v>219</v>
+      </c>
+      <c r="F75" t="n">
+        <v>241.642</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>215</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>219</v>
+      </c>
+      <c r="C76" t="n">
+        <v>219</v>
+      </c>
+      <c r="D76" t="n">
+        <v>219</v>
+      </c>
+      <c r="E76" t="n">
+        <v>219</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-36163.68769999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>215</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>219</v>
+      </c>
+      <c r="C77" t="n">
+        <v>218</v>
+      </c>
+      <c r="D77" t="n">
+        <v>219</v>
+      </c>
+      <c r="E77" t="n">
+        <v>218</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2450.3053</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-38613.99299999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>215</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>219</v>
+      </c>
+      <c r="C78" t="n">
+        <v>219</v>
+      </c>
+      <c r="D78" t="n">
+        <v>219</v>
+      </c>
+      <c r="E78" t="n">
+        <v>219</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1466.1647</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-37147.82829999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>215</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>220</v>
+      </c>
+      <c r="C79" t="n">
+        <v>220</v>
+      </c>
+      <c r="D79" t="n">
+        <v>220</v>
+      </c>
+      <c r="E79" t="n">
+        <v>220</v>
+      </c>
+      <c r="F79" t="n">
+        <v>57340.259</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20192.43070000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>215</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>220</v>
+      </c>
+      <c r="C80" t="n">
+        <v>221</v>
+      </c>
+      <c r="D80" t="n">
+        <v>221</v>
+      </c>
+      <c r="E80" t="n">
+        <v>220</v>
+      </c>
+      <c r="F80" t="n">
+        <v>15892.2827</v>
+      </c>
+      <c r="G80" t="n">
+        <v>36084.71340000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>215</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>221</v>
+      </c>
+      <c r="C81" t="n">
+        <v>222</v>
+      </c>
+      <c r="D81" t="n">
+        <v>222</v>
+      </c>
+      <c r="E81" t="n">
+        <v>220</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5668.193</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41752.90640000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>215</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>222</v>
+      </c>
+      <c r="C82" t="n">
+        <v>220</v>
+      </c>
+      <c r="D82" t="n">
+        <v>223</v>
+      </c>
+      <c r="E82" t="n">
+        <v>220</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17633.3516</v>
+      </c>
+      <c r="G82" t="n">
+        <v>24119.55480000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>215</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>221</v>
+      </c>
+      <c r="C83" t="n">
+        <v>220</v>
+      </c>
+      <c r="D83" t="n">
+        <v>221</v>
+      </c>
+      <c r="E83" t="n">
+        <v>220</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2584</v>
+      </c>
+      <c r="G83" t="n">
+        <v>24119.55480000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>215</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>222</v>
+      </c>
+      <c r="C84" t="n">
+        <v>222</v>
+      </c>
+      <c r="D84" t="n">
+        <v>222</v>
+      </c>
+      <c r="E84" t="n">
+        <v>222</v>
+      </c>
+      <c r="F84" t="n">
+        <v>583.0173</v>
+      </c>
+      <c r="G84" t="n">
+        <v>24702.5721</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>215</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>222</v>
+      </c>
+      <c r="C85" t="n">
+        <v>221</v>
+      </c>
+      <c r="D85" t="n">
+        <v>223</v>
+      </c>
+      <c r="E85" t="n">
+        <v>220</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17201.5648</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>215</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>221</v>
+      </c>
+      <c r="C86" t="n">
+        <v>221</v>
+      </c>
+      <c r="D86" t="n">
+        <v>222</v>
+      </c>
+      <c r="E86" t="n">
+        <v>221</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5862.6392</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>215</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>221</v>
+      </c>
+      <c r="C87" t="n">
+        <v>221</v>
+      </c>
+      <c r="D87" t="n">
+        <v>221</v>
+      </c>
+      <c r="E87" t="n">
+        <v>221</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3394.7526</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>215</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>221</v>
+      </c>
+      <c r="C88" t="n">
+        <v>221</v>
+      </c>
+      <c r="D88" t="n">
+        <v>221</v>
+      </c>
+      <c r="E88" t="n">
+        <v>221</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2528.7953</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>215</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>221</v>
+      </c>
+      <c r="C89" t="n">
+        <v>221</v>
+      </c>
+      <c r="D89" t="n">
+        <v>221</v>
+      </c>
+      <c r="E89" t="n">
+        <v>221</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1892.0197</v>
+      </c>
+      <c r="G89" t="n">
+        <v>7501.007300000005</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>215</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>221</v>
+      </c>
+      <c r="C90" t="n">
+        <v>220</v>
+      </c>
+      <c r="D90" t="n">
+        <v>221</v>
+      </c>
+      <c r="E90" t="n">
+        <v>220</v>
+      </c>
+      <c r="F90" t="n">
+        <v>855.2524</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6645.754900000004</v>
+      </c>
+      <c r="H90" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>215</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>217</v>
-      </c>
-      <c r="C67" t="n">
-        <v>216</v>
-      </c>
-      <c r="D67" t="n">
-        <v>217</v>
-      </c>
-      <c r="E67" t="n">
-        <v>216</v>
-      </c>
-      <c r="F67" t="n">
-        <v>658.6660000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-63896.18729999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>217</v>
-      </c>
-      <c r="C68" t="n">
-        <v>217</v>
-      </c>
-      <c r="D68" t="n">
-        <v>217</v>
-      </c>
-      <c r="E68" t="n">
-        <v>216</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4831.7063</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-59064.48099999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>218</v>
-      </c>
-      <c r="C69" t="n">
-        <v>218</v>
-      </c>
-      <c r="D69" t="n">
-        <v>218</v>
-      </c>
-      <c r="E69" t="n">
-        <v>218</v>
-      </c>
-      <c r="F69" t="n">
-        <v>7016.3996</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-52048.08139999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>217</v>
-      </c>
-      <c r="C70" t="n">
-        <v>217</v>
-      </c>
-      <c r="D70" t="n">
-        <v>217</v>
-      </c>
-      <c r="E70" t="n">
-        <v>217</v>
-      </c>
-      <c r="F70" t="n">
-        <v>500</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-52548.08139999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>218</v>
-      </c>
-      <c r="C71" t="n">
-        <v>218</v>
-      </c>
-      <c r="D71" t="n">
-        <v>218</v>
-      </c>
-      <c r="E71" t="n">
-        <v>218</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1975.1883</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>218</v>
-      </c>
-      <c r="C72" t="n">
-        <v>218</v>
-      </c>
-      <c r="D72" t="n">
-        <v>218</v>
-      </c>
-      <c r="E72" t="n">
-        <v>218</v>
-      </c>
-      <c r="F72" t="n">
-        <v>635.3389</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>219</v>
-      </c>
-      <c r="C73" t="n">
-        <v>219</v>
-      </c>
-      <c r="D73" t="n">
-        <v>219</v>
-      </c>
-      <c r="E73" t="n">
-        <v>219</v>
-      </c>
-      <c r="F73" t="n">
-        <v>14409.2054</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>219</v>
-      </c>
-      <c r="C74" t="n">
-        <v>219</v>
-      </c>
-      <c r="D74" t="n">
-        <v>219</v>
-      </c>
-      <c r="E74" t="n">
-        <v>219</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3561.4421</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>219</v>
-      </c>
-      <c r="C75" t="n">
-        <v>219</v>
-      </c>
-      <c r="D75" t="n">
-        <v>219</v>
-      </c>
-      <c r="E75" t="n">
-        <v>219</v>
-      </c>
-      <c r="F75" t="n">
-        <v>241.642</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>219</v>
-      </c>
-      <c r="C76" t="n">
-        <v>219</v>
-      </c>
-      <c r="D76" t="n">
-        <v>219</v>
-      </c>
-      <c r="E76" t="n">
-        <v>219</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>219</v>
-      </c>
-      <c r="C77" t="n">
-        <v>218</v>
-      </c>
-      <c r="D77" t="n">
-        <v>219</v>
-      </c>
-      <c r="E77" t="n">
-        <v>218</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2450.3053</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-38613.99299999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>219</v>
-      </c>
-      <c r="C78" t="n">
-        <v>219</v>
-      </c>
-      <c r="D78" t="n">
-        <v>219</v>
-      </c>
-      <c r="E78" t="n">
-        <v>219</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1466.1647</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-37147.82829999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>220</v>
-      </c>
-      <c r="C79" t="n">
-        <v>220</v>
-      </c>
-      <c r="D79" t="n">
-        <v>220</v>
-      </c>
-      <c r="E79" t="n">
-        <v>220</v>
-      </c>
-      <c r="F79" t="n">
-        <v>57340.259</v>
-      </c>
-      <c r="G79" t="n">
-        <v>20192.43070000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>220</v>
-      </c>
-      <c r="C80" t="n">
-        <v>221</v>
-      </c>
-      <c r="D80" t="n">
-        <v>221</v>
-      </c>
-      <c r="E80" t="n">
-        <v>220</v>
-      </c>
-      <c r="F80" t="n">
-        <v>15892.2827</v>
-      </c>
-      <c r="G80" t="n">
-        <v>36084.71340000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>221</v>
-      </c>
-      <c r="C81" t="n">
-        <v>222</v>
-      </c>
-      <c r="D81" t="n">
-        <v>222</v>
-      </c>
-      <c r="E81" t="n">
-        <v>220</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5668.193</v>
-      </c>
-      <c r="G81" t="n">
-        <v>41752.90640000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>222</v>
-      </c>
-      <c r="C82" t="n">
-        <v>220</v>
-      </c>
-      <c r="D82" t="n">
-        <v>223</v>
-      </c>
-      <c r="E82" t="n">
-        <v>220</v>
-      </c>
-      <c r="F82" t="n">
-        <v>17633.3516</v>
-      </c>
-      <c r="G82" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>221</v>
-      </c>
-      <c r="C83" t="n">
-        <v>220</v>
-      </c>
-      <c r="D83" t="n">
-        <v>221</v>
-      </c>
-      <c r="E83" t="n">
-        <v>220</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2584</v>
-      </c>
-      <c r="G83" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>222</v>
-      </c>
-      <c r="C84" t="n">
-        <v>222</v>
-      </c>
-      <c r="D84" t="n">
-        <v>222</v>
-      </c>
-      <c r="E84" t="n">
-        <v>222</v>
-      </c>
-      <c r="F84" t="n">
-        <v>583.0173</v>
-      </c>
-      <c r="G84" t="n">
-        <v>24702.5721</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>222</v>
-      </c>
-      <c r="C85" t="n">
-        <v>221</v>
-      </c>
-      <c r="D85" t="n">
-        <v>223</v>
-      </c>
-      <c r="E85" t="n">
-        <v>220</v>
-      </c>
-      <c r="F85" t="n">
-        <v>17201.5648</v>
-      </c>
-      <c r="G85" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>221</v>
-      </c>
-      <c r="C86" t="n">
-        <v>221</v>
-      </c>
-      <c r="D86" t="n">
-        <v>222</v>
-      </c>
-      <c r="E86" t="n">
-        <v>221</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5862.6392</v>
-      </c>
-      <c r="G86" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>221</v>
-      </c>
-      <c r="C87" t="n">
-        <v>221</v>
-      </c>
-      <c r="D87" t="n">
-        <v>221</v>
-      </c>
-      <c r="E87" t="n">
-        <v>221</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3394.7526</v>
-      </c>
-      <c r="G87" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>221</v>
-      </c>
-      <c r="C88" t="n">
-        <v>221</v>
-      </c>
-      <c r="D88" t="n">
-        <v>221</v>
-      </c>
-      <c r="E88" t="n">
-        <v>221</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2528.7953</v>
-      </c>
-      <c r="G88" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>221</v>
-      </c>
-      <c r="C89" t="n">
-        <v>221</v>
-      </c>
-      <c r="D89" t="n">
-        <v>221</v>
-      </c>
-      <c r="E89" t="n">
-        <v>221</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1892.0197</v>
-      </c>
-      <c r="G89" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>221</v>
-      </c>
-      <c r="C90" t="n">
-        <v>220</v>
-      </c>
-      <c r="D90" t="n">
-        <v>221</v>
-      </c>
-      <c r="E90" t="n">
-        <v>220</v>
-      </c>
-      <c r="F90" t="n">
-        <v>855.2524</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6645.754900000004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>1.018255813953489</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3562,7 +3766,7 @@
         <v>6645.754900000004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3595,7 +3799,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3628,7 +3832,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3661,7 +3865,7 @@
         <v>7058.042700000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3694,7 +3898,7 @@
         <v>6865.115900000004</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3727,7 +3931,7 @@
         <v>6887.723900000005</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3760,7 +3964,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3793,7 +3997,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3859,7 +4063,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3892,7 +4096,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3925,7 +4129,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3958,7 +4162,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3991,7 +4195,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4024,7 +4228,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4057,7 +4261,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4090,7 +4294,7 @@
         <v>3849.986700000004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4123,7 +4327,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4156,7 +4360,7 @@
         <v>16385.8095</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4189,7 +4393,7 @@
         <v>16143.9673</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4222,7 +4426,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4255,7 +4459,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4288,7 +4492,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4321,7 +4525,7 @@
         <v>8829.778000000004</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4354,7 +4558,7 @@
         <v>8943.778000000004</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -6301,10 +6505,14 @@
         <v>-162643.9788</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>215</v>
+      </c>
+      <c r="J174" t="n">
+        <v>215</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>

--- a/BackTest/2019-11-14 BackTest KNC.xlsx
+++ b/BackTest/2019-11-14 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1073.361</v>
       </c>
       <c r="G2" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2961.7203</v>
       </c>
       <c r="G3" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3208.8198</v>
       </c>
       <c r="G4" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>530.6097</v>
       </c>
       <c r="G5" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>85</v>
       </c>
       <c r="G7" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>5163.9362</v>
       </c>
       <c r="G8" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>65</v>
       </c>
       <c r="G11" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>52</v>
       </c>
       <c r="G12" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>-43076.2837</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>552</v>
       </c>
       <c r="G14" t="n">
-        <v>-42524.2837</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>0.3053</v>
       </c>
       <c r="G17" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10.5505</v>
       </c>
       <c r="G18" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>52</v>
       </c>
       <c r="G19" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>65</v>
       </c>
       <c r="G20" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>65</v>
       </c>
       <c r="G22" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>65</v>
       </c>
       <c r="G24" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>164.0363</v>
       </c>
       <c r="G25" t="n">
-        <v>-42553.2837</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7207.4189</v>
       </c>
       <c r="G26" t="n">
-        <v>-49760.7026</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2219.7948</v>
       </c>
       <c r="G27" t="n">
-        <v>-49760.7026</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>126</v>
       </c>
       <c r="G28" t="n">
-        <v>-49634.7026</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>451.5082</v>
       </c>
       <c r="G29" t="n">
-        <v>-50086.21079999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>169</v>
       </c>
       <c r="G30" t="n">
-        <v>-50255.21079999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>15.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-50239.71079999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,22 +1343,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-50229.71079999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>212</v>
-      </c>
-      <c r="J32" t="n">
-        <v>212</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1475,326 +1373,273 @@
         <v>3.4993</v>
       </c>
       <c r="G33" t="n">
-        <v>-50226.21149999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>215</v>
+      </c>
+      <c r="C34" t="n">
+        <v>215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>215</v>
+      </c>
+      <c r="E34" t="n">
+        <v>215</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.1714</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>212</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212</v>
+      </c>
+      <c r="D35" t="n">
+        <v>212</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.1714</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>212</v>
+      </c>
+      <c r="C36" t="n">
+        <v>212</v>
+      </c>
+      <c r="D36" t="n">
+        <v>212</v>
+      </c>
+      <c r="E36" t="n">
+        <v>212</v>
+      </c>
+      <c r="F36" t="n">
+        <v>124.8126</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>213</v>
       </c>
-      <c r="J33" t="n">
-        <v>212</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="C37" t="n">
+        <v>213</v>
+      </c>
+      <c r="D37" t="n">
+        <v>213</v>
+      </c>
+      <c r="E37" t="n">
+        <v>213</v>
+      </c>
+      <c r="F37" t="n">
+        <v>199.6775</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>213</v>
+      </c>
+      <c r="C38" t="n">
+        <v>213</v>
+      </c>
+      <c r="D38" t="n">
+        <v>213</v>
+      </c>
+      <c r="E38" t="n">
+        <v>213</v>
+      </c>
+      <c r="F38" t="n">
+        <v>17.5344</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>214</v>
+      </c>
+      <c r="C39" t="n">
+        <v>214</v>
+      </c>
+      <c r="D39" t="n">
+        <v>214</v>
+      </c>
+      <c r="E39" t="n">
+        <v>214</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6451.9291</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>213</v>
+      </c>
+      <c r="I39" t="n">
+        <v>213</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>215</v>
+      </c>
+      <c r="C40" t="n">
+        <v>215</v>
+      </c>
+      <c r="D40" t="n">
+        <v>215</v>
+      </c>
+      <c r="E40" t="n">
+        <v>215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.0722</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>214</v>
+      </c>
+      <c r="I40" t="n">
+        <v>213</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>215</v>
-      </c>
-      <c r="C34" t="n">
-        <v>215</v>
-      </c>
-      <c r="D34" t="n">
-        <v>215</v>
-      </c>
-      <c r="E34" t="n">
-        <v>215</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10.1714</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-50226.21149999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>212</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>216</v>
+      </c>
+      <c r="C41" t="n">
+        <v>216</v>
+      </c>
+      <c r="D41" t="n">
+        <v>216</v>
+      </c>
+      <c r="E41" t="n">
+        <v>216</v>
+      </c>
+      <c r="F41" t="n">
+        <v>141</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>213</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>212</v>
-      </c>
-      <c r="C35" t="n">
-        <v>212</v>
-      </c>
-      <c r="D35" t="n">
-        <v>212</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10.1714</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-50236.38289999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>212</v>
-      </c>
-      <c r="C36" t="n">
-        <v>212</v>
-      </c>
-      <c r="D36" t="n">
-        <v>212</v>
-      </c>
-      <c r="E36" t="n">
-        <v>212</v>
-      </c>
-      <c r="F36" t="n">
-        <v>124.8126</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-50236.38289999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>213</v>
-      </c>
-      <c r="C37" t="n">
-        <v>213</v>
-      </c>
-      <c r="D37" t="n">
-        <v>213</v>
-      </c>
-      <c r="E37" t="n">
-        <v>213</v>
-      </c>
-      <c r="F37" t="n">
-        <v>199.6775</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-50036.70539999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>212</v>
-      </c>
-      <c r="J37" t="n">
-        <v>212</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>213</v>
-      </c>
-      <c r="C38" t="n">
-        <v>213</v>
-      </c>
-      <c r="D38" t="n">
-        <v>213</v>
-      </c>
-      <c r="E38" t="n">
-        <v>213</v>
-      </c>
-      <c r="F38" t="n">
-        <v>17.5344</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-50036.70539999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>213</v>
-      </c>
-      <c r="J38" t="n">
-        <v>212</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>214</v>
-      </c>
-      <c r="C39" t="n">
-        <v>214</v>
-      </c>
-      <c r="D39" t="n">
-        <v>214</v>
-      </c>
-      <c r="E39" t="n">
-        <v>214</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6451.9291</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-43584.77629999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>213</v>
-      </c>
-      <c r="J39" t="n">
-        <v>212</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>215</v>
-      </c>
-      <c r="C40" t="n">
-        <v>215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>215</v>
-      </c>
-      <c r="E40" t="n">
-        <v>215</v>
-      </c>
-      <c r="F40" t="n">
-        <v>23.0722</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-43561.70409999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>214</v>
-      </c>
-      <c r="J40" t="n">
-        <v>214</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>216</v>
-      </c>
-      <c r="C41" t="n">
-        <v>216</v>
-      </c>
-      <c r="D41" t="n">
-        <v>216</v>
-      </c>
-      <c r="E41" t="n">
-        <v>216</v>
-      </c>
-      <c r="F41" t="n">
-        <v>141</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-43420.70409999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>214</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1816,24 +1661,15 @@
         <v>2333.9226</v>
       </c>
       <c r="G42" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>214</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1855,22 +1691,15 @@
         <v>4236.4653</v>
       </c>
       <c r="G43" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>217</v>
-      </c>
-      <c r="J43" t="n">
-        <v>217</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1892,24 +1721,15 @@
         <v>4891.0364</v>
       </c>
       <c r="G44" t="n">
-        <v>-41086.78149999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>217</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1931,24 +1751,15 @@
         <v>3350</v>
       </c>
       <c r="G45" t="n">
-        <v>-44436.78149999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>217</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1970,22 +1781,15 @@
         <v>499.2122</v>
       </c>
       <c r="G46" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>215</v>
-      </c>
-      <c r="J46" t="n">
-        <v>215</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2007,26 +1811,15 @@
         <v>3068.0506</v>
       </c>
       <c r="G47" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>216</v>
-      </c>
-      <c r="J47" t="n">
-        <v>215</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2048,26 +1841,15 @@
         <v>11028.97</v>
       </c>
       <c r="G48" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>216</v>
-      </c>
-      <c r="J48" t="n">
-        <v>215</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2089,26 +1871,15 @@
         <v>9486.7942</v>
       </c>
       <c r="G49" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>216</v>
-      </c>
-      <c r="J49" t="n">
-        <v>215</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2130,26 +1901,15 @@
         <v>1412</v>
       </c>
       <c r="G50" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>216</v>
-      </c>
-      <c r="J50" t="n">
-        <v>215</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2171,26 +1931,15 @@
         <v>1208.9998</v>
       </c>
       <c r="G51" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>216</v>
-      </c>
-      <c r="J51" t="n">
-        <v>215</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,26 +1961,15 @@
         <v>537.2809999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>216</v>
-      </c>
-      <c r="J52" t="n">
-        <v>215</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2253,26 +1991,15 @@
         <v>694</v>
       </c>
       <c r="G53" t="n">
-        <v>-43937.56929999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>216</v>
-      </c>
-      <c r="J53" t="n">
-        <v>215</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2294,26 +2021,15 @@
         <v>140.4207</v>
       </c>
       <c r="G54" t="n">
-        <v>-44077.98999999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>216</v>
-      </c>
-      <c r="J54" t="n">
-        <v>215</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,26 +2051,15 @@
         <v>908.1361000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-43169.85389999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>215</v>
-      </c>
-      <c r="J55" t="n">
-        <v>215</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2376,26 +2081,15 @@
         <v>733.2195</v>
       </c>
       <c r="G56" t="n">
-        <v>-43903.07339999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>216</v>
-      </c>
-      <c r="J56" t="n">
-        <v>215</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2417,26 +2111,15 @@
         <v>403.0117</v>
       </c>
       <c r="G57" t="n">
-        <v>-43500.06169999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>215</v>
-      </c>
-      <c r="J57" t="n">
-        <v>215</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2458,26 +2141,15 @@
         <v>318.5081</v>
       </c>
       <c r="G58" t="n">
-        <v>-43181.55359999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>216</v>
-      </c>
-      <c r="J58" t="n">
-        <v>215</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2499,26 +2171,15 @@
         <v>16451.9709</v>
       </c>
       <c r="G59" t="n">
-        <v>-59633.52449999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>217</v>
-      </c>
-      <c r="J59" t="n">
-        <v>215</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2540,26 +2201,15 @@
         <v>4.6512</v>
       </c>
       <c r="G60" t="n">
-        <v>-59628.87329999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>214</v>
-      </c>
-      <c r="J60" t="n">
-        <v>215</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2581,26 +2231,15 @@
         <v>1133.1369</v>
       </c>
       <c r="G61" t="n">
-        <v>-58495.73639999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>215</v>
-      </c>
-      <c r="J61" t="n">
-        <v>215</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2622,26 +2261,15 @@
         <v>4632.7745</v>
       </c>
       <c r="G62" t="n">
-        <v>-63128.51089999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>216</v>
-      </c>
-      <c r="J62" t="n">
-        <v>215</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2663,26 +2291,15 @@
         <v>198.1319</v>
       </c>
       <c r="G63" t="n">
-        <v>-62930.37899999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>215</v>
-      </c>
-      <c r="J63" t="n">
-        <v>215</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,26 +2321,15 @@
         <v>555.1423</v>
       </c>
       <c r="G64" t="n">
-        <v>-63485.52129999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>218</v>
-      </c>
-      <c r="J64" t="n">
-        <v>215</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2745,26 +2351,15 @@
         <v>4444.8576</v>
       </c>
       <c r="G65" t="n">
-        <v>-63485.52129999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>216</v>
-      </c>
-      <c r="J65" t="n">
-        <v>215</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2786,26 +2381,15 @@
         <v>248</v>
       </c>
       <c r="G66" t="n">
-        <v>-63237.52129999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>216</v>
-      </c>
-      <c r="J66" t="n">
-        <v>215</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2827,24 +2411,15 @@
         <v>658.6660000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-63896.18729999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>215</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2866,24 +2441,15 @@
         <v>4831.7063</v>
       </c>
       <c r="G68" t="n">
-        <v>-59064.48099999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>215</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2905,24 +2471,15 @@
         <v>7016.3996</v>
       </c>
       <c r="G69" t="n">
-        <v>-52048.08139999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>215</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2944,24 +2501,15 @@
         <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>-52548.08139999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>215</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2983,24 +2531,15 @@
         <v>1975.1883</v>
       </c>
       <c r="G71" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>215</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3022,24 +2561,15 @@
         <v>635.3389</v>
       </c>
       <c r="G72" t="n">
-        <v>-50572.89309999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>215</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3061,24 +2591,15 @@
         <v>14409.2054</v>
       </c>
       <c r="G73" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>215</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3100,24 +2621,15 @@
         <v>3561.4421</v>
       </c>
       <c r="G74" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>215</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3139,24 +2651,15 @@
         <v>241.642</v>
       </c>
       <c r="G75" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>215</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3178,24 +2681,15 @@
         <v>0.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>-36163.68769999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>215</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3217,24 +2711,15 @@
         <v>2450.3053</v>
       </c>
       <c r="G77" t="n">
-        <v>-38613.99299999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>215</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,24 +2741,15 @@
         <v>1466.1647</v>
       </c>
       <c r="G78" t="n">
-        <v>-37147.82829999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>215</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3295,24 +2771,15 @@
         <v>57340.259</v>
       </c>
       <c r="G79" t="n">
-        <v>20192.43070000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>215</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,24 +2801,15 @@
         <v>15892.2827</v>
       </c>
       <c r="G80" t="n">
-        <v>36084.71340000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>215</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,24 +2831,15 @@
         <v>5668.193</v>
       </c>
       <c r="G81" t="n">
-        <v>41752.90640000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>215</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,24 +2861,15 @@
         <v>17633.3516</v>
       </c>
       <c r="G82" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>215</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3451,24 +2891,15 @@
         <v>2584</v>
       </c>
       <c r="G83" t="n">
-        <v>24119.55480000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>215</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,24 +2921,15 @@
         <v>583.0173</v>
       </c>
       <c r="G84" t="n">
-        <v>24702.5721</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>215</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3529,24 +2951,15 @@
         <v>17201.5648</v>
       </c>
       <c r="G85" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>215</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,24 +2981,15 @@
         <v>5862.6392</v>
       </c>
       <c r="G86" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>215</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3607,24 +3011,15 @@
         <v>3394.7526</v>
       </c>
       <c r="G87" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>215</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,24 +3041,15 @@
         <v>2528.7953</v>
       </c>
       <c r="G88" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>215</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3685,24 +3071,15 @@
         <v>1892.0197</v>
       </c>
       <c r="G89" t="n">
-        <v>7501.007300000005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>215</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3724,24 +3101,15 @@
         <v>855.2524</v>
       </c>
       <c r="G90" t="n">
-        <v>6645.754900000004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>215</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1.018255813953489</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3763,18 +3131,15 @@
         <v>5776.028</v>
       </c>
       <c r="G91" t="n">
-        <v>6645.754900000004</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3796,18 +3161,15 @@
         <v>412.2878</v>
       </c>
       <c r="G92" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3829,18 +3191,15 @@
         <v>1388.5001</v>
       </c>
       <c r="G93" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3862,18 +3221,15 @@
         <v>6075.1114</v>
       </c>
       <c r="G94" t="n">
-        <v>7058.042700000005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3895,18 +3251,15 @@
         <v>192.9268</v>
       </c>
       <c r="G95" t="n">
-        <v>6865.115900000004</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3928,18 +3281,15 @@
         <v>22.608</v>
       </c>
       <c r="G96" t="n">
-        <v>6887.723900000005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3961,18 +3311,15 @@
         <v>3037.7372</v>
       </c>
       <c r="G97" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3994,18 +3341,15 @@
         <v>245.496</v>
       </c>
       <c r="G98" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4027,18 +3371,15 @@
         <v>1093.4126</v>
       </c>
       <c r="G99" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4060,18 +3401,15 @@
         <v>7782.7483</v>
       </c>
       <c r="G100" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4093,18 +3431,15 @@
         <v>18744.2414</v>
       </c>
       <c r="G101" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4126,18 +3461,15 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4159,18 +3491,15 @@
         <v>1552.3225</v>
       </c>
       <c r="G103" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4192,18 +3521,15 @@
         <v>30895.9102</v>
       </c>
       <c r="G104" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4225,18 +3551,15 @@
         <v>83.039</v>
       </c>
       <c r="G105" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4258,18 +3581,15 @@
         <v>14393.0187</v>
       </c>
       <c r="G106" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4291,18 +3611,15 @@
         <v>7313.5358</v>
       </c>
       <c r="G107" t="n">
-        <v>3849.986700000004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4324,18 +3641,15 @@
         <v>12535.8228</v>
       </c>
       <c r="G108" t="n">
-        <v>16385.8095</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4357,18 +3671,15 @@
         <v>17014.0777</v>
       </c>
       <c r="G109" t="n">
-        <v>16385.8095</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4390,18 +3701,15 @@
         <v>241.8422</v>
       </c>
       <c r="G110" t="n">
-        <v>16143.9673</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4423,18 +3731,15 @@
         <v>7314.1893</v>
       </c>
       <c r="G111" t="n">
-        <v>8829.778000000004</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4456,18 +3761,15 @@
         <v>133.4352</v>
       </c>
       <c r="G112" t="n">
-        <v>8829.778000000004</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4489,18 +3791,15 @@
         <v>930.4012</v>
       </c>
       <c r="G113" t="n">
-        <v>8829.778000000004</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4522,18 +3821,15 @@
         <v>254.8968</v>
       </c>
       <c r="G114" t="n">
-        <v>8829.778000000004</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4555,18 +3851,15 @@
         <v>114</v>
       </c>
       <c r="G115" t="n">
-        <v>8943.778000000004</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4588,18 +3881,15 @@
         <v>15558.5321</v>
       </c>
       <c r="G116" t="n">
-        <v>-6614.754099999996</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4621,18 +3911,15 @@
         <v>171.1914</v>
       </c>
       <c r="G117" t="n">
-        <v>-6614.754099999996</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,18 +3941,15 @@
         <v>3803.0842</v>
       </c>
       <c r="G118" t="n">
-        <v>-10417.8383</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4687,18 +3971,15 @@
         <v>5045.1683</v>
       </c>
       <c r="G119" t="n">
-        <v>-10417.8383</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4720,18 +4001,15 @@
         <v>135</v>
       </c>
       <c r="G120" t="n">
-        <v>-10552.8383</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4753,18 +4031,15 @@
         <v>565.8653</v>
       </c>
       <c r="G121" t="n">
-        <v>-10552.8383</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4786,18 +4061,15 @@
         <v>683.2972</v>
       </c>
       <c r="G122" t="n">
-        <v>-9869.541099999995</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4819,18 +4091,15 @@
         <v>520</v>
       </c>
       <c r="G123" t="n">
-        <v>-10389.54109999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4852,18 +4121,15 @@
         <v>2150.4909</v>
       </c>
       <c r="G124" t="n">
-        <v>-10389.54109999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4885,18 +4151,15 @@
         <v>8269.4786</v>
       </c>
       <c r="G125" t="n">
-        <v>-18659.0197</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4918,18 +4181,15 @@
         <v>332</v>
       </c>
       <c r="G126" t="n">
-        <v>-18327.0197</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4951,18 +4211,15 @@
         <v>182</v>
       </c>
       <c r="G127" t="n">
-        <v>-18327.0197</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4984,18 +4241,15 @@
         <v>4115.7471</v>
       </c>
       <c r="G128" t="n">
-        <v>-18327.0197</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5017,18 +4271,15 @@
         <v>14226.7234</v>
       </c>
       <c r="G129" t="n">
-        <v>-4100.296299999996</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5050,18 +4301,15 @@
         <v>8064.2345</v>
       </c>
       <c r="G130" t="n">
-        <v>-12164.5308</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5083,18 +4331,15 @@
         <v>327</v>
       </c>
       <c r="G131" t="n">
-        <v>-12491.5308</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5116,18 +4361,15 @@
         <v>12.4016</v>
       </c>
       <c r="G132" t="n">
-        <v>-12491.5308</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5149,18 +4391,15 @@
         <v>41.4183</v>
       </c>
       <c r="G133" t="n">
-        <v>-12532.9491</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5182,18 +4421,15 @@
         <v>607.4973</v>
       </c>
       <c r="G134" t="n">
-        <v>-12532.9491</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5215,18 +4451,15 @@
         <v>109.5994</v>
       </c>
       <c r="G135" t="n">
-        <v>-12642.5485</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5248,18 +4481,15 @@
         <v>6728</v>
       </c>
       <c r="G136" t="n">
-        <v>-19370.5485</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5281,18 +4511,15 @@
         <v>32814.6345</v>
       </c>
       <c r="G137" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5314,18 +4541,15 @@
         <v>3000</v>
       </c>
       <c r="G138" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5347,18 +4571,15 @@
         <v>3899.209093087557</v>
       </c>
       <c r="G139" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5380,18 +4601,15 @@
         <v>460.8294</v>
       </c>
       <c r="G140" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5413,18 +4631,15 @@
         <v>5518</v>
       </c>
       <c r="G141" t="n">
-        <v>13444.086</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5446,18 +4661,15 @@
         <v>508.3992</v>
       </c>
       <c r="G142" t="n">
-        <v>13952.4852</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5479,18 +4691,15 @@
         <v>225.7836</v>
       </c>
       <c r="G143" t="n">
-        <v>13952.4852</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5512,18 +4721,15 @@
         <v>2150.3053</v>
       </c>
       <c r="G144" t="n">
-        <v>11802.1799</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5545,18 +4751,15 @@
         <v>69746.4771</v>
       </c>
       <c r="G145" t="n">
-        <v>-57944.2972</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5578,18 +4781,15 @@
         <v>4147.3938</v>
       </c>
       <c r="G146" t="n">
-        <v>-53796.9034</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5611,18 +4811,15 @@
         <v>245.0417</v>
       </c>
       <c r="G147" t="n">
-        <v>-53796.9034</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5644,18 +4841,15 @@
         <v>8922.8428</v>
       </c>
       <c r="G148" t="n">
-        <v>-62719.7462</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5677,18 +4871,15 @@
         <v>367.3008</v>
       </c>
       <c r="G149" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5710,18 +4901,15 @@
         <v>187.0591</v>
       </c>
       <c r="G150" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5743,18 +4931,15 @@
         <v>472.3015</v>
       </c>
       <c r="G151" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5776,18 +4961,15 @@
         <v>992.996</v>
       </c>
       <c r="G152" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5809,18 +4991,15 @@
         <v>25</v>
       </c>
       <c r="G153" t="n">
-        <v>-62352.4454</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5842,18 +5021,15 @@
         <v>69746.4771</v>
       </c>
       <c r="G154" t="n">
-        <v>-132098.9225</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5875,18 +5051,15 @@
         <v>1471.2568</v>
       </c>
       <c r="G155" t="n">
-        <v>-130627.6657</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5908,18 +5081,15 @@
         <v>311.4296</v>
       </c>
       <c r="G156" t="n">
-        <v>-130939.0953</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5941,18 +5111,15 @@
         <v>5241.2944</v>
       </c>
       <c r="G157" t="n">
-        <v>-125697.8009</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5974,18 +5141,15 @@
         <v>10300</v>
       </c>
       <c r="G158" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6007,18 +5171,15 @@
         <v>7192.4676</v>
       </c>
       <c r="G159" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6040,18 +5201,15 @@
         <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>-135997.8009</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6073,18 +5231,15 @@
         <v>29636.457</v>
       </c>
       <c r="G161" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6106,18 +5261,15 @@
         <v>46.0129</v>
       </c>
       <c r="G162" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6139,18 +5291,15 @@
         <v>176.6989</v>
       </c>
       <c r="G163" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6172,18 +5321,15 @@
         <v>7975.4882</v>
       </c>
       <c r="G164" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6205,18 +5351,15 @@
         <v>391.3436</v>
       </c>
       <c r="G165" t="n">
-        <v>-165634.2579</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6238,18 +5381,15 @@
         <v>1621.2886</v>
       </c>
       <c r="G166" t="n">
-        <v>-164012.9693</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6271,18 +5411,15 @@
         <v>1848.8804</v>
       </c>
       <c r="G167" t="n">
-        <v>-162164.0889</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6304,18 +5441,15 @@
         <v>231.0613</v>
       </c>
       <c r="G168" t="n">
-        <v>-162395.1502</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6337,18 +5471,15 @@
         <v>517.3445</v>
       </c>
       <c r="G169" t="n">
-        <v>-162912.4947</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6370,18 +5501,15 @@
         <v>268.5159</v>
       </c>
       <c r="G170" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6403,18 +5531,15 @@
         <v>787.8169</v>
       </c>
       <c r="G171" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6436,18 +5561,15 @@
         <v>10800</v>
       </c>
       <c r="G172" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6469,18 +5591,15 @@
         <v>251.4037</v>
       </c>
       <c r="G173" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6502,22 +5621,15 @@
         <v>20</v>
       </c>
       <c r="G174" t="n">
-        <v>-162643.9788</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>215</v>
-      </c>
-      <c r="J174" t="n">
-        <v>215</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
